--- a/Covid_19_Dataset_and_References/References/90.xlsx
+++ b/Covid_19_Dataset_and_References/References/90.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="165">
   <si>
     <t>Doi</t>
   </si>
@@ -760,6 +760,146 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,   Di%Wu%NULL%0,   Huilong%Chen%NULL%0,   Weiming%Yan%NULL%0,   Danlei%Yang%NULL%0,   Guang%Chen%NULL%0,   Ke%Ma%NULL%0,   Dong%Xu%NULL%0,   Haijing%Yu%NULL%0,   Hongwu%Wang%NULL%0,   Tao%Wang%NULL%0,   Wei%Guo%NULL%0,   Jia%Chen%NULL%0,   Chen%Ding%NULL%0,   Xiaoping%Zhang%NULL%0,   Jiaquan%Huang%NULL%0,   Meifang%Han%NULL%0,   Shusheng%Li%NULL%0,   Xiaoping%Luo%NULL%0,   Jianping%Zhao%NULL%0,   Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
+ The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
+Methods
+id="Par2"&gt;A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
+Results
+id="Par3"&gt;A total of 226 patients were included.
+ Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
+ The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
+ Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
+ Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
+ Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
+ By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
+Conclusions
+id="Par4"&gt;Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
+ COVID-19 poses a great strain on critical care resources in hospitals.
+Trial registration
+id="Par5"&gt;Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
+chictr.
+org.
+cn/edit.
+aspx?pid=49983&amp;amp;htm=4
+</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,    Dan%Xu%NULL%0,    Shouzhi%Fu%NULL%0,    Jun%Zhang%NULL%0,    Xiaobo%Yang%NULL%0,    Liang%Xu%NULL%0,    Jiqian%Xu%NULL%0,    Yongran%Wu%NULL%0,    Chaolin%Huang%NULL%0,    Yaqi%Ouyang%NULL%0,    Luyu%Yang%NULL%0,    Minghao%Fang%NULL%0,    Hongwen%Xiao%NULL%0,    Jing%Ma%NULL%0,    Wei%Zhu%NULL%0,    Song%Hu%NULL%0,    Quan%Hu%NULL%0,    Daoyin%Ding%NULL%0,    Ming%Hu%NULL%0,    Guochao%Zhu%NULL%0,    Weijiang%Xu%NULL%0,    Jun%Guo%NULL%0,    Jinglong%Xu%NULL%0,    Haitao%Yuan%NULL%0,    Bin%Zhang%NULL%0,    Zhui%Yu%yuzhui@whu.edu.cn%0,    Dechang%Chen%icudechangchen@163.com%0,    Shiying%Yuan%yuan_shiying@163.com%0,    You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
+ The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
+Methods
+A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
+Results
+id="Par3"&gt;A total of 226 patients were included.
+ Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
+ The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
+ Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
+ Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
+ Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
+ By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
+Conclusions
+id="Par4"&gt;Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
+ COVID-19 poses a great strain on critical care resources in hospitals.
+Trial registration
+id="Par5"&gt;Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
+chictr.
+org.
+cn/edit.
+aspx?pid=49983&amp;amp;htm=4
+</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,     Dan%Xu%NULL%0,     Shouzhi%Fu%NULL%0,     Jun%Zhang%NULL%0,     Xiaobo%Yang%NULL%0,     Liang%Xu%NULL%0,     Jiqian%Xu%NULL%0,     Yongran%Wu%NULL%0,     Chaolin%Huang%NULL%0,     Yaqi%Ouyang%NULL%0,     Luyu%Yang%NULL%0,     Minghao%Fang%NULL%0,     Hongwen%Xiao%NULL%0,     Jing%Ma%NULL%0,     Wei%Zhu%NULL%0,     Song%Hu%NULL%0,     Quan%Hu%NULL%0,     Daoyin%Ding%NULL%0,     Ming%Hu%NULL%0,     Guochao%Zhu%NULL%0,     Weijiang%Xu%NULL%0,     Jun%Guo%NULL%0,     Jinglong%Xu%NULL%0,     Haitao%Yuan%NULL%0,     Bin%Zhang%NULL%0,     Zhui%Yu%yuzhui@whu.edu.cn%0,     Dechang%Chen%icudechangchen@163.com%0,     Shiying%Yuan%yuan_shiying@163.com%0,     You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
+ The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
+Methods
+A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
+Results
+A total of 226 patients were included.
+ Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
+ The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
+ Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
+ Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
+ Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
+ By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
+Conclusions
+id="Par4"&gt;Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
+ COVID-19 poses a great strain on critical care resources in hospitals.
+Trial registration
+id="Par5"&gt;Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
+chictr.
+org.
+cn/edit.
+aspx?pid=49983&amp;amp;htm=4
+</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,      Dan%Xu%NULL%0,      Shouzhi%Fu%NULL%0,      Jun%Zhang%NULL%0,      Xiaobo%Yang%NULL%0,      Liang%Xu%NULL%0,      Jiqian%Xu%NULL%0,      Yongran%Wu%NULL%0,      Chaolin%Huang%NULL%0,      Yaqi%Ouyang%NULL%0,      Luyu%Yang%NULL%0,      Minghao%Fang%NULL%0,      Hongwen%Xiao%NULL%0,      Jing%Ma%NULL%0,      Wei%Zhu%NULL%0,      Song%Hu%NULL%0,      Quan%Hu%NULL%0,      Daoyin%Ding%NULL%0,      Ming%Hu%NULL%0,      Guochao%Zhu%NULL%0,      Weijiang%Xu%NULL%0,      Jun%Guo%NULL%0,      Jinglong%Xu%NULL%0,      Haitao%Yuan%NULL%0,      Bin%Zhang%NULL%0,      Zhui%Yu%yuzhui@whu.edu.cn%0,      Dechang%Chen%icudechangchen@163.com%0,      Shiying%Yuan%yuan_shiying@163.com%0,      You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
+ The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
+Methods
+A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
+Results
+A total of 226 patients were included.
+ Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
+ The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
+ Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
+ Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
+ Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
+ By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
+Conclusions
+Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
+ COVID-19 poses a great strain on critical care resources in hospitals.
+Trial registration
+id="Par5"&gt;Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
+chictr.
+org.
+cn/edit.
+aspx?pid=49983&amp;amp;htm=4
+</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,       Dan%Xu%NULL%0,       Shouzhi%Fu%NULL%0,       Jun%Zhang%NULL%0,       Xiaobo%Yang%NULL%0,       Liang%Xu%NULL%0,       Jiqian%Xu%NULL%0,       Yongran%Wu%NULL%0,       Chaolin%Huang%NULL%0,       Yaqi%Ouyang%NULL%0,       Luyu%Yang%NULL%0,       Minghao%Fang%NULL%0,       Hongwen%Xiao%NULL%0,       Jing%Ma%NULL%0,       Wei%Zhu%NULL%0,       Song%Hu%NULL%0,       Quan%Hu%NULL%0,       Daoyin%Ding%NULL%0,       Ming%Hu%NULL%0,       Guochao%Zhu%NULL%0,       Weijiang%Xu%NULL%0,       Jun%Guo%NULL%0,       Jinglong%Xu%NULL%0,       Haitao%Yuan%NULL%0,       Bin%Zhang%NULL%0,       Zhui%Yu%yuzhui@whu.edu.cn%0,       Dechang%Chen%icudechangchen@163.com%0,       Shiying%Yuan%yuan_shiying@163.com%0,       You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
+ The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
+Methods
+A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
+Results
+A total of 226 patients were included.
+ Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
+ The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
+ Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
+ Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
+ Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
+ By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
+Conclusions
+Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
+ COVID-19 poses a great strain on critical care resources in hospitals.
+Trial registration
+Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
+chictr.
+org.
+cn/edit.
+aspx?pid=49983&amp;amp;htm=4
+</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,        Dan%Xu%NULL%0,        Shouzhi%Fu%NULL%0,        Jun%Zhang%NULL%0,        Xiaobo%Yang%NULL%0,        Liang%Xu%NULL%0,        Jiqian%Xu%NULL%0,        Yongran%Wu%NULL%0,        Chaolin%Huang%NULL%0,        Yaqi%Ouyang%NULL%0,        Luyu%Yang%NULL%0,        Minghao%Fang%NULL%0,        Hongwen%Xiao%NULL%0,        Jing%Ma%NULL%0,        Wei%Zhu%NULL%0,        Song%Hu%NULL%0,        Quan%Hu%NULL%0,        Daoyin%Ding%NULL%0,        Ming%Hu%NULL%0,        Guochao%Zhu%NULL%0,        Weijiang%Xu%NULL%0,        Jun%Guo%NULL%0,        Jinglong%Xu%NULL%0,        Haitao%Yuan%NULL%0,        Bin%Zhang%NULL%0,        Zhui%Yu%yuzhui@whu.edu.cn%0,        Dechang%Chen%icudechangchen@163.com%0,        Shiying%Yuan%yuan_shiying@163.com%0,        You%Shang%you_shanghust@163.com%0]</t>
   </si>
 </sst>
 </file>
@@ -1218,10 +1358,10 @@
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>

--- a/Covid_19_Dataset_and_References/References/90.xlsx
+++ b/Covid_19_Dataset_and_References/References/90.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="155">
   <si>
     <t>Doi</t>
   </si>
@@ -760,146 +760,6 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,   Di%Wu%NULL%0,   Huilong%Chen%NULL%0,   Weiming%Yan%NULL%0,   Danlei%Yang%NULL%0,   Guang%Chen%NULL%0,   Ke%Ma%NULL%0,   Dong%Xu%NULL%0,   Haijing%Yu%NULL%0,   Hongwu%Wang%NULL%0,   Tao%Wang%NULL%0,   Wei%Guo%NULL%0,   Jia%Chen%NULL%0,   Chen%Ding%NULL%0,   Xiaoping%Zhang%NULL%0,   Jiaquan%Huang%NULL%0,   Meifang%Han%NULL%0,   Shusheng%Li%NULL%0,   Xiaoping%Luo%NULL%0,   Jianping%Zhao%NULL%0,   Qin%Ning%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
- The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
-Methods
-id="Par2"&gt;A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
-Results
-id="Par3"&gt;A total of 226 patients were included.
- Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
- The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
- Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
- Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
- Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
- By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
-Conclusions
-id="Par4"&gt;Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
- COVID-19 poses a great strain on critical care resources in hospitals.
-Trial registration
-id="Par5"&gt;Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
-chictr.
-org.
-cn/edit.
-aspx?pid=49983&amp;amp;htm=4
-</t>
-  </si>
-  <si>
-    <t>[Yuan%Yu%NULL%0,    Dan%Xu%NULL%0,    Shouzhi%Fu%NULL%0,    Jun%Zhang%NULL%0,    Xiaobo%Yang%NULL%0,    Liang%Xu%NULL%0,    Jiqian%Xu%NULL%0,    Yongran%Wu%NULL%0,    Chaolin%Huang%NULL%0,    Yaqi%Ouyang%NULL%0,    Luyu%Yang%NULL%0,    Minghao%Fang%NULL%0,    Hongwen%Xiao%NULL%0,    Jing%Ma%NULL%0,    Wei%Zhu%NULL%0,    Song%Hu%NULL%0,    Quan%Hu%NULL%0,    Daoyin%Ding%NULL%0,    Ming%Hu%NULL%0,    Guochao%Zhu%NULL%0,    Weijiang%Xu%NULL%0,    Jun%Guo%NULL%0,    Jinglong%Xu%NULL%0,    Haitao%Yuan%NULL%0,    Bin%Zhang%NULL%0,    Zhui%Yu%yuzhui@whu.edu.cn%0,    Dechang%Chen%icudechangchen@163.com%0,    Shiying%Yuan%yuan_shiying@163.com%0,    You%Shang%you_shanghust@163.com%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
- The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
-Methods
-A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
-Results
-id="Par3"&gt;A total of 226 patients were included.
- Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
- The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
- Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
- Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
- Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
- By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
-Conclusions
-id="Par4"&gt;Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
- COVID-19 poses a great strain on critical care resources in hospitals.
-Trial registration
-id="Par5"&gt;Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
-chictr.
-org.
-cn/edit.
-aspx?pid=49983&amp;amp;htm=4
-</t>
-  </si>
-  <si>
-    <t>[Yuan%Yu%NULL%0,     Dan%Xu%NULL%0,     Shouzhi%Fu%NULL%0,     Jun%Zhang%NULL%0,     Xiaobo%Yang%NULL%0,     Liang%Xu%NULL%0,     Jiqian%Xu%NULL%0,     Yongran%Wu%NULL%0,     Chaolin%Huang%NULL%0,     Yaqi%Ouyang%NULL%0,     Luyu%Yang%NULL%0,     Minghao%Fang%NULL%0,     Hongwen%Xiao%NULL%0,     Jing%Ma%NULL%0,     Wei%Zhu%NULL%0,     Song%Hu%NULL%0,     Quan%Hu%NULL%0,     Daoyin%Ding%NULL%0,     Ming%Hu%NULL%0,     Guochao%Zhu%NULL%0,     Weijiang%Xu%NULL%0,     Jun%Guo%NULL%0,     Jinglong%Xu%NULL%0,     Haitao%Yuan%NULL%0,     Bin%Zhang%NULL%0,     Zhui%Yu%yuzhui@whu.edu.cn%0,     Dechang%Chen%icudechangchen@163.com%0,     Shiying%Yuan%yuan_shiying@163.com%0,     You%Shang%you_shanghust@163.com%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
- The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
-Methods
-A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
-Results
-A total of 226 patients were included.
- Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
- The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
- Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
- Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
- Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
- By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
-Conclusions
-id="Par4"&gt;Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
- COVID-19 poses a great strain on critical care resources in hospitals.
-Trial registration
-id="Par5"&gt;Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
-chictr.
-org.
-cn/edit.
-aspx?pid=49983&amp;amp;htm=4
-</t>
-  </si>
-  <si>
-    <t>[Yuan%Yu%NULL%0,      Dan%Xu%NULL%0,      Shouzhi%Fu%NULL%0,      Jun%Zhang%NULL%0,      Xiaobo%Yang%NULL%0,      Liang%Xu%NULL%0,      Jiqian%Xu%NULL%0,      Yongran%Wu%NULL%0,      Chaolin%Huang%NULL%0,      Yaqi%Ouyang%NULL%0,      Luyu%Yang%NULL%0,      Minghao%Fang%NULL%0,      Hongwen%Xiao%NULL%0,      Jing%Ma%NULL%0,      Wei%Zhu%NULL%0,      Song%Hu%NULL%0,      Quan%Hu%NULL%0,      Daoyin%Ding%NULL%0,      Ming%Hu%NULL%0,      Guochao%Zhu%NULL%0,      Weijiang%Xu%NULL%0,      Jun%Guo%NULL%0,      Jinglong%Xu%NULL%0,      Haitao%Yuan%NULL%0,      Bin%Zhang%NULL%0,      Zhui%Yu%yuzhui@whu.edu.cn%0,      Dechang%Chen%icudechangchen@163.com%0,      Shiying%Yuan%yuan_shiying@163.com%0,      You%Shang%you_shanghust@163.com%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
- The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
-Methods
-A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
-Results
-A total of 226 patients were included.
- Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
- The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
- Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
- Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
- Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
- By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
-Conclusions
-Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
- COVID-19 poses a great strain on critical care resources in hospitals.
-Trial registration
-id="Par5"&gt;Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
-chictr.
-org.
-cn/edit.
-aspx?pid=49983&amp;amp;htm=4
-</t>
-  </si>
-  <si>
-    <t>[Yuan%Yu%NULL%0,       Dan%Xu%NULL%0,       Shouzhi%Fu%NULL%0,       Jun%Zhang%NULL%0,       Xiaobo%Yang%NULL%0,       Liang%Xu%NULL%0,       Jiqian%Xu%NULL%0,       Yongran%Wu%NULL%0,       Chaolin%Huang%NULL%0,       Yaqi%Ouyang%NULL%0,       Luyu%Yang%NULL%0,       Minghao%Fang%NULL%0,       Hongwen%Xiao%NULL%0,       Jing%Ma%NULL%0,       Wei%Zhu%NULL%0,       Song%Hu%NULL%0,       Quan%Hu%NULL%0,       Daoyin%Ding%NULL%0,       Ming%Hu%NULL%0,       Guochao%Zhu%NULL%0,       Weijiang%Xu%NULL%0,       Jun%Guo%NULL%0,       Jinglong%Xu%NULL%0,       Haitao%Yuan%NULL%0,       Bin%Zhang%NULL%0,       Zhui%Yu%yuzhui@whu.edu.cn%0,       Dechang%Chen%icudechangchen@163.com%0,       Shiying%Yuan%yuan_shiying@163.com%0,       You%Shang%you_shanghust@163.com%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
- The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
-Methods
-A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
-Results
-A total of 226 patients were included.
- Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
- The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
- Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
- Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
- Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
- By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
-Conclusions
-Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
- COVID-19 poses a great strain on critical care resources in hospitals.
-Trial registration
-Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
-chictr.
-org.
-cn/edit.
-aspx?pid=49983&amp;amp;htm=4
-</t>
-  </si>
-  <si>
-    <t>[Yuan%Yu%NULL%0,        Dan%Xu%NULL%0,        Shouzhi%Fu%NULL%0,        Jun%Zhang%NULL%0,        Xiaobo%Yang%NULL%0,        Liang%Xu%NULL%0,        Jiqian%Xu%NULL%0,        Yongran%Wu%NULL%0,        Chaolin%Huang%NULL%0,        Yaqi%Ouyang%NULL%0,        Luyu%Yang%NULL%0,        Minghao%Fang%NULL%0,        Hongwen%Xiao%NULL%0,        Jing%Ma%NULL%0,        Wei%Zhu%NULL%0,        Song%Hu%NULL%0,        Quan%Hu%NULL%0,        Daoyin%Ding%NULL%0,        Ming%Hu%NULL%0,        Guochao%Zhu%NULL%0,        Weijiang%Xu%NULL%0,        Jun%Guo%NULL%0,        Jinglong%Xu%NULL%0,        Haitao%Yuan%NULL%0,        Bin%Zhang%NULL%0,        Zhui%Yu%yuzhui@whu.edu.cn%0,        Dechang%Chen%icudechangchen@163.com%0,        Shiying%Yuan%yuan_shiying@163.com%0,        You%Shang%you_shanghust@163.com%0]</t>
   </si>
 </sst>
 </file>
@@ -1358,10 +1218,10 @@
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>

--- a/Covid_19_Dataset_and_References/References/90.xlsx
+++ b/Covid_19_Dataset_and_References/References/90.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="178">
   <si>
     <t>Doi</t>
   </si>
@@ -760,6 +760,75 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,   Di%Wu%NULL%0,   Huilong%Chen%NULL%0,   Weiming%Yan%NULL%0,   Danlei%Yang%NULL%0,   Guang%Chen%NULL%0,   Ke%Ma%NULL%0,   Dong%Xu%NULL%0,   Haijing%Yu%NULL%0,   Hongwu%Wang%NULL%0,   Tao%Wang%NULL%0,   Wei%Guo%NULL%0,   Jia%Chen%NULL%0,   Chen%Ding%NULL%0,   Xiaoping%Zhang%NULL%0,   Jiaquan%Huang%NULL%0,   Meifang%Han%NULL%0,   Shusheng%Li%NULL%0,   Xiaoping%Luo%NULL%0,   Jianping%Zhao%NULL%0,   Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,    Ting%Yu%NULL%0,    Ronghui%Du%NULL%0,    Guohui%Fan%NULL%0,    Ying%Liu%NULL%0,    Zhibo%Liu%NULL%0,    Jie%Xiang%NULL%0,    Yeming%Wang%NULL%0,    Bin%Song%NULL%0,    Xiaoying%Gu%NULL%0,    Lulu%Guan%NULL%0,    Yuan%Wei%NULL%0,    Hui%Li%NULL%0,    Xudong%Wu%NULL%0,    Jiuyang%Xu%NULL%0,    Shengjin%Tu%NULL%0,    Yi%Zhang%NULL%0,    Hua%Chen%NULL%0,    Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,   Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,   Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,   Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0,    Kwan Ho%Lee%NULL%0,    Kwan Ho%Lee%NULL%0,    Jin Hong%Chung%NULL%0,    Jin Hong%Chung%NULL%0,    Kyeong-Cheol%Shin%NULL%0,    Kyeong-Cheol%Shin%NULL%0,    Eun Young%Choi%NULL%0,    Eun Young%Choi%NULL%0,    Hyun Jung%Jin%NULL%0,    Hyun Jung%Jin%NULL%0,    Jong Geol%Jang%NULL%0,    Jong Geol%Jang%NULL%0,    Wonhwa%Lee%NULL%0,    Wonhwa%Lee%NULL%0,    June Hong%Ahn%NULL%0,    June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,   Aggarwal%Saurabh%coreGivesNoEmail%0,   Garcia-Telles%Nelson%coreGivesNoEmail%0,   Henry%Brandon Michael%coreGivesNoEmail%0,   Lavie%Carl%coreGivesNoEmail%0,   Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,    Dan%Xu%NULL%0,    Shouzhi%Fu%NULL%0,    Jun%Zhang%NULL%0,    Xiaobo%Yang%NULL%0,    Liang%Xu%NULL%0,    Jiqian%Xu%NULL%0,    Yongran%Wu%NULL%0,    Chaolin%Huang%NULL%0,    Yaqi%Ouyang%NULL%0,    Luyu%Yang%NULL%0,    Minghao%Fang%NULL%0,    Hongwen%Xiao%NULL%0,    Jing%Ma%NULL%0,    Wei%Zhu%NULL%0,    Song%Hu%NULL%0,    Quan%Hu%NULL%0,    Daoyin%Ding%NULL%0,    Ming%Hu%NULL%0,    Guochao%Zhu%NULL%0,    Weijiang%Xu%NULL%0,    Jun%Guo%NULL%0,    Jinglong%Xu%NULL%0,    Haitao%Yuan%NULL%0,    Bin%Zhang%NULL%0,    Zhui%Yu%yuzhui@whu.edu.cn%0,    Dechang%Chen%icudechangchen@163.com%0,    Shiying%Yuan%yuan_shiying@163.com%0,    You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0,    Shaobo%Shi%NULL%0,    Shaobo%Shi%NULL%0,    Jiling%Zhu%NULL%0,    Jinzhi%Shi%NULL%0,    Kai%Dai%NULL%0,    Xiaobei%Chen%121278395@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0,    Fang-Yang%Huang%NULL%0,    Tian-Yuan%Xiong%NULL%0,    Tian-Yuan%Xiong%NULL%0,    Qi%Liu%NULL%0,    Hong%Chen%NULL%0,    Hui%Wang%NULL%0,    He%Huang%NULL%0,    Yi-Chun%Luo%NULL%0,    Xuan%Zhou%NULL%0,    Zhi-Yue%Liu%NULL%0,    Yong%Peng%NULL%0,    Yuan-Ning%Xu%NULL%0,    Bo%Wang%NULL%0,    Ying-Ying%Yang%NULL%0,    Zong-An%Liang%NULL%0,    Xue-Zhong%Lei%NULL%0,    Yang%Ge%NULL%0,    Ming%Yang%NULL%0,    Ling%Zhang%NULL%0,    Ming-Quan%Zeng%NULL%0,    He%Yu%NULL%0,    Kai%Liu%NULL%0,    Yu-Heng%Jia%NULL%0,    Bernard D%Prendergast%NULL%0,    Wei-Min%Li%NULL%0,    Wei-Min%Li%NULL%0,    Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,    Shuyun%Xu%NULL%0,    Muqing%Yu%NULL%0,    Ke%Wang%NULL%0,    Yu%Tao%NULL%0,    Ying%Zhou%NULL%0,    Jing%Shi%NULL%0,    Min%Zhou%NULL%0,    Bo%Wu%NULL%0,    Zhenyu%Yang%NULL%0,    Cong%Zhang%NULL%0,    Junqing%Yue%NULL%0,    Zhiguo%Zhang%NULL%0,    Harald%Renz%NULL%0,    Xiansheng%Liu%NULL%0,    Jungang%Xie%NULL%0,    Min%Xie%NULL%0,    Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%1,    Kipp W.%Johnson%NULL%1,    James L.%Januzzi%NULL%1,    Adam J.%Russak%NULL%1,    Ishan%Paranjpe%NULL%0,    Felix%Richter%NULL%0,    Shan%Zhao%NULL%0,    Sulaiman%Somani%NULL%0,    Tielman%Van Vleck%NULL%1,    Akhil%Vaid%NULL%0,    Fayzan%Chaudhry%NULL%1,    Jessica K.%De Freitas%NULL%1,    Zahi A.%Fayad%NULL%1,    Sean P.%Pinney%NULL%1,    Matthew%Levin%NULL%1,    Alexander%Charney%NULL%1,    Emilia%Bagiella%NULL%0,    Jagat%Narula%NULL%0,    Benjamin S.%Glicksberg%NULL%1,    Girish%Nadkarni%NULL%1,    Donna M.%Mancini%NULL%1,    Valentin%Fuster%NULL%0,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,    Yeming%Wang%NULL%0,    Xingwang%Li%NULL%0,    Lili%Ren%NULL%0,    Jianping%Zhao%NULL%0,    Yi%Hu%NULL%0,    Li%Zhang%NULL%0,    Guohui%Fan%NULL%0,    Jiuyang%Xu%NULL%0,    Xiaoying%Gu%NULL%0,    Zhenshun%Cheng%NULL%0,    Ting%Yu%NULL%0,    Jiaan%Xia%NULL%0,    Yuan%Wei%NULL%0,    Wenjuan%Wu%NULL%0,    Xuelei%Xie%NULL%0,    Wen%Yin%NULL%0,    Hui%Li%NULL%0,    Min%Liu%NULL%0,    Yan%Xiao%NULL%0,    Hong%Gao%NULL%0,    Li%Guo%NULL%0,    Jungang%Xie%NULL%0,    Guangfa%Wang%NULL%0,    Rongmeng%Jiang%NULL%0,    Zhancheng%Gao%NULL%0,    Qi%Jin%NULL%0,    Jianwei%Wang%wangjw28@163.com%0,    Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,    Linlin%Xie%NULL%0,    Rui%Liu%NULL%0,    Jie%Yang%NULL%0,    Fang%Liu%NULL%0,    Kailang%Wu%NULL%0,    Lang%Chen%NULL%0,    Wei%Hou%NULL%0,    Yong%Feng%yongfeng@whu.edu.cn%0,    Chengliang%Zhu%xinchengzhu@163.com%0,    Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0,    Bo%Hu%NULL%0,    Yao%Zhang%NULL%0,    Hao%Wang%NULL%0,    Xiaoyang%Zhou%NULL%0,    Wei%Hu%NULL%0,    Yuting%Cheng%NULL%0,    Jie%Yan%NULL%0,    Haiqin%Ping%NULL%0,    Qing%Zhou%qingzhou.wh.edu@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%1,    Xien%Gui%NULL%1,    Yongxi%Zhang%NULL%0,    Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,    Yuan%Yu%NULL%0,    Jiqian%Xu%NULL%0,    Huaqing%Shu%NULL%0,    Jia'an%Xia%NULL%0,    Hong%Liu%NULL%0,    Yongran%Wu%NULL%0,    Lu%Zhang%NULL%0,    Zhui%Yu%NULL%0,    Minghao%Fang%NULL%0,    Ting%Yu%NULL%0,    Yaxin%Wang%NULL%0,    Shangwen%Pan%NULL%0,    Xiaojing%Zou%NULL%0,    Shiying%Yuan%NULL%0,    You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,   Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,   Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,   Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,   Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0,    Miao%Yu%NULL%0,    Tian%Xie%NULL%0,    Fen%Yang%NULL%0,    Hong-Bo%Wang%NULL%0,    Zhao-Hui%Wang%NULL%0,    Ming%Li%NULL%0,    Xing-Li%Gao%NULL%0,    Bing-Jie%Lv%NULL%0,    Shi-Jia%Wang%NULL%0,    Xiao-Bo%Zhang%NULL%0,    Shao-Lin%He%NULL%0,    Zhi-Hua%Qiu%NULL%0,    Yu-Hua%Liao%NULL%0,    Zi-Hua%Zhou%NULL%0,    Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,    Yongzhen%Fan%NULL%0,    Ming%Chen%NULL%0,    Xiaoyan%Wu%NULL%0,    Lin%Zhang%NULL%0,    Tao%He%NULL%0,    Hairong%Wang%NULL%0,    Jing%Wan%NULL%0,    Xinghuan%Wang%NULL%0,    Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,    Wei%Liu%NULL%0,    Kui%Liu%NULL%0,    Yuan-Yuan%Fang%NULL%0,    Jin%Shang%NULL%0,    Ling%Zhou%NULL%0,    Ke%Wang%NULL%0,    Fan%Leng%NULL%0,    Shuang%Wei%NULL%0,    Lei%Chen%NULL%0,    Hui-Guo%Liu%NULL%0,    Pei-Fang%Wei%NULL%0,    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,    Di%Wu%NULL%0,    Huilong%Chen%NULL%0,    Weiming%Yan%NULL%0,    Danlei%Yang%NULL%0,    Guang%Chen%NULL%0,    Ke%Ma%NULL%0,    Dong%Xu%NULL%0,    Haijing%Yu%NULL%0,    Hongwu%Wang%NULL%0,    Tao%Wang%NULL%0,    Wei%Guo%NULL%0,    Jia%Chen%NULL%0,    Chen%Ding%NULL%0,    Xiaoping%Zhang%NULL%0,    Jiaquan%Huang%NULL%0,    Meifang%Han%NULL%0,    Shusheng%Li%NULL%0,    Xiaoping%Luo%NULL%0,    Jianping%Zhao%NULL%0,    Qin%Ning%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1076,6 +1145,9 @@
       <c r="H1" t="s">
         <v>33</v>
       </c>
+      <c r="I1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1091,7 +1163,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -1101,6 +1173,9 @@
       </c>
       <c r="H2" t="s">
         <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="3">
@@ -1117,16 +1192,19 @@
         <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
         <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4">
@@ -1143,7 +1221,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1153,6 +1231,9 @@
       </c>
       <c r="H4" t="s">
         <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="5">
@@ -1180,6 +1261,9 @@
       <c r="H5" t="s">
         <v>39</v>
       </c>
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -1195,16 +1279,19 @@
         <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
         <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -1221,7 +1308,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1231,6 +1318,9 @@
       </c>
       <c r="H7" t="s">
         <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="8">
@@ -1247,7 +1337,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1257,6 +1347,9 @@
       </c>
       <c r="H8" t="s">
         <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="9">
@@ -1273,7 +1366,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1283,6 +1376,9 @@
       </c>
       <c r="H9" t="s">
         <v>59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -1299,7 +1395,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1309,6 +1405,9 @@
       </c>
       <c r="H10" t="s">
         <v>64</v>
+      </c>
+      <c r="I10" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="11">
@@ -1325,7 +1424,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -1335,6 +1434,9 @@
       </c>
       <c r="H11" t="s">
         <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="12">
@@ -1351,7 +1453,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -1361,6 +1463,9 @@
       </c>
       <c r="H12" t="s">
         <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="13">
@@ -1377,7 +1482,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1387,6 +1492,9 @@
       </c>
       <c r="H13" t="s">
         <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="14">
@@ -1403,7 +1511,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1413,6 +1521,9 @@
       </c>
       <c r="H14" t="s">
         <v>83</v>
+      </c>
+      <c r="I14" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="15">
@@ -1429,7 +1540,7 @@
         <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -1439,6 +1550,9 @@
       </c>
       <c r="H15" t="s">
         <v>88</v>
+      </c>
+      <c r="I15" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="16">
@@ -1455,7 +1569,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -1465,6 +1579,9 @@
       </c>
       <c r="H16" t="s">
         <v>39</v>
+      </c>
+      <c r="I16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="17">
@@ -1481,16 +1598,19 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
         <v>39</v>
+      </c>
+      <c r="I17" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="18">
@@ -1507,7 +1627,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
@@ -1517,6 +1637,9 @@
       </c>
       <c r="H18" t="s">
         <v>39</v>
+      </c>
+      <c r="I18" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="19">
@@ -1533,7 +1656,7 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="F19" t="s">
         <v>100</v>
@@ -1543,6 +1666,9 @@
       </c>
       <c r="H19" t="s">
         <v>101</v>
+      </c>
+      <c r="I19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="20">
@@ -1559,7 +1685,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -1569,6 +1695,9 @@
       </c>
       <c r="H20" t="s">
         <v>39</v>
+      </c>
+      <c r="I20" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="21">
@@ -1585,7 +1714,7 @@
         <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="F21" t="s">
         <v>109</v>
@@ -1595,6 +1724,9 @@
       </c>
       <c r="H21" t="s">
         <v>110</v>
+      </c>
+      <c r="I21" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/90.xlsx
+++ b/Covid_19_Dataset_and_References/References/90.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="235">
   <si>
     <t>Doi</t>
   </si>
@@ -829,6 +829,177 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,    Di%Wu%NULL%0,    Huilong%Chen%NULL%0,    Weiming%Yan%NULL%0,    Danlei%Yang%NULL%0,    Guang%Chen%NULL%0,    Ke%Ma%NULL%0,    Dong%Xu%NULL%0,    Haijing%Yu%NULL%0,    Hongwu%Wang%NULL%0,    Tao%Wang%NULL%0,    Wei%Guo%NULL%0,    Jia%Chen%NULL%0,    Chen%Ding%NULL%0,    Xiaoping%Zhang%NULL%0,    Jiaquan%Huang%NULL%0,    Meifang%Han%NULL%0,    Shusheng%Li%NULL%0,    Xiaoping%Luo%NULL%0,    Jianping%Zhao%NULL%0,    Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,     Ting%Yu%NULL%0,     Ronghui%Du%NULL%0,     Guohui%Fan%NULL%0,     Ying%Liu%NULL%0,     Zhibo%Liu%NULL%0,     Jie%Xiang%NULL%0,     Yeming%Wang%NULL%0,     Bin%Song%NULL%0,     Xiaoying%Gu%NULL%0,     Lulu%Guan%NULL%0,     Yuan%Wei%NULL%0,     Hui%Li%NULL%0,     Xudong%Wu%NULL%0,     Jiuyang%Xu%NULL%0,     Shengjin%Tu%NULL%0,     Yi%Zhang%NULL%0,     Hua%Chen%NULL%0,     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,    Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,    Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,    Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0,     Kwan Ho%Lee%NULL%0,     Kwan Ho%Lee%NULL%0,     Jin Hong%Chung%NULL%0,     Jin Hong%Chung%NULL%0,     Kyeong-Cheol%Shin%NULL%0,     Kyeong-Cheol%Shin%NULL%0,     Eun Young%Choi%NULL%0,     Eun Young%Choi%NULL%0,     Hyun Jung%Jin%NULL%0,     Hyun Jung%Jin%NULL%0,     Jong Geol%Jang%NULL%0,     Jong Geol%Jang%NULL%0,     Wonhwa%Lee%NULL%0,     Wonhwa%Lee%NULL%0,     June Hong%Ahn%NULL%0,     June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,    Aggarwal%Saurabh%coreGivesNoEmail%0,    Garcia-Telles%Nelson%coreGivesNoEmail%0,    Henry%Brandon Michael%coreGivesNoEmail%0,    Lavie%Carl%coreGivesNoEmail%0,    Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,     Dan%Xu%NULL%0,     Shouzhi%Fu%NULL%0,     Jun%Zhang%NULL%0,     Xiaobo%Yang%NULL%0,     Liang%Xu%NULL%0,     Jiqian%Xu%NULL%0,     Yongran%Wu%NULL%0,     Chaolin%Huang%NULL%0,     Yaqi%Ouyang%NULL%0,     Luyu%Yang%NULL%0,     Minghao%Fang%NULL%0,     Hongwen%Xiao%NULL%0,     Jing%Ma%NULL%0,     Wei%Zhu%NULL%0,     Song%Hu%NULL%0,     Quan%Hu%NULL%0,     Daoyin%Ding%NULL%0,     Ming%Hu%NULL%0,     Guochao%Zhu%NULL%0,     Weijiang%Xu%NULL%0,     Jun%Guo%NULL%0,     Jinglong%Xu%NULL%0,     Haitao%Yuan%NULL%0,     Bin%Zhang%NULL%0,     Zhui%Yu%yuzhui@whu.edu.cn%0,     Dechang%Chen%icudechangchen@163.com%0,     Shiying%Yuan%yuan_shiying@163.com%0,     You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0,     Shaobo%Shi%NULL%0,     Shaobo%Shi%NULL%0,     Jiling%Zhu%NULL%0,     Jinzhi%Shi%NULL%0,     Kai%Dai%NULL%0,     Xiaobei%Chen%121278395@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0,     Fang-Yang%Huang%NULL%0,     Tian-Yuan%Xiong%NULL%0,     Tian-Yuan%Xiong%NULL%0,     Qi%Liu%NULL%0,     Hong%Chen%NULL%0,     Hui%Wang%NULL%0,     He%Huang%NULL%0,     Yi-Chun%Luo%NULL%0,     Xuan%Zhou%NULL%0,     Zhi-Yue%Liu%NULL%0,     Yong%Peng%NULL%0,     Yuan-Ning%Xu%NULL%0,     Bo%Wang%NULL%0,     Ying-Ying%Yang%NULL%0,     Zong-An%Liang%NULL%0,     Xue-Zhong%Lei%NULL%0,     Yang%Ge%NULL%0,     Ming%Yang%NULL%0,     Ling%Zhang%NULL%0,     Ming-Quan%Zeng%NULL%0,     He%Yu%NULL%0,     Kai%Liu%NULL%0,     Yu-Heng%Jia%NULL%0,     Bernard D%Prendergast%NULL%0,     Wei-Min%Li%NULL%0,     Wei-Min%Li%NULL%0,     Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,     Shuyun%Xu%NULL%0,     Muqing%Yu%NULL%0,     Ke%Wang%NULL%0,     Yu%Tao%NULL%0,     Ying%Zhou%NULL%0,     Jing%Shi%NULL%0,     Min%Zhou%NULL%0,     Bo%Wu%NULL%0,     Zhenyu%Yang%NULL%0,     Cong%Zhang%NULL%0,     Junqing%Yue%NULL%0,     Zhiguo%Zhang%NULL%0,     Harald%Renz%NULL%0,     Xiansheng%Liu%NULL%0,     Jungang%Xie%NULL%0,     Min%Xie%NULL%0,     Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%1,     Kipp W.%Johnson%NULL%1,     James L.%Januzzi%NULL%1,     Adam J.%Russak%NULL%1,     Ishan%Paranjpe%NULL%0,     Felix%Richter%NULL%0,     Shan%Zhao%NULL%0,     Sulaiman%Somani%NULL%0,     Tielman%Van Vleck%NULL%1,     Akhil%Vaid%NULL%0,     Fayzan%Chaudhry%NULL%1,     Jessica K.%De Freitas%NULL%1,     Zahi A.%Fayad%NULL%1,     Sean P.%Pinney%NULL%1,     Matthew%Levin%NULL%1,     Alexander%Charney%NULL%1,     Emilia%Bagiella%NULL%0,     Jagat%Narula%NULL%0,     Benjamin S.%Glicksberg%NULL%1,     Girish%Nadkarni%NULL%1,     Donna M.%Mancini%NULL%1,     Valentin%Fuster%NULL%0,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,     Yeming%Wang%NULL%0,     Xingwang%Li%NULL%0,     Lili%Ren%NULL%0,     Jianping%Zhao%NULL%0,     Yi%Hu%NULL%0,     Li%Zhang%NULL%0,     Guohui%Fan%NULL%0,     Jiuyang%Xu%NULL%0,     Xiaoying%Gu%NULL%0,     Zhenshun%Cheng%NULL%0,     Ting%Yu%NULL%0,     Jiaan%Xia%NULL%0,     Yuan%Wei%NULL%0,     Wenjuan%Wu%NULL%0,     Xuelei%Xie%NULL%0,     Wen%Yin%NULL%0,     Hui%Li%NULL%0,     Min%Liu%NULL%0,     Yan%Xiao%NULL%0,     Hong%Gao%NULL%0,     Li%Guo%NULL%0,     Jungang%Xie%NULL%0,     Guangfa%Wang%NULL%0,     Rongmeng%Jiang%NULL%0,     Zhancheng%Gao%NULL%0,     Qi%Jin%NULL%0,     Jianwei%Wang%wangjw28@163.com%0,     Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,     Linlin%Xie%NULL%0,     Rui%Liu%NULL%0,     Jie%Yang%NULL%0,     Fang%Liu%NULL%0,     Kailang%Wu%NULL%0,     Lang%Chen%NULL%0,     Wei%Hou%NULL%0,     Yong%Feng%yongfeng@whu.edu.cn%0,     Chengliang%Zhu%xinchengzhu@163.com%0,     Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0,     Bo%Hu%NULL%0,     Yao%Zhang%NULL%0,     Hao%Wang%NULL%0,     Xiaoyang%Zhou%NULL%0,     Wei%Hu%NULL%0,     Yuting%Cheng%NULL%0,     Jie%Yan%NULL%0,     Haiqin%Ping%NULL%0,     Qing%Zhou%qingzhou.wh.edu@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%1,     Xien%Gui%NULL%1,     Yongxi%Zhang%NULL%0,     Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,     Yuan%Yu%NULL%0,     Jiqian%Xu%NULL%0,     Huaqing%Shu%NULL%0,     Jia'an%Xia%NULL%0,     Hong%Liu%NULL%0,     Yongran%Wu%NULL%0,     Lu%Zhang%NULL%0,     Zhui%Yu%NULL%0,     Minghao%Fang%NULL%0,     Ting%Yu%NULL%0,     Yaxin%Wang%NULL%0,     Shangwen%Pan%NULL%0,     Xiaojing%Zou%NULL%0,     Shiying%Yuan%NULL%0,     You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,    Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,    Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,    Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,    Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0,     Miao%Yu%NULL%0,     Tian%Xie%NULL%0,     Fen%Yang%NULL%0,     Hong-Bo%Wang%NULL%0,     Zhao-Hui%Wang%NULL%0,     Ming%Li%NULL%0,     Xing-Li%Gao%NULL%0,     Bing-Jie%Lv%NULL%0,     Shi-Jia%Wang%NULL%0,     Xiao-Bo%Zhang%NULL%0,     Shao-Lin%He%NULL%0,     Zhi-Hua%Qiu%NULL%0,     Yu-Hua%Liao%NULL%0,     Zi-Hua%Zhou%NULL%0,     Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,     Yongzhen%Fan%NULL%0,     Ming%Chen%NULL%0,     Xiaoyan%Wu%NULL%0,     Lin%Zhang%NULL%0,     Tao%He%NULL%0,     Hairong%Wang%NULL%0,     Jing%Wan%NULL%0,     Xinghuan%Wang%NULL%0,     Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,     Wei%Liu%NULL%0,     Kui%Liu%NULL%0,     Yuan-Yuan%Fang%NULL%0,     Jin%Shang%NULL%0,     Ling%Zhou%NULL%0,     Ke%Wang%NULL%0,     Fan%Leng%NULL%0,     Shuang%Wei%NULL%0,     Lei%Chen%NULL%0,     Hui-Guo%Liu%NULL%0,     Pei-Fang%Wei%NULL%0,     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,     Di%Wu%NULL%0,     Huilong%Chen%NULL%0,     Weiming%Yan%NULL%0,     Danlei%Yang%NULL%0,     Guang%Chen%NULL%0,     Ke%Ma%NULL%0,     Dong%Xu%NULL%0,     Haijing%Yu%NULL%0,     Hongwu%Wang%NULL%0,     Tao%Wang%NULL%0,     Wei%Guo%NULL%0,     Jia%Chen%NULL%0,     Chen%Ding%NULL%0,     Xiaoping%Zhang%NULL%0,     Jiaquan%Huang%NULL%0,     Meifang%Han%NULL%0,     Shusheng%Li%NULL%0,     Xiaoping%Luo%NULL%0,     Jianping%Zhao%NULL%0,     Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,      Ting%Yu%NULL%0,      Ronghui%Du%NULL%0,      Guohui%Fan%NULL%0,      Ying%Liu%NULL%0,      Zhibo%Liu%NULL%0,      Jie%Xiang%NULL%0,      Yeming%Wang%NULL%0,      Bin%Song%NULL%0,      Xiaoying%Gu%NULL%0,      Lulu%Guan%NULL%0,      Yuan%Wei%NULL%0,      Hui%Li%NULL%0,      Xudong%Wu%NULL%0,      Jiuyang%Xu%NULL%0,      Shengjin%Tu%NULL%0,      Yi%Zhang%NULL%0,      Hua%Chen%NULL%0,      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,     Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,     Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,     Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0,      Kwan Ho%Lee%NULL%0,      Kwan Ho%Lee%NULL%0,      Jin Hong%Chung%NULL%0,      Jin Hong%Chung%NULL%0,      Kyeong-Cheol%Shin%NULL%0,      Kyeong-Cheol%Shin%NULL%0,      Eun Young%Choi%NULL%0,      Eun Young%Choi%NULL%0,      Hyun Jung%Jin%NULL%0,      Hyun Jung%Jin%NULL%0,      Jong Geol%Jang%NULL%0,      Jong Geol%Jang%NULL%0,      Wonhwa%Lee%NULL%0,      Wonhwa%Lee%NULL%0,      June Hong%Ahn%NULL%0,      June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,     Aggarwal%Saurabh%coreGivesNoEmail%1,     Garcia-Telles%Nelson%coreGivesNoEmail%1,     Henry%Brandon Michael%coreGivesNoEmail%1,     Lavie%Carl%coreGivesNoEmail%1,     Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,      Dan%Xu%NULL%0,      Shouzhi%Fu%NULL%0,      Jun%Zhang%NULL%0,      Xiaobo%Yang%NULL%0,      Liang%Xu%NULL%0,      Jiqian%Xu%NULL%0,      Yongran%Wu%NULL%0,      Chaolin%Huang%NULL%0,      Yaqi%Ouyang%NULL%0,      Luyu%Yang%NULL%0,      Minghao%Fang%NULL%0,      Hongwen%Xiao%NULL%0,      Jing%Ma%NULL%0,      Wei%Zhu%NULL%0,      Song%Hu%NULL%0,      Quan%Hu%NULL%0,      Daoyin%Ding%NULL%0,      Ming%Hu%NULL%0,      Guochao%Zhu%NULL%0,      Weijiang%Xu%NULL%0,      Jun%Guo%NULL%0,      Jinglong%Xu%NULL%0,      Haitao%Yuan%NULL%0,      Bin%Zhang%NULL%0,      Zhui%Yu%yuzhui@whu.edu.cn%0,      Dechang%Chen%icudechangchen@163.com%0,      Shiying%Yuan%yuan_shiying@163.com%0,      You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0,      Shaobo%Shi%NULL%0,      Shaobo%Shi%NULL%0,      Jiling%Zhu%NULL%0,      Jinzhi%Shi%NULL%0,      Kai%Dai%NULL%0,      Xiaobei%Chen%121278395@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0,      Fang-Yang%Huang%NULL%0,      Tian-Yuan%Xiong%NULL%0,      Tian-Yuan%Xiong%NULL%0,      Qi%Liu%NULL%0,      Hong%Chen%NULL%0,      Hui%Wang%NULL%0,      He%Huang%NULL%0,      Yi-Chun%Luo%NULL%0,      Xuan%Zhou%NULL%0,      Zhi-Yue%Liu%NULL%0,      Yong%Peng%NULL%0,      Yuan-Ning%Xu%NULL%0,      Bo%Wang%NULL%0,      Ying-Ying%Yang%NULL%0,      Zong-An%Liang%NULL%0,      Xue-Zhong%Lei%NULL%0,      Yang%Ge%NULL%0,      Ming%Yang%NULL%0,      Ling%Zhang%NULL%0,      Ming-Quan%Zeng%NULL%0,      He%Yu%NULL%0,      Kai%Liu%NULL%0,      Yu-Heng%Jia%NULL%0,      Bernard D%Prendergast%NULL%0,      Wei-Min%Li%NULL%0,      Wei-Min%Li%NULL%0,      Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,      Shuyun%Xu%NULL%0,      Muqing%Yu%NULL%0,      Ke%Wang%NULL%0,      Yu%Tao%NULL%0,      Ying%Zhou%NULL%0,      Jing%Shi%NULL%0,      Min%Zhou%NULL%0,      Bo%Wu%NULL%0,      Zhenyu%Yang%NULL%0,      Cong%Zhang%NULL%0,      Junqing%Yue%NULL%0,      Zhiguo%Zhang%NULL%0,      Harald%Renz%NULL%0,      Xiansheng%Liu%NULL%0,      Jungang%Xie%NULL%0,      Min%Xie%NULL%0,      Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%1,      Kipp W.%Johnson%NULL%1,      James L.%Januzzi%NULL%1,      Adam J.%Russak%NULL%1,      Ishan%Paranjpe%NULL%0,      Felix%Richter%NULL%0,      Shan%Zhao%NULL%0,      Sulaiman%Somani%NULL%0,      Tielman%Van Vleck%NULL%1,      Akhil%Vaid%NULL%0,      Fayzan%Chaudhry%NULL%1,      Jessica K.%De Freitas%NULL%1,      Zahi A.%Fayad%NULL%1,      Sean P.%Pinney%NULL%1,      Matthew%Levin%NULL%1,      Alexander%Charney%NULL%1,      Emilia%Bagiella%NULL%0,      Jagat%Narula%NULL%0,      Benjamin S.%Glicksberg%NULL%1,      Girish%Nadkarni%NULL%1,      Donna M.%Mancini%NULL%1,      Valentin%Fuster%NULL%0,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,      Yeming%Wang%NULL%0,      Xingwang%Li%NULL%0,      Lili%Ren%NULL%0,      Jianping%Zhao%NULL%0,      Yi%Hu%NULL%0,      Li%Zhang%NULL%0,      Guohui%Fan%NULL%0,      Jiuyang%Xu%NULL%0,      Xiaoying%Gu%NULL%0,      Zhenshun%Cheng%NULL%0,      Ting%Yu%NULL%0,      Jiaan%Xia%NULL%0,      Yuan%Wei%NULL%0,      Wenjuan%Wu%NULL%0,      Xuelei%Xie%NULL%0,      Wen%Yin%NULL%0,      Hui%Li%NULL%0,      Min%Liu%NULL%0,      Yan%Xiao%NULL%0,      Hong%Gao%NULL%0,      Li%Guo%NULL%0,      Jungang%Xie%NULL%0,      Guangfa%Wang%NULL%0,      Rongmeng%Jiang%NULL%0,      Zhancheng%Gao%NULL%0,      Qi%Jin%NULL%0,      Jianwei%Wang%wangjw28@163.com%0,      Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,      Linlin%Xie%NULL%0,      Rui%Liu%NULL%0,      Jie%Yang%NULL%0,      Fang%Liu%NULL%0,      Kailang%Wu%NULL%0,      Lang%Chen%NULL%0,      Wei%Hou%NULL%0,      Yong%Feng%yongfeng@whu.edu.cn%0,      Chengliang%Zhu%xinchengzhu@163.com%0,      Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0,      Bo%Hu%NULL%0,      Yao%Zhang%NULL%0,      Hao%Wang%NULL%0,      Xiaoyang%Zhou%NULL%0,      Wei%Hu%NULL%0,      Yuting%Cheng%NULL%0,      Jie%Yan%NULL%0,      Haiqin%Ping%NULL%0,      Qing%Zhou%qingzhou.wh.edu@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%1,      Xien%Gui%NULL%1,      Yongxi%Zhang%NULL%0,      Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,      Yuan%Yu%NULL%0,      Jiqian%Xu%NULL%0,      Huaqing%Shu%NULL%0,      Jia'an%Xia%NULL%0,      Hong%Liu%NULL%0,      Yongran%Wu%NULL%0,      Lu%Zhang%NULL%0,      Zhui%Yu%NULL%0,      Minghao%Fang%NULL%0,      Ting%Yu%NULL%0,      Yaxin%Wang%NULL%0,      Shangwen%Pan%NULL%0,      Xiaojing%Zou%NULL%0,      Shiying%Yuan%NULL%0,      You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,     Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,     Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,     Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,     Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0,      Miao%Yu%NULL%0,      Tian%Xie%NULL%0,      Fen%Yang%NULL%0,      Hong-Bo%Wang%NULL%0,      Zhao-Hui%Wang%NULL%0,      Ming%Li%NULL%0,      Xing-Li%Gao%NULL%0,      Bing-Jie%Lv%NULL%0,      Shi-Jia%Wang%NULL%0,      Xiao-Bo%Zhang%NULL%0,      Shao-Lin%He%NULL%0,      Zhi-Hua%Qiu%NULL%0,      Yu-Hua%Liao%NULL%0,      Zi-Hua%Zhou%NULL%0,      Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,      Yongzhen%Fan%NULL%0,      Ming%Chen%NULL%0,      Xiaoyan%Wu%NULL%0,      Lin%Zhang%NULL%0,      Tao%He%NULL%0,      Hairong%Wang%NULL%0,      Jing%Wan%NULL%0,      Xinghuan%Wang%NULL%0,      Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,      Wei%Liu%NULL%0,      Kui%Liu%NULL%0,      Yuan-Yuan%Fang%NULL%0,      Jin%Shang%NULL%0,      Ling%Zhou%NULL%0,      Ke%Wang%NULL%0,      Fan%Leng%NULL%0,      Shuang%Wei%NULL%0,      Lei%Chen%NULL%0,      Hui-Guo%Liu%NULL%0,      Pei-Fang%Wei%NULL%0,      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,      Di%Wu%NULL%0,      Huilong%Chen%NULL%0,      Weiming%Yan%NULL%0,      Danlei%Yang%NULL%0,      Guang%Chen%NULL%0,      Ke%Ma%NULL%0,      Dong%Xu%NULL%0,      Haijing%Yu%NULL%0,      Hongwu%Wang%NULL%0,      Tao%Wang%NULL%0,      Wei%Guo%NULL%0,      Jia%Chen%NULL%0,      Chen%Ding%NULL%0,      Xiaoping%Zhang%NULL%0,      Jiaquan%Huang%NULL%0,      Meifang%Han%NULL%0,      Shusheng%Li%NULL%0,      Xiaoping%Luo%NULL%0,      Jianping%Zhao%NULL%0,      Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,       Ting%Yu%NULL%0,       Ronghui%Du%NULL%0,       Guohui%Fan%NULL%0,       Ying%Liu%NULL%0,       Zhibo%Liu%NULL%0,       Jie%Xiang%NULL%0,       Yeming%Wang%NULL%0,       Bin%Song%NULL%0,       Xiaoying%Gu%NULL%0,       Lulu%Guan%NULL%0,       Yuan%Wei%NULL%0,       Hui%Li%NULL%0,       Xudong%Wu%NULL%0,       Jiuyang%Xu%NULL%0,       Shengjin%Tu%NULL%0,       Yi%Zhang%NULL%0,       Hua%Chen%NULL%0,       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,      Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,      Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,      Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0,       Kwan Ho%Lee%NULL%0,       Kwan Ho%Lee%NULL%0,       Jin Hong%Chung%NULL%0,       Jin Hong%Chung%NULL%0,       Kyeong-Cheol%Shin%NULL%0,       Kyeong-Cheol%Shin%NULL%0,       Eun Young%Choi%NULL%0,       Eun Young%Choi%NULL%0,       Hyun Jung%Jin%NULL%0,       Hyun Jung%Jin%NULL%0,       Jong Geol%Jang%NULL%0,       Jong Geol%Jang%NULL%0,       Wonhwa%Lee%NULL%0,       Wonhwa%Lee%NULL%0,       June Hong%Ahn%NULL%0,       June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,      Aggarwal%Saurabh%coreGivesNoEmail%1,      Garcia-Telles%Nelson%coreGivesNoEmail%1,      Henry%Brandon Michael%coreGivesNoEmail%1,      Lavie%Carl%coreGivesNoEmail%1,      Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,       Dan%Xu%NULL%0,       Shouzhi%Fu%NULL%0,       Jun%Zhang%NULL%0,       Xiaobo%Yang%NULL%0,       Liang%Xu%NULL%0,       Jiqian%Xu%NULL%0,       Yongran%Wu%NULL%0,       Chaolin%Huang%NULL%0,       Yaqi%Ouyang%NULL%0,       Luyu%Yang%NULL%0,       Minghao%Fang%NULL%0,       Hongwen%Xiao%NULL%0,       Jing%Ma%NULL%0,       Wei%Zhu%NULL%0,       Song%Hu%NULL%0,       Quan%Hu%NULL%0,       Daoyin%Ding%NULL%0,       Ming%Hu%NULL%0,       Guochao%Zhu%NULL%0,       Weijiang%Xu%NULL%0,       Jun%Guo%NULL%0,       Jinglong%Xu%NULL%0,       Haitao%Yuan%NULL%0,       Bin%Zhang%NULL%0,       Zhui%Yu%yuzhui@whu.edu.cn%0,       Dechang%Chen%icudechangchen@163.com%0,       Shiying%Yuan%yuan_shiying@163.com%0,       You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0,       Shaobo%Shi%NULL%0,       Shaobo%Shi%NULL%0,       Jiling%Zhu%NULL%0,       Jinzhi%Shi%NULL%0,       Kai%Dai%NULL%0,       Xiaobei%Chen%121278395@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0,       Fang-Yang%Huang%NULL%0,       Tian-Yuan%Xiong%NULL%0,       Tian-Yuan%Xiong%NULL%0,       Qi%Liu%NULL%0,       Hong%Chen%NULL%0,       Hui%Wang%NULL%0,       He%Huang%NULL%0,       Yi-Chun%Luo%NULL%0,       Xuan%Zhou%NULL%0,       Zhi-Yue%Liu%NULL%0,       Yong%Peng%NULL%0,       Yuan-Ning%Xu%NULL%0,       Bo%Wang%NULL%0,       Ying-Ying%Yang%NULL%0,       Zong-An%Liang%NULL%0,       Xue-Zhong%Lei%NULL%0,       Yang%Ge%NULL%0,       Ming%Yang%NULL%0,       Ling%Zhang%NULL%0,       Ming-Quan%Zeng%NULL%0,       He%Yu%NULL%0,       Kai%Liu%NULL%0,       Yu-Heng%Jia%NULL%0,       Bernard D%Prendergast%NULL%0,       Wei-Min%Li%NULL%0,       Wei-Min%Li%NULL%0,       Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,       Shuyun%Xu%NULL%0,       Muqing%Yu%NULL%0,       Ke%Wang%NULL%0,       Yu%Tao%NULL%0,       Ying%Zhou%NULL%0,       Jing%Shi%NULL%0,       Min%Zhou%NULL%0,       Bo%Wu%NULL%0,       Zhenyu%Yang%NULL%0,       Cong%Zhang%NULL%0,       Junqing%Yue%NULL%0,       Zhiguo%Zhang%NULL%0,       Harald%Renz%NULL%0,       Xiansheng%Liu%NULL%0,       Jungang%Xie%NULL%0,       Min%Xie%NULL%0,       Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%1,       Kipp W.%Johnson%NULL%1,       James L.%Januzzi%NULL%1,       Adam J.%Russak%NULL%1,       Ishan%Paranjpe%NULL%0,       Felix%Richter%NULL%0,       Shan%Zhao%NULL%0,       Sulaiman%Somani%NULL%0,       Tielman%Van Vleck%NULL%1,       Akhil%Vaid%NULL%0,       Fayzan%Chaudhry%NULL%1,       Jessica K.%De Freitas%NULL%1,       Zahi A.%Fayad%NULL%1,       Sean P.%Pinney%NULL%1,       Matthew%Levin%NULL%1,       Alexander%Charney%NULL%1,       Emilia%Bagiella%NULL%0,       Jagat%Narula%NULL%0,       Benjamin S.%Glicksberg%NULL%1,       Girish%Nadkarni%NULL%1,       Donna M.%Mancini%NULL%1,       Valentin%Fuster%NULL%0,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,       Yeming%Wang%NULL%0,       Xingwang%Li%NULL%0,       Lili%Ren%NULL%0,       Jianping%Zhao%NULL%0,       Yi%Hu%NULL%0,       Li%Zhang%NULL%0,       Guohui%Fan%NULL%0,       Jiuyang%Xu%NULL%0,       Xiaoying%Gu%NULL%0,       Zhenshun%Cheng%NULL%0,       Ting%Yu%NULL%0,       Jiaan%Xia%NULL%0,       Yuan%Wei%NULL%0,       Wenjuan%Wu%NULL%0,       Xuelei%Xie%NULL%0,       Wen%Yin%NULL%0,       Hui%Li%NULL%0,       Min%Liu%NULL%0,       Yan%Xiao%NULL%0,       Hong%Gao%NULL%0,       Li%Guo%NULL%0,       Jungang%Xie%NULL%0,       Guangfa%Wang%NULL%0,       Rongmeng%Jiang%NULL%0,       Zhancheng%Gao%NULL%0,       Qi%Jin%NULL%0,       Jianwei%Wang%wangjw28@163.com%0,       Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,       Linlin%Xie%NULL%0,       Rui%Liu%NULL%0,       Jie%Yang%NULL%0,       Fang%Liu%NULL%0,       Kailang%Wu%NULL%0,       Lang%Chen%NULL%0,       Wei%Hou%NULL%0,       Yong%Feng%yongfeng@whu.edu.cn%0,       Chengliang%Zhu%xinchengzhu@163.com%0,       Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0,       Bo%Hu%NULL%0,       Yao%Zhang%NULL%0,       Hao%Wang%NULL%0,       Xiaoyang%Zhou%NULL%0,       Wei%Hu%NULL%0,       Yuting%Cheng%NULL%0,       Jie%Yan%NULL%0,       Haiqin%Ping%NULL%0,       Qing%Zhou%qingzhou.wh.edu@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%1,       Xien%Gui%NULL%1,       Yongxi%Zhang%NULL%0,       Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,       Yuan%Yu%NULL%0,       Jiqian%Xu%NULL%0,       Huaqing%Shu%NULL%0,       Jia'an%Xia%NULL%0,       Hong%Liu%NULL%0,       Yongran%Wu%NULL%0,       Lu%Zhang%NULL%0,       Zhui%Yu%NULL%0,       Minghao%Fang%NULL%0,       Ting%Yu%NULL%0,       Yaxin%Wang%NULL%0,       Shangwen%Pan%NULL%0,       Xiaojing%Zou%NULL%0,       Shiying%Yuan%NULL%0,       You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,      Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,      Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,      Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,      Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0,       Miao%Yu%NULL%0,       Tian%Xie%NULL%0,       Fen%Yang%NULL%0,       Hong-Bo%Wang%NULL%0,       Zhao-Hui%Wang%NULL%0,       Ming%Li%NULL%0,       Xing-Li%Gao%NULL%0,       Bing-Jie%Lv%NULL%0,       Shi-Jia%Wang%NULL%0,       Xiao-Bo%Zhang%NULL%0,       Shao-Lin%He%NULL%0,       Zhi-Hua%Qiu%NULL%0,       Yu-Hua%Liao%NULL%0,       Zi-Hua%Zhou%NULL%0,       Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,       Yongzhen%Fan%NULL%0,       Ming%Chen%NULL%0,       Xiaoyan%Wu%NULL%0,       Lin%Zhang%NULL%0,       Tao%He%NULL%0,       Hairong%Wang%NULL%0,       Jing%Wan%NULL%0,       Xinghuan%Wang%NULL%0,       Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,       Wei%Liu%NULL%0,       Kui%Liu%NULL%0,       Yuan-Yuan%Fang%NULL%0,       Jin%Shang%NULL%0,       Ling%Zhou%NULL%0,       Ke%Wang%NULL%0,       Fan%Leng%NULL%0,       Shuang%Wei%NULL%0,       Lei%Chen%NULL%0,       Hui-Guo%Liu%NULL%0,       Pei-Fang%Wei%NULL%0,       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,       Di%Wu%NULL%0,       Huilong%Chen%NULL%0,       Weiming%Yan%NULL%0,       Danlei%Yang%NULL%0,       Guang%Chen%NULL%0,       Ke%Ma%NULL%0,       Dong%Xu%NULL%0,       Haijing%Yu%NULL%0,       Hongwu%Wang%NULL%0,       Tao%Wang%NULL%0,       Wei%Guo%NULL%0,       Jia%Chen%NULL%0,       Chen%Ding%NULL%0,       Xiaoping%Zhang%NULL%0,       Jiaquan%Huang%NULL%0,       Meifang%Han%NULL%0,       Shusheng%Li%NULL%0,       Xiaoping%Luo%NULL%0,       Jianping%Zhao%NULL%0,       Qin%Ning%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1334,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -1192,13 +1363,13 @@
         <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="H3" t="s">
         <v>39</v>
@@ -1221,7 +1392,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1279,13 +1450,13 @@
         <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="H6" t="s">
         <v>39</v>
@@ -1308,7 +1479,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1337,7 +1508,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1366,7 +1537,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1395,7 +1566,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1424,7 +1595,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -1453,7 +1624,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -1482,7 +1653,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1511,7 +1682,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1540,7 +1711,7 @@
         <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -1569,7 +1740,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -1598,13 +1769,13 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="H17" t="s">
         <v>39</v>
@@ -1627,7 +1798,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
@@ -1656,7 +1827,7 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="F19" t="s">
         <v>100</v>
@@ -1685,7 +1856,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -1714,7 +1885,7 @@
         <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="F21" t="s">
         <v>109</v>

--- a/Covid_19_Dataset_and_References/References/90.xlsx
+++ b/Covid_19_Dataset_and_References/References/90.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="278">
   <si>
     <t>Doi</t>
   </si>
@@ -1000,6 +1000,135 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,       Di%Wu%NULL%0,       Huilong%Chen%NULL%0,       Weiming%Yan%NULL%0,       Danlei%Yang%NULL%0,       Guang%Chen%NULL%0,       Ke%Ma%NULL%0,       Dong%Xu%NULL%0,       Haijing%Yu%NULL%0,       Hongwu%Wang%NULL%0,       Tao%Wang%NULL%0,       Wei%Guo%NULL%0,       Jia%Chen%NULL%0,       Chen%Ding%NULL%0,       Xiaoping%Zhang%NULL%0,       Jiaquan%Huang%NULL%0,       Meifang%Han%NULL%0,       Shusheng%Li%NULL%0,       Xiaoping%Luo%NULL%0,       Jianping%Zhao%NULL%0,       Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,        Ting%Yu%NULL%0,        Ronghui%Du%NULL%0,        Guohui%Fan%NULL%0,        Ying%Liu%NULL%0,        Zhibo%Liu%NULL%0,        Jie%Xiang%NULL%0,        Yeming%Wang%NULL%0,        Bin%Song%NULL%0,        Xiaoying%Gu%NULL%0,        Lulu%Guan%NULL%0,        Yuan%Wei%NULL%0,        Hui%Li%NULL%0,        Xudong%Wu%NULL%0,        Jiuyang%Xu%NULL%0,        Shengjin%Tu%NULL%0,        Yi%Zhang%NULL%0,        Hua%Chen%NULL%0,        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,       Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,       Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,       Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0,        Kwan Ho%Lee%NULL%2,        Kwan Ho%Lee%NULL%0,        Jin Hong%Chung%NULL%2,        Jin Hong%Chung%NULL%0,        Kyeong-Cheol%Shin%NULL%2,        Kyeong-Cheol%Shin%NULL%0,        Eun Young%Choi%NULL%2,        Eun Young%Choi%NULL%0,        Hyun Jung%Jin%NULL%2,        Hyun Jung%Jin%NULL%0,        Jong Geol%Jang%NULL%2,        Jong Geol%Jang%NULL%0,        Wonhwa%Lee%NULL%2,        Wonhwa%Lee%NULL%0,        June Hong%Ahn%NULL%0,        June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Characteristics and Outcomes of 21 Critically Ill Patients With COVID-19 in Washington State"</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0, Eric%Yim%xref no email%0, Lindy%Klaff%xref no email%0, Sharukh%Lokhandwala%xref no email%0, Francis X.%Riedo%xref no email%0, Maria%Chong%xref no email%0, Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,       Aggarwal%Saurabh%coreGivesNoEmail%0,       Garcia-Telles%Nelson%coreGivesNoEmail%0,       Henry%Brandon Michael%coreGivesNoEmail%0,       Lavie%Carl%coreGivesNoEmail%0,       Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,        Dan%Xu%NULL%0,        Shouzhi%Fu%NULL%0,        Jun%Zhang%NULL%0,        Xiaobo%Yang%NULL%0,        Liang%Xu%NULL%0,        Jiqian%Xu%NULL%0,        Yongran%Wu%NULL%0,        Chaolin%Huang%NULL%0,        Yaqi%Ouyang%NULL%0,        Luyu%Yang%NULL%0,        Minghao%Fang%NULL%0,        Hongwen%Xiao%NULL%0,        Jing%Ma%NULL%0,        Wei%Zhu%NULL%0,        Song%Hu%NULL%0,        Quan%Hu%NULL%0,        Daoyin%Ding%NULL%0,        Ming%Hu%NULL%0,        Guochao%Zhu%NULL%0,        Weijiang%Xu%NULL%0,        Jun%Guo%NULL%0,        Jinglong%Xu%NULL%0,        Haitao%Yuan%NULL%0,        Bin%Zhang%NULL%0,        Zhui%Yu%yuzhui@whu.edu.cn%0,        Dechang%Chen%icudechangchen@163.com%0,        Shiying%Yuan%yuan_shiying@163.com%0,        You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0,        Shaobo%Shi%NULL%2,        Shaobo%Shi%NULL%0,        Jiling%Zhu%NULL%1,        Jinzhi%Shi%NULL%1,        Kai%Dai%NULL%1,        Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0,        Fang-Yang%Huang%NULL%0,        Tian-Yuan%Xiong%NULL%0,        Tian-Yuan%Xiong%NULL%0,        Qi%Liu%NULL%0,        Hong%Chen%NULL%0,        Hui%Wang%NULL%0,        He%Huang%NULL%0,        Yi-Chun%Luo%NULL%0,        Xuan%Zhou%NULL%0,        Zhi-Yue%Liu%NULL%0,        Yong%Peng%NULL%0,        Yuan-Ning%Xu%NULL%0,        Bo%Wang%NULL%0,        Ying-Ying%Yang%NULL%0,        Zong-An%Liang%NULL%0,        Xue-Zhong%Lei%NULL%0,        Yang%Ge%NULL%0,        Ming%Yang%NULL%0,        Ling%Zhang%NULL%0,        Ming-Quan%Zeng%NULL%0,        He%Yu%NULL%0,        Kai%Liu%NULL%0,        Yu-Heng%Jia%NULL%0,        Bernard D%Prendergast%NULL%0,        Wei-Min%Li%NULL%0,        Wei-Min%Li%NULL%0,        Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,        Shuyun%Xu%NULL%0,        Muqing%Yu%NULL%0,        Ke%Wang%NULL%0,        Yu%Tao%NULL%0,        Ying%Zhou%NULL%0,        Jing%Shi%NULL%0,        Min%Zhou%NULL%0,        Bo%Wu%NULL%0,        Zhenyu%Yang%NULL%0,        Cong%Zhang%NULL%0,        Junqing%Yue%NULL%0,        Zhiguo%Zhang%NULL%0,        Harald%Renz%NULL%0,        Xiansheng%Liu%NULL%0,        Jungang%Xie%NULL%0,        Min%Xie%NULL%0,        Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%1,        Kipp W.%Johnson%NULL%1,        James L.%Januzzi%NULL%1,        Adam J.%Russak%NULL%1,        Ishan%Paranjpe%NULL%0,        Felix%Richter%NULL%0,        Shan%Zhao%NULL%0,        Sulaiman%Somani%NULL%0,        Tielman%Van Vleck%NULL%1,        Akhil%Vaid%NULL%0,        Fayzan%Chaudhry%NULL%1,        Jessica K.%De Freitas%NULL%1,        Zahi A.%Fayad%NULL%1,        Sean P.%Pinney%NULL%1,        Matthew%Levin%NULL%1,        Alexander%Charney%NULL%1,        Emilia%Bagiella%NULL%0,        Jagat%Narula%NULL%0,        Benjamin S.%Glicksberg%NULL%1,        Girish%Nadkarni%NULL%1,        Donna M.%Mancini%NULL%1,        Valentin%Fuster%NULL%0,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,        Yeming%Wang%NULL%0,        Xingwang%Li%NULL%0,        Lili%Ren%NULL%0,        Jianping%Zhao%NULL%0,        Yi%Hu%NULL%0,        Li%Zhang%NULL%0,        Guohui%Fan%NULL%0,        Jiuyang%Xu%NULL%0,        Xiaoying%Gu%NULL%0,        Zhenshun%Cheng%NULL%0,        Ting%Yu%NULL%0,        Jiaan%Xia%NULL%0,        Yuan%Wei%NULL%0,        Wenjuan%Wu%NULL%0,        Xuelei%Xie%NULL%0,        Wen%Yin%NULL%0,        Hui%Li%NULL%0,        Min%Liu%NULL%0,        Yan%Xiao%NULL%0,        Hong%Gao%NULL%0,        Li%Guo%NULL%0,        Jungang%Xie%NULL%0,        Guangfa%Wang%NULL%0,        Rongmeng%Jiang%NULL%0,        Zhancheng%Gao%NULL%0,        Qi%Jin%NULL%0,        Jianwei%Wang%wangjw28@163.com%0,        Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,        Linlin%Xie%NULL%1,        Rui%Liu%NULL%1,        Jie%Yang%NULL%0,        Fang%Liu%NULL%2,        Kailang%Wu%NULL%2,        Lang%Chen%NULL%1,        Wei%Hou%NULL%0,        Yong%Feng%yongfeng@whu.edu.cn%0,        Chengliang%Zhu%xinchengzhu@163.com%2,        Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0,        Bo%Hu%NULL%1,        Yao%Zhang%NULL%0,        Hao%Wang%NULL%0,        Xiaoyang%Zhou%NULL%1,        Wei%Hu%NULL%1,        Yuting%Cheng%NULL%1,        Jie%Yan%NULL%0,        Haiqin%Ping%NULL%1,        Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%1,        Xien%Gui%NULL%1,        Yongxi%Zhang%NULL%0,        Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,        Yuan%Yu%NULL%0,        Jiqian%Xu%NULL%0,        Huaqing%Shu%NULL%0,        Jia'an%Xia%NULL%0,        Hong%Liu%NULL%0,        Yongran%Wu%NULL%0,        Lu%Zhang%NULL%0,        Zhui%Yu%NULL%0,        Minghao%Fang%NULL%0,        Ting%Yu%NULL%0,        Yaxin%Wang%NULL%0,        Shangwen%Pan%NULL%0,        Xiaojing%Zou%NULL%0,        Shiying%Yuan%NULL%0,        You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,       Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%1,       Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%1,       Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%1,       Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0,        Miao%Yu%NULL%0,        Tian%Xie%NULL%0,        Fen%Yang%NULL%0,        Hong-Bo%Wang%NULL%0,        Zhao-Hui%Wang%NULL%0,        Ming%Li%NULL%0,        Xing-Li%Gao%NULL%0,        Bing-Jie%Lv%NULL%0,        Shi-Jia%Wang%NULL%0,        Xiao-Bo%Zhang%NULL%0,        Shao-Lin%He%NULL%0,        Zhi-Hua%Qiu%NULL%0,        Yu-Hua%Liao%NULL%0,        Zi-Hua%Zhou%NULL%0,        Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,        Yongzhen%Fan%NULL%0,        Ming%Chen%NULL%0,        Xiaoyan%Wu%NULL%0,        Lin%Zhang%NULL%0,        Tao%He%NULL%0,        Hairong%Wang%NULL%0,        Jing%Wan%NULL%0,        Xinghuan%Wang%NULL%0,        Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,        Wei%Liu%NULL%0,        Kui%Liu%NULL%0,        Yuan-Yuan%Fang%NULL%0,        Jin%Shang%NULL%1,        Ling%Zhou%NULL%0,        Ke%Wang%NULL%0,        Fan%Leng%NULL%1,        Shuang%Wei%NULL%0,        Lei%Chen%NULL%1,        Hui-Guo%Liu%NULL%0,        Pei-Fang%Wei%NULL%0,        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,        Di%Wu%NULL%0,        Huilong%Chen%NULL%0,        Weiming%Yan%NULL%0,        Danlei%Yang%NULL%0,        Guang%Chen%NULL%0,        Ke%Ma%NULL%0,        Dong%Xu%NULL%0,        Haijing%Yu%NULL%0,        Hongwu%Wang%NULL%0,        Tao%Wang%NULL%0,        Wei%Guo%NULL%0,        Jia%Chen%NULL%0,        Chen%Ding%NULL%0,        Xiaoping%Zhang%NULL%0,        Jiaquan%Huang%NULL%0,        Meifang%Han%NULL%0,        Shusheng%Li%NULL%0,        Xiaoping%Luo%NULL%0,        Jianping%Zhao%NULL%0,        Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,         Ting%Yu%NULL%0,         Ronghui%Du%NULL%0,         Guohui%Fan%NULL%0,         Ying%Liu%NULL%0,         Zhibo%Liu%NULL%0,         Jie%Xiang%NULL%0,         Yeming%Wang%NULL%0,         Bin%Song%NULL%0,         Xiaoying%Gu%NULL%0,         Lulu%Guan%NULL%0,         Yuan%Wei%NULL%0,         Hui%Li%NULL%0,         Xudong%Wu%NULL%0,         Jiuyang%Xu%NULL%0,         Shengjin%Tu%NULL%0,         Yi%Zhang%NULL%0,         Hua%Chen%NULL%0,         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,        Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,        Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,        Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0,         Kwan Ho%Lee%NULL%2,         Kwan Ho%Lee%NULL%0,         Jin Hong%Chung%NULL%2,         Jin Hong%Chung%NULL%0,         Kyeong-Cheol%Shin%NULL%2,         Kyeong-Cheol%Shin%NULL%0,         Eun Young%Choi%NULL%2,         Eun Young%Choi%NULL%0,         Hyun Jung%Jin%NULL%2,         Hyun Jung%Jin%NULL%0,         Jong Geol%Jang%NULL%2,         Jong Geol%Jang%NULL%0,         Wonhwa%Lee%NULL%2,         Wonhwa%Lee%NULL%0,         June Hong%Ahn%NULL%0,         June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,  Eric%Yim%xref no email%0,  Lindy%Klaff%xref no email%0,  Sharukh%Lokhandwala%xref no email%0,  Francis X.%Riedo%xref no email%0,  Maria%Chong%xref no email%0,  Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,        Aggarwal%Saurabh%coreGivesNoEmail%0,        Garcia-Telles%Nelson%coreGivesNoEmail%0,        Henry%Brandon Michael%coreGivesNoEmail%0,        Lavie%Carl%coreGivesNoEmail%0,        Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,         Dan%Xu%NULL%0,         Shouzhi%Fu%NULL%0,         Jun%Zhang%NULL%0,         Xiaobo%Yang%NULL%0,         Liang%Xu%NULL%0,         Jiqian%Xu%NULL%0,         Yongran%Wu%NULL%0,         Chaolin%Huang%NULL%0,         Yaqi%Ouyang%NULL%0,         Luyu%Yang%NULL%0,         Minghao%Fang%NULL%0,         Hongwen%Xiao%NULL%0,         Jing%Ma%NULL%0,         Wei%Zhu%NULL%0,         Song%Hu%NULL%0,         Quan%Hu%NULL%0,         Daoyin%Ding%NULL%0,         Ming%Hu%NULL%0,         Guochao%Zhu%NULL%0,         Weijiang%Xu%NULL%0,         Jun%Guo%NULL%0,         Jinglong%Xu%NULL%0,         Haitao%Yuan%NULL%0,         Bin%Zhang%NULL%0,         Zhui%Yu%yuzhui@whu.edu.cn%0,         Dechang%Chen%icudechangchen@163.com%0,         Shiying%Yuan%yuan_shiying@163.com%0,         You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0,         Shaobo%Shi%NULL%2,         Shaobo%Shi%NULL%0,         Jiling%Zhu%NULL%1,         Jinzhi%Shi%NULL%1,         Kai%Dai%NULL%1,         Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0,         Fang-Yang%Huang%NULL%0,         Tian-Yuan%Xiong%NULL%0,         Tian-Yuan%Xiong%NULL%0,         Qi%Liu%NULL%0,         Hong%Chen%NULL%0,         Hui%Wang%NULL%0,         He%Huang%NULL%0,         Yi-Chun%Luo%NULL%0,         Xuan%Zhou%NULL%0,         Zhi-Yue%Liu%NULL%0,         Yong%Peng%NULL%0,         Yuan-Ning%Xu%NULL%0,         Bo%Wang%NULL%0,         Ying-Ying%Yang%NULL%0,         Zong-An%Liang%NULL%0,         Xue-Zhong%Lei%NULL%0,         Yang%Ge%NULL%0,         Ming%Yang%NULL%0,         Ling%Zhang%NULL%0,         Ming-Quan%Zeng%NULL%0,         He%Yu%NULL%0,         Kai%Liu%NULL%0,         Yu-Heng%Jia%NULL%0,         Bernard D%Prendergast%NULL%0,         Wei-Min%Li%NULL%0,         Wei-Min%Li%NULL%0,         Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,         Shuyun%Xu%NULL%0,         Muqing%Yu%NULL%0,         Ke%Wang%NULL%0,         Yu%Tao%NULL%0,         Ying%Zhou%NULL%0,         Jing%Shi%NULL%0,         Min%Zhou%NULL%0,         Bo%Wu%NULL%0,         Zhenyu%Yang%NULL%0,         Cong%Zhang%NULL%0,         Junqing%Yue%NULL%0,         Zhiguo%Zhang%NULL%0,         Harald%Renz%NULL%0,         Xiansheng%Liu%NULL%0,         Jungang%Xie%NULL%0,         Min%Xie%NULL%0,         Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%1,         Kipp W.%Johnson%NULL%1,         James L.%Januzzi%NULL%1,         Adam J.%Russak%NULL%1,         Ishan%Paranjpe%NULL%0,         Felix%Richter%NULL%0,         Shan%Zhao%NULL%0,         Sulaiman%Somani%NULL%0,         Tielman%Van Vleck%NULL%1,         Akhil%Vaid%NULL%0,         Fayzan%Chaudhry%NULL%1,         Jessica K.%De Freitas%NULL%1,         Zahi A.%Fayad%NULL%1,         Sean P.%Pinney%NULL%1,         Matthew%Levin%NULL%1,         Alexander%Charney%NULL%1,         Emilia%Bagiella%NULL%0,         Jagat%Narula%NULL%0,         Benjamin S.%Glicksberg%NULL%1,         Girish%Nadkarni%NULL%1,         Donna M.%Mancini%NULL%1,         Valentin%Fuster%NULL%0,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,         Yeming%Wang%NULL%0,         Xingwang%Li%NULL%0,         Lili%Ren%NULL%0,         Jianping%Zhao%NULL%0,         Yi%Hu%NULL%0,         Li%Zhang%NULL%0,         Guohui%Fan%NULL%0,         Jiuyang%Xu%NULL%0,         Xiaoying%Gu%NULL%0,         Zhenshun%Cheng%NULL%0,         Ting%Yu%NULL%0,         Jiaan%Xia%NULL%0,         Yuan%Wei%NULL%0,         Wenjuan%Wu%NULL%0,         Xuelei%Xie%NULL%0,         Wen%Yin%NULL%0,         Hui%Li%NULL%0,         Min%Liu%NULL%0,         Yan%Xiao%NULL%0,         Hong%Gao%NULL%0,         Li%Guo%NULL%0,         Jungang%Xie%NULL%0,         Guangfa%Wang%NULL%0,         Rongmeng%Jiang%NULL%0,         Zhancheng%Gao%NULL%0,         Qi%Jin%NULL%0,         Jianwei%Wang%wangjw28@163.com%0,         Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,         Linlin%Xie%NULL%1,         Rui%Liu%NULL%1,         Jie%Yang%NULL%0,         Fang%Liu%NULL%2,         Kailang%Wu%NULL%2,         Lang%Chen%NULL%1,         Wei%Hou%NULL%0,         Yong%Feng%yongfeng@whu.edu.cn%0,         Chengliang%Zhu%xinchengzhu@163.com%2,         Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0,         Bo%Hu%NULL%1,         Yao%Zhang%NULL%0,         Hao%Wang%NULL%0,         Xiaoyang%Zhou%NULL%1,         Wei%Hu%NULL%1,         Yuting%Cheng%NULL%1,         Jie%Yan%NULL%0,         Haiqin%Ping%NULL%1,         Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%1,         Xien%Gui%NULL%1,         Yongxi%Zhang%NULL%0,         Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,         Yuan%Yu%NULL%0,         Jiqian%Xu%NULL%0,         Huaqing%Shu%NULL%0,         Jia'an%Xia%NULL%0,         Hong%Liu%NULL%0,         Yongran%Wu%NULL%0,         Lu%Zhang%NULL%0,         Zhui%Yu%NULL%0,         Minghao%Fang%NULL%0,         Ting%Yu%NULL%0,         Yaxin%Wang%NULL%0,         Shangwen%Pan%NULL%0,         Xiaojing%Zou%NULL%0,         Shiying%Yuan%NULL%0,         You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,        Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%1,        Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%1,        Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%1,        Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0,         Miao%Yu%NULL%0,         Tian%Xie%NULL%0,         Fen%Yang%NULL%0,         Hong-Bo%Wang%NULL%0,         Zhao-Hui%Wang%NULL%0,         Ming%Li%NULL%0,         Xing-Li%Gao%NULL%0,         Bing-Jie%Lv%NULL%0,         Shi-Jia%Wang%NULL%0,         Xiao-Bo%Zhang%NULL%0,         Shao-Lin%He%NULL%0,         Zhi-Hua%Qiu%NULL%0,         Yu-Hua%Liao%NULL%0,         Zi-Hua%Zhou%NULL%0,         Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,         Yongzhen%Fan%NULL%0,         Ming%Chen%NULL%0,         Xiaoyan%Wu%NULL%0,         Lin%Zhang%NULL%0,         Tao%He%NULL%0,         Hairong%Wang%NULL%0,         Jing%Wan%NULL%0,         Xinghuan%Wang%NULL%0,         Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,         Wei%Liu%NULL%0,         Kui%Liu%NULL%0,         Yuan-Yuan%Fang%NULL%0,         Jin%Shang%NULL%1,         Ling%Zhou%NULL%0,         Ke%Wang%NULL%0,         Fan%Leng%NULL%1,         Shuang%Wei%NULL%0,         Lei%Chen%NULL%1,         Hui-Guo%Liu%NULL%0,         Pei-Fang%Wei%NULL%0,         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,         Di%Wu%NULL%0,         Huilong%Chen%NULL%0,         Weiming%Yan%NULL%0,         Danlei%Yang%NULL%0,         Guang%Chen%NULL%0,         Ke%Ma%NULL%0,         Dong%Xu%NULL%0,         Haijing%Yu%NULL%0,         Hongwu%Wang%NULL%0,         Tao%Wang%NULL%0,         Wei%Guo%NULL%0,         Jia%Chen%NULL%0,         Chen%Ding%NULL%0,         Xiaoping%Zhang%NULL%0,         Jiaquan%Huang%NULL%0,         Meifang%Han%NULL%0,         Shusheng%Li%NULL%0,         Xiaoping%Luo%NULL%0,         Jianping%Zhao%NULL%0,         Qin%Ning%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1463,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -1363,7 +1492,7 @@
         <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1392,7 +1521,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1415,22 +1544,22 @@
         <v>43949.0</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>238</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>261</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>240</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>241</v>
       </c>
       <c r="I5" t="s">
         <v>94</v>
@@ -1450,7 +1579,7 @@
         <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1479,7 +1608,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1508,7 +1637,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1537,7 +1666,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1566,7 +1695,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1595,7 +1724,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -1624,7 +1753,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -1653,7 +1782,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1682,7 +1811,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1711,7 +1840,7 @@
         <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -1740,7 +1869,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -1769,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -1798,7 +1927,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
@@ -1827,7 +1956,7 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="F19" t="s">
         <v>100</v>
@@ -1856,7 +1985,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -1885,7 +2014,7 @@
         <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="F21" t="s">
         <v>109</v>

--- a/Covid_19_Dataset_and_References/References/90.xlsx
+++ b/Covid_19_Dataset_and_References/References/90.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="318">
   <si>
     <t>Doi</t>
   </si>
@@ -1129,6 +1129,126 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,         Di%Wu%NULL%0,         Huilong%Chen%NULL%0,         Weiming%Yan%NULL%0,         Danlei%Yang%NULL%0,         Guang%Chen%NULL%0,         Ke%Ma%NULL%0,         Dong%Xu%NULL%0,         Haijing%Yu%NULL%0,         Hongwu%Wang%NULL%0,         Tao%Wang%NULL%0,         Wei%Guo%NULL%0,         Jia%Chen%NULL%0,         Chen%Ding%NULL%0,         Xiaoping%Zhang%NULL%0,         Jiaquan%Huang%NULL%0,         Meifang%Han%NULL%0,         Shusheng%Li%NULL%0,         Xiaoping%Luo%NULL%0,         Jianping%Zhao%NULL%0,         Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,          Ting%Yu%NULL%0,          Ronghui%Du%NULL%0,          Guohui%Fan%NULL%0,          Ying%Liu%NULL%0,          Zhibo%Liu%NULL%0,          Jie%Xiang%NULL%0,          Yeming%Wang%NULL%0,          Bin%Song%NULL%0,          Xiaoying%Gu%NULL%0,          Lulu%Guan%NULL%0,          Yuan%Wei%NULL%0,          Hui%Li%NULL%0,          Xudong%Wu%NULL%0,          Jiuyang%Xu%NULL%0,          Shengjin%Tu%NULL%0,          Yi%Zhang%NULL%0,          Hua%Chen%NULL%0,          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,         Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,         Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,         Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0,          Kwan Ho%Lee%NULL%2,          Kwan Ho%Lee%NULL%0,          Jin Hong%Chung%NULL%2,          Jin Hong%Chung%NULL%0,          Kyeong-Cheol%Shin%NULL%2,          Kyeong-Cheol%Shin%NULL%0,          Eun Young%Choi%NULL%2,          Eun Young%Choi%NULL%0,          Hyun Jung%Jin%NULL%2,          Hyun Jung%Jin%NULL%0,          Jong Geol%Jang%NULL%2,          Jong Geol%Jang%NULL%0,          Wonhwa%Lee%NULL%2,          Wonhwa%Lee%NULL%0,          June Hong%Ahn%NULL%0,          June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,   Eric%Yim%xref no email%0,   Lindy%Klaff%xref no email%0,   Sharukh%Lokhandwala%xref no email%0,   Francis X.%Riedo%xref no email%0,   Maria%Chong%xref no email%0,   Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,         Aggarwal%Saurabh%coreGivesNoEmail%0,         Garcia-Telles%Nelson%coreGivesNoEmail%0,         Henry%Brandon Michael%coreGivesNoEmail%0,         Lavie%Carl%coreGivesNoEmail%0,         Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,          Dan%Xu%NULL%0,          Shouzhi%Fu%NULL%0,          Jun%Zhang%NULL%0,          Xiaobo%Yang%NULL%0,          Liang%Xu%NULL%0,          Jiqian%Xu%NULL%0,          Yongran%Wu%NULL%0,          Chaolin%Huang%NULL%0,          Yaqi%Ouyang%NULL%0,          Luyu%Yang%NULL%0,          Minghao%Fang%NULL%0,          Hongwen%Xiao%NULL%0,          Jing%Ma%NULL%0,          Wei%Zhu%NULL%0,          Song%Hu%NULL%0,          Quan%Hu%NULL%0,          Daoyin%Ding%NULL%0,          Ming%Hu%NULL%0,          Guochao%Zhu%NULL%0,          Weijiang%Xu%NULL%0,          Jun%Guo%NULL%0,          Jinglong%Xu%NULL%0,          Haitao%Yuan%NULL%0,          Bin%Zhang%NULL%0,          Zhui%Yu%yuzhui@whu.edu.cn%0,          Dechang%Chen%icudechangchen@163.com%0,          Shiying%Yuan%yuan_shiying@163.com%0,          You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0,          Shaobo%Shi%NULL%2,          Shaobo%Shi%NULL%0,          Jiling%Zhu%NULL%1,          Jinzhi%Shi%NULL%1,          Kai%Dai%NULL%1,          Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0,          Fang-Yang%Huang%NULL%0,          Tian-Yuan%Xiong%NULL%0,          Tian-Yuan%Xiong%NULL%0,          Qi%Liu%NULL%0,          Hong%Chen%NULL%0,          Hui%Wang%NULL%0,          He%Huang%NULL%0,          Yi-Chun%Luo%NULL%0,          Xuan%Zhou%NULL%0,          Zhi-Yue%Liu%NULL%0,          Yong%Peng%NULL%0,          Yuan-Ning%Xu%NULL%0,          Bo%Wang%NULL%0,          Ying-Ying%Yang%NULL%0,          Zong-An%Liang%NULL%0,          Xue-Zhong%Lei%NULL%0,          Yang%Ge%NULL%0,          Ming%Yang%NULL%0,          Ling%Zhang%NULL%0,          Ming-Quan%Zeng%NULL%0,          He%Yu%NULL%0,          Kai%Liu%NULL%0,          Yu-Heng%Jia%NULL%0,          Bernard D%Prendergast%NULL%0,          Wei-Min%Li%NULL%0,          Wei-Min%Li%NULL%0,          Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,          Shuyun%Xu%NULL%0,          Muqing%Yu%NULL%0,          Ke%Wang%NULL%0,          Yu%Tao%NULL%0,          Ying%Zhou%NULL%0,          Jing%Shi%NULL%0,          Min%Zhou%NULL%0,          Bo%Wu%NULL%0,          Zhenyu%Yang%NULL%0,          Cong%Zhang%NULL%0,          Junqing%Yue%NULL%0,          Zhiguo%Zhang%NULL%0,          Harald%Renz%NULL%0,          Xiansheng%Liu%NULL%0,          Jungang%Xie%NULL%0,          Min%Xie%NULL%0,          Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%1,          Kipp W.%Johnson%NULL%1,          James L.%Januzzi%NULL%1,          Adam J.%Russak%NULL%1,          Ishan%Paranjpe%NULL%0,          Felix%Richter%NULL%0,          Shan%Zhao%NULL%0,          Sulaiman%Somani%NULL%0,          Tielman%Van Vleck%NULL%1,          Akhil%Vaid%NULL%0,          Fayzan%Chaudhry%NULL%1,          Jessica K.%De Freitas%NULL%1,          Zahi A.%Fayad%NULL%1,          Sean P.%Pinney%NULL%1,          Matthew%Levin%NULL%1,          Alexander%Charney%NULL%1,          Emilia%Bagiella%NULL%0,          Jagat%Narula%NULL%0,          Benjamin S.%Glicksberg%NULL%1,          Girish%Nadkarni%NULL%1,          Donna M.%Mancini%NULL%1,          Valentin%Fuster%NULL%0,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,          Yeming%Wang%NULL%0,          Xingwang%Li%NULL%0,          Lili%Ren%NULL%0,          Jianping%Zhao%NULL%0,          Yi%Hu%NULL%0,          Li%Zhang%NULL%0,          Guohui%Fan%NULL%0,          Jiuyang%Xu%NULL%0,          Xiaoying%Gu%NULL%0,          Zhenshun%Cheng%NULL%0,          Ting%Yu%NULL%0,          Jiaan%Xia%NULL%0,          Yuan%Wei%NULL%0,          Wenjuan%Wu%NULL%0,          Xuelei%Xie%NULL%0,          Wen%Yin%NULL%0,          Hui%Li%NULL%0,          Min%Liu%NULL%0,          Yan%Xiao%NULL%0,          Hong%Gao%NULL%0,          Li%Guo%NULL%0,          Jungang%Xie%NULL%0,          Guangfa%Wang%NULL%0,          Rongmeng%Jiang%NULL%0,          Zhancheng%Gao%NULL%0,          Qi%Jin%NULL%0,          Jianwei%Wang%wangjw28@163.com%0,          Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,          Linlin%Xie%NULL%1,          Rui%Liu%NULL%1,          Jie%Yang%NULL%0,          Fang%Liu%NULL%2,          Kailang%Wu%NULL%2,          Lang%Chen%NULL%1,          Wei%Hou%NULL%0,          Yong%Feng%yongfeng@whu.edu.cn%0,          Chengliang%Zhu%xinchengzhu@163.com%2,          Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0,          Bo%Hu%NULL%1,          Yao%Zhang%NULL%0,          Hao%Wang%NULL%0,          Xiaoyang%Zhou%NULL%1,          Wei%Hu%NULL%1,          Yuting%Cheng%NULL%1,          Jie%Yan%NULL%0,          Haiqin%Ping%NULL%1,          Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%1,          Xien%Gui%NULL%1,          Yongxi%Zhang%NULL%0,          Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,          Yuan%Yu%NULL%0,          Jiqian%Xu%NULL%0,          Huaqing%Shu%NULL%0,          Jia'an%Xia%NULL%0,          Hong%Liu%NULL%0,          Yongran%Wu%NULL%0,          Lu%Zhang%NULL%0,          Zhui%Yu%NULL%0,          Minghao%Fang%NULL%0,          Ting%Yu%NULL%0,          Yaxin%Wang%NULL%0,          Shangwen%Pan%NULL%0,          Xiaojing%Zou%NULL%0,          Shiying%Yuan%NULL%0,          You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,         Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%1,         Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%1,         Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%1,         Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0,          Miao%Yu%NULL%0,          Tian%Xie%NULL%0,          Fen%Yang%NULL%0,          Hong-Bo%Wang%NULL%0,          Zhao-Hui%Wang%NULL%0,          Ming%Li%NULL%0,          Xing-Li%Gao%NULL%0,          Bing-Jie%Lv%NULL%0,          Shi-Jia%Wang%NULL%0,          Xiao-Bo%Zhang%NULL%0,          Shao-Lin%He%NULL%0,          Zhi-Hua%Qiu%NULL%0,          Yu-Hua%Liao%NULL%0,          Zi-Hua%Zhou%NULL%0,          Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,          Yongzhen%Fan%NULL%0,          Ming%Chen%NULL%0,          Xiaoyan%Wu%NULL%0,          Lin%Zhang%NULL%0,          Tao%He%NULL%0,          Hairong%Wang%NULL%0,          Jing%Wan%NULL%0,          Xinghuan%Wang%NULL%0,          Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,          Wei%Liu%NULL%0,          Kui%Liu%NULL%0,          Yuan-Yuan%Fang%NULL%0,          Jin%Shang%NULL%1,          Ling%Zhou%NULL%0,          Ke%Wang%NULL%0,          Fan%Leng%NULL%1,          Shuang%Wei%NULL%0,          Lei%Chen%NULL%1,          Hui-Guo%Liu%NULL%0,          Pei-Fang%Wei%NULL%0,          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,          Di%Wu%NULL%0,          Huilong%Chen%NULL%0,          Weiming%Yan%NULL%0,          Danlei%Yang%NULL%0,          Guang%Chen%NULL%0,          Ke%Ma%NULL%0,          Dong%Xu%NULL%0,          Haijing%Yu%NULL%0,          Hongwu%Wang%NULL%0,          Tao%Wang%NULL%0,          Wei%Guo%NULL%0,          Jia%Chen%NULL%0,          Chen%Ding%NULL%0,          Xiaoping%Zhang%NULL%0,          Jiaquan%Huang%NULL%0,          Meifang%Han%NULL%0,          Shusheng%Li%NULL%0,          Xiaoping%Luo%NULL%0,          Jianping%Zhao%NULL%0,          Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,           Ting%Yu%NULL%0,           Ronghui%Du%NULL%0,           Guohui%Fan%NULL%0,           Ying%Liu%NULL%0,           Zhibo%Liu%NULL%0,           Jie%Xiang%NULL%0,           Yeming%Wang%NULL%0,           Bin%Song%NULL%0,           Xiaoying%Gu%NULL%0,           Lulu%Guan%NULL%0,           Yuan%Wei%NULL%0,           Hui%Li%NULL%0,           Xudong%Wu%NULL%0,           Jiuyang%Xu%NULL%0,           Shengjin%Tu%NULL%0,           Yi%Zhang%NULL%0,           Hua%Chen%NULL%0,           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,          Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,          Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,          Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0,           Kwan Ho%Lee%NULL%2,           Kwan Ho%Lee%NULL%0,           Jin Hong%Chung%NULL%2,           Jin Hong%Chung%NULL%0,           Kyeong-Cheol%Shin%NULL%2,           Kyeong-Cheol%Shin%NULL%0,           Eun Young%Choi%NULL%2,           Eun Young%Choi%NULL%0,           Hyun Jung%Jin%NULL%2,           Hyun Jung%Jin%NULL%0,           Jong Geol%Jang%NULL%2,           Jong Geol%Jang%NULL%0,           Wonhwa%Lee%NULL%2,           Wonhwa%Lee%NULL%0,           June Hong%Ahn%NULL%0,           June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,    Eric%Yim%xref no email%0,    Lindy%Klaff%xref no email%0,    Sharukh%Lokhandwala%xref no email%0,    Francis X.%Riedo%xref no email%0,    Maria%Chong%xref no email%0,    Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,          Aggarwal%Saurabh%coreGivesNoEmail%0,          Garcia-Telles%Nelson%coreGivesNoEmail%0,          Henry%Brandon Michael%coreGivesNoEmail%0,          Lavie%Carl%coreGivesNoEmail%0,          Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,           Dan%Xu%NULL%0,           Shouzhi%Fu%NULL%0,           Jun%Zhang%NULL%0,           Xiaobo%Yang%NULL%0,           Liang%Xu%NULL%0,           Jiqian%Xu%NULL%0,           Yongran%Wu%NULL%0,           Chaolin%Huang%NULL%0,           Yaqi%Ouyang%NULL%0,           Luyu%Yang%NULL%0,           Minghao%Fang%NULL%0,           Hongwen%Xiao%NULL%0,           Jing%Ma%NULL%0,           Wei%Zhu%NULL%0,           Song%Hu%NULL%0,           Quan%Hu%NULL%0,           Daoyin%Ding%NULL%0,           Ming%Hu%NULL%0,           Guochao%Zhu%NULL%0,           Weijiang%Xu%NULL%0,           Jun%Guo%NULL%0,           Jinglong%Xu%NULL%0,           Haitao%Yuan%NULL%0,           Bin%Zhang%NULL%0,           Zhui%Yu%yuzhui@whu.edu.cn%0,           Dechang%Chen%icudechangchen@163.com%0,           Shiying%Yuan%yuan_shiying@163.com%0,           You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0,           Shaobo%Shi%NULL%2,           Shaobo%Shi%NULL%0,           Jiling%Zhu%NULL%1,           Jinzhi%Shi%NULL%1,           Kai%Dai%NULL%1,           Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0,           Fang-Yang%Huang%NULL%0,           Tian-Yuan%Xiong%NULL%0,           Tian-Yuan%Xiong%NULL%0,           Qi%Liu%NULL%0,           Hong%Chen%NULL%0,           Hui%Wang%NULL%0,           He%Huang%NULL%0,           Yi-Chun%Luo%NULL%0,           Xuan%Zhou%NULL%0,           Zhi-Yue%Liu%NULL%0,           Yong%Peng%NULL%0,           Yuan-Ning%Xu%NULL%0,           Bo%Wang%NULL%0,           Ying-Ying%Yang%NULL%0,           Zong-An%Liang%NULL%0,           Xue-Zhong%Lei%NULL%0,           Yang%Ge%NULL%0,           Ming%Yang%NULL%0,           Ling%Zhang%NULL%0,           Ming-Quan%Zeng%NULL%0,           He%Yu%NULL%0,           Kai%Liu%NULL%0,           Yu-Heng%Jia%NULL%0,           Bernard D%Prendergast%NULL%0,           Wei-Min%Li%NULL%0,           Wei-Min%Li%NULL%0,           Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,           Shuyun%Xu%NULL%0,           Muqing%Yu%NULL%0,           Ke%Wang%NULL%0,           Yu%Tao%NULL%0,           Ying%Zhou%NULL%0,           Jing%Shi%NULL%0,           Min%Zhou%NULL%0,           Bo%Wu%NULL%0,           Zhenyu%Yang%NULL%0,           Cong%Zhang%NULL%0,           Junqing%Yue%NULL%0,           Zhiguo%Zhang%NULL%0,           Harald%Renz%NULL%0,           Xiansheng%Liu%NULL%0,           Jungang%Xie%NULL%0,           Min%Xie%NULL%0,           Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%1,           Kipp W.%Johnson%NULL%1,           James L.%Januzzi%NULL%1,           Adam J.%Russak%NULL%1,           Ishan%Paranjpe%NULL%0,           Felix%Richter%NULL%0,           Shan%Zhao%NULL%0,           Sulaiman%Somani%NULL%0,           Tielman%Van Vleck%NULL%1,           Akhil%Vaid%NULL%0,           Fayzan%Chaudhry%NULL%1,           Jessica K.%De Freitas%NULL%1,           Zahi A.%Fayad%NULL%1,           Sean P.%Pinney%NULL%1,           Matthew%Levin%NULL%1,           Alexander%Charney%NULL%1,           Emilia%Bagiella%NULL%0,           Jagat%Narula%NULL%0,           Benjamin S.%Glicksberg%NULL%1,           Girish%Nadkarni%NULL%1,           Donna M.%Mancini%NULL%1,           Valentin%Fuster%NULL%0,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,           Yeming%Wang%NULL%0,           Xingwang%Li%NULL%0,           Lili%Ren%NULL%0,           Jianping%Zhao%NULL%0,           Yi%Hu%NULL%0,           Li%Zhang%NULL%0,           Guohui%Fan%NULL%0,           Jiuyang%Xu%NULL%0,           Xiaoying%Gu%NULL%0,           Zhenshun%Cheng%NULL%0,           Ting%Yu%NULL%0,           Jiaan%Xia%NULL%0,           Yuan%Wei%NULL%0,           Wenjuan%Wu%NULL%0,           Xuelei%Xie%NULL%0,           Wen%Yin%NULL%0,           Hui%Li%NULL%0,           Min%Liu%NULL%0,           Yan%Xiao%NULL%0,           Hong%Gao%NULL%0,           Li%Guo%NULL%0,           Jungang%Xie%NULL%0,           Guangfa%Wang%NULL%0,           Rongmeng%Jiang%NULL%0,           Zhancheng%Gao%NULL%0,           Qi%Jin%NULL%0,           Jianwei%Wang%wangjw28@163.com%0,           Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,           Linlin%Xie%NULL%1,           Rui%Liu%NULL%1,           Jie%Yang%NULL%0,           Fang%Liu%NULL%2,           Kailang%Wu%NULL%2,           Lang%Chen%NULL%1,           Wei%Hou%NULL%0,           Yong%Feng%yongfeng@whu.edu.cn%0,           Chengliang%Zhu%xinchengzhu@163.com%2,           Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0,           Bo%Hu%NULL%1,           Yao%Zhang%NULL%0,           Hao%Wang%NULL%0,           Xiaoyang%Zhou%NULL%1,           Wei%Hu%NULL%1,           Yuting%Cheng%NULL%1,           Jie%Yan%NULL%0,           Haiqin%Ping%NULL%1,           Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%1,           Xien%Gui%NULL%1,           Yongxi%Zhang%NULL%0,           Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,           Yuan%Yu%NULL%0,           Jiqian%Xu%NULL%0,           Huaqing%Shu%NULL%0,           Jia'an%Xia%NULL%0,           Hong%Liu%NULL%0,           Yongran%Wu%NULL%0,           Lu%Zhang%NULL%0,           Zhui%Yu%NULL%0,           Minghao%Fang%NULL%0,           Ting%Yu%NULL%0,           Yaxin%Wang%NULL%0,           Shangwen%Pan%NULL%0,           Xiaojing%Zou%NULL%0,           Shiying%Yuan%NULL%0,           You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,          Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%1,          Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%1,          Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%1,          Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0,           Miao%Yu%NULL%0,           Tian%Xie%NULL%0,           Fen%Yang%NULL%0,           Hong-Bo%Wang%NULL%0,           Zhao-Hui%Wang%NULL%0,           Ming%Li%NULL%0,           Xing-Li%Gao%NULL%0,           Bing-Jie%Lv%NULL%0,           Shi-Jia%Wang%NULL%0,           Xiao-Bo%Zhang%NULL%0,           Shao-Lin%He%NULL%0,           Zhi-Hua%Qiu%NULL%0,           Yu-Hua%Liao%NULL%0,           Zi-Hua%Zhou%NULL%0,           Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,           Yongzhen%Fan%NULL%0,           Ming%Chen%NULL%0,           Xiaoyan%Wu%NULL%0,           Lin%Zhang%NULL%0,           Tao%He%NULL%0,           Hairong%Wang%NULL%0,           Jing%Wan%NULL%0,           Xinghuan%Wang%NULL%0,           Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,           Wei%Liu%NULL%0,           Kui%Liu%NULL%0,           Yuan-Yuan%Fang%NULL%0,           Jin%Shang%NULL%0,           Ling%Zhou%NULL%0,           Ke%Wang%NULL%0,           Fan%Leng%NULL%0,           Shuang%Wei%NULL%0,           Lei%Chen%NULL%0,           Hui-Guo%Liu%NULL%0,           Pei-Fang%Wei%NULL%0,           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,           Di%Wu%NULL%0,           Huilong%Chen%NULL%0,           Weiming%Yan%NULL%0,           Danlei%Yang%NULL%0,           Guang%Chen%NULL%0,           Ke%Ma%NULL%0,           Dong%Xu%NULL%0,           Haijing%Yu%NULL%0,           Hongwu%Wang%NULL%0,           Tao%Wang%NULL%0,           Wei%Guo%NULL%0,           Jia%Chen%NULL%0,           Chen%Ding%NULL%0,           Xiaoping%Zhang%NULL%0,           Jiaquan%Huang%NULL%0,           Meifang%Han%NULL%0,           Shusheng%Li%NULL%0,           Xiaoping%Luo%NULL%0,           Jianping%Zhao%NULL%0,           Qin%Ning%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1583,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -1492,7 +1612,7 @@
         <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1521,7 +1641,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1550,7 +1670,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1579,7 +1699,7 @@
         <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1608,7 +1728,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1637,7 +1757,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1666,7 +1786,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1695,7 +1815,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1724,7 +1844,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -1753,7 +1873,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -1782,7 +1902,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1811,7 +1931,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1840,7 +1960,7 @@
         <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -1869,7 +1989,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -1898,7 +2018,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -1927,7 +2047,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
@@ -1956,7 +2076,7 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="F19" t="s">
         <v>100</v>
@@ -1985,7 +2105,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -2014,7 +2134,7 @@
         <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="F21" t="s">
         <v>109</v>

--- a/Covid_19_Dataset_and_References/References/90.xlsx
+++ b/Covid_19_Dataset_and_References/References/90.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="359">
   <si>
     <t>Doi</t>
   </si>
@@ -1249,6 +1249,151 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,           Di%Wu%NULL%0,           Huilong%Chen%NULL%0,           Weiming%Yan%NULL%0,           Danlei%Yang%NULL%0,           Guang%Chen%NULL%0,           Ke%Ma%NULL%0,           Dong%Xu%NULL%0,           Haijing%Yu%NULL%0,           Hongwu%Wang%NULL%0,           Tao%Wang%NULL%0,           Wei%Guo%NULL%0,           Jia%Chen%NULL%0,           Chen%Ding%NULL%0,           Xiaoping%Zhang%NULL%0,           Jiaquan%Huang%NULL%0,           Meifang%Han%NULL%0,           Shusheng%Li%NULL%0,           Xiaoping%Luo%NULL%0,           Jianping%Zhao%NULL%0,           Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,            Ting%Yu%NULL%0,            Ronghui%Du%NULL%0,            Guohui%Fan%NULL%0,            Ying%Liu%NULL%0,            Zhibo%Liu%NULL%0,            Jie%Xiang%NULL%0,            Yeming%Wang%NULL%0,            Bin%Song%NULL%0,            Xiaoying%Gu%NULL%0,            Lulu%Guan%NULL%0,            Yuan%Wei%NULL%0,            Hui%Li%NULL%0,            Xudong%Wu%NULL%0,            Jiuyang%Xu%NULL%0,            Shengjin%Tu%NULL%0,            Yi%Zhang%NULL%0,            Hua%Chen%NULL%0,            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,           Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,           Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,           Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0,            Kwan Ho%Lee%NULL%2,            Kwan Ho%Lee%NULL%0,            Jin Hong%Chung%NULL%2,            Jin Hong%Chung%NULL%0,            Kyeong-Cheol%Shin%NULL%2,            Kyeong-Cheol%Shin%NULL%0,            Eun Young%Choi%NULL%2,            Eun Young%Choi%NULL%0,            Hyun Jung%Jin%NULL%2,            Hyun Jung%Jin%NULL%0,            Jong Geol%Jang%NULL%2,            Jong Geol%Jang%NULL%0,            Wonhwa%Lee%NULL%2,            Wonhwa%Lee%NULL%0,            June Hong%Ahn%NULL%0,            June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,     Eric%Yim%xref no email%0,     Lindy%Klaff%xref no email%0,     Sharukh%Lokhandwala%xref no email%0,     Francis X.%Riedo%xref no email%0,     Maria%Chong%xref no email%0,     Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,           Aggarwal%Saurabh%coreGivesNoEmail%0,           Garcia-Telles%Nelson%coreGivesNoEmail%0,           Henry%Brandon Michael%coreGivesNoEmail%0,           Lavie%Carl%coreGivesNoEmail%0,           Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
+ The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
+Methods
+A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
+Results
+A total of 226 patients were included.
+ Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
+ The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
+ Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
+ Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
+ Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
+ By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
+Conclusions
+Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
+ COVID-19 poses a great strain on critical care resources in hospitals.
+Trial registration
+Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
+chictr.
+org.
+cn/edit.
+aspx?pid=49983&amp;amp;htm=4
+</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,            Dan%Xu%NULL%0,            Shouzhi%Fu%NULL%0,            Jun%Zhang%NULL%0,            Xiaobo%Yang%NULL%0,            Liang%Xu%NULL%0,            Jiqian%Xu%NULL%0,            Yongran%Wu%NULL%0,            Chaolin%Huang%NULL%0,            Yaqi%Ouyang%NULL%0,            Luyu%Yang%NULL%0,            Minghao%Fang%NULL%0,            Hongwen%Xiao%NULL%0,            Jing%Ma%NULL%0,            Wei%Zhu%NULL%0,            Song%Hu%NULL%0,            Quan%Hu%NULL%0,            Daoyin%Ding%NULL%0,            Ming%Hu%NULL%0,            Guochao%Zhu%NULL%0,            Weijiang%Xu%NULL%0,            Jun%Guo%NULL%0,            Jinglong%Xu%NULL%0,            Haitao%Yuan%NULL%0,            Bin%Zhang%NULL%0,            Zhui%Yu%yuzhui@whu.edu.cn%0,            Dechang%Chen%icudechangchen@163.com%0,            Shiying%Yuan%yuan_shiying@163.com%0,            You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0,            Shaobo%Shi%NULL%2,            Shaobo%Shi%NULL%0,            Jiling%Zhu%NULL%1,            Jinzhi%Shi%NULL%1,            Kai%Dai%NULL%1,            Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0,            Fang-Yang%Huang%NULL%0,            Tian-Yuan%Xiong%NULL%0,            Tian-Yuan%Xiong%NULL%0,            Qi%Liu%NULL%0,            Hong%Chen%NULL%0,            Hui%Wang%NULL%0,            He%Huang%NULL%0,            Yi-Chun%Luo%NULL%0,            Xuan%Zhou%NULL%0,            Zhi-Yue%Liu%NULL%0,            Yong%Peng%NULL%0,            Yuan-Ning%Xu%NULL%0,            Bo%Wang%NULL%0,            Ying-Ying%Yang%NULL%0,            Zong-An%Liang%NULL%0,            Xue-Zhong%Lei%NULL%0,            Yang%Ge%NULL%0,            Ming%Yang%NULL%0,            Ling%Zhang%NULL%0,            Ming-Quan%Zeng%NULL%0,            He%Yu%NULL%0,            Kai%Liu%NULL%0,            Yu-Heng%Jia%NULL%0,            Bernard D%Prendergast%NULL%0,            Wei-Min%Li%NULL%0,            Wei-Min%Li%NULL%0,            Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,            Shuyun%Xu%NULL%0,            Muqing%Yu%NULL%0,            Ke%Wang%NULL%0,            Yu%Tao%NULL%0,            Ying%Zhou%NULL%0,            Jing%Shi%NULL%0,            Min%Zhou%NULL%0,            Bo%Wu%NULL%0,            Zhenyu%Yang%NULL%0,            Cong%Zhang%NULL%0,            Junqing%Yue%NULL%0,            Zhiguo%Zhang%NULL%0,            Harald%Renz%NULL%0,            Xiansheng%Liu%NULL%0,            Jungang%Xie%NULL%0,            Min%Xie%NULL%0,            Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%1,            Kipp W.%Johnson%NULL%1,            James L.%Januzzi%NULL%1,            Adam J.%Russak%NULL%1,            Ishan%Paranjpe%NULL%0,            Felix%Richter%NULL%0,            Shan%Zhao%NULL%0,            Sulaiman%Somani%NULL%0,            Tielman%Van Vleck%NULL%1,            Akhil%Vaid%NULL%0,            Fayzan%Chaudhry%NULL%1,            Jessica K.%De Freitas%NULL%1,            Zahi A.%Fayad%NULL%1,            Sean P.%Pinney%NULL%1,            Matthew%Levin%NULL%1,            Alexander%Charney%NULL%1,            Emilia%Bagiella%NULL%0,            Jagat%Narula%NULL%0,            Benjamin S.%Glicksberg%NULL%1,            Girish%Nadkarni%NULL%1,            Donna M.%Mancini%NULL%1,            Valentin%Fuster%NULL%0,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,            Yeming%Wang%NULL%0,            Xingwang%Li%NULL%0,            Lili%Ren%NULL%0,            Jianping%Zhao%NULL%0,            Yi%Hu%NULL%0,            Li%Zhang%NULL%0,            Guohui%Fan%NULL%0,            Jiuyang%Xu%NULL%0,            Xiaoying%Gu%NULL%0,            Zhenshun%Cheng%NULL%0,            Ting%Yu%NULL%0,            Jiaan%Xia%NULL%0,            Yuan%Wei%NULL%0,            Wenjuan%Wu%NULL%0,            Xuelei%Xie%NULL%0,            Wen%Yin%NULL%0,            Hui%Li%NULL%0,            Min%Liu%NULL%0,            Yan%Xiao%NULL%0,            Hong%Gao%NULL%0,            Li%Guo%NULL%0,            Jungang%Xie%NULL%0,            Guangfa%Wang%NULL%0,            Rongmeng%Jiang%NULL%0,            Zhancheng%Gao%NULL%0,            Qi%Jin%NULL%0,            Jianwei%Wang%wangjw28@163.com%0,            Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,            Linlin%Xie%NULL%1,            Rui%Liu%NULL%1,            Jie%Yang%NULL%0,            Fang%Liu%NULL%2,            Kailang%Wu%NULL%2,            Lang%Chen%NULL%1,            Wei%Hou%NULL%0,            Yong%Feng%yongfeng@whu.edu.cn%0,            Chengliang%Zhu%xinchengzhu@163.com%2,            Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0,            Bo%Hu%NULL%1,            Yao%Zhang%NULL%0,            Hao%Wang%NULL%0,            Xiaoyang%Zhou%NULL%1,            Wei%Hu%NULL%1,            Yuting%Cheng%NULL%1,            Jie%Yan%NULL%0,            Haiqin%Ping%NULL%1,            Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%1,            Xien%Gui%NULL%1,            Yongxi%Zhang%NULL%0,            Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,            Yuan%Yu%NULL%0,            Jiqian%Xu%NULL%0,            Huaqing%Shu%NULL%0,            Jia'an%Xia%NULL%0,            Hong%Liu%NULL%0,            Yongran%Wu%NULL%0,            Lu%Zhang%NULL%0,            Zhui%Yu%NULL%0,            Minghao%Fang%NULL%0,            Ting%Yu%NULL%0,            Yaxin%Wang%NULL%0,            Shangwen%Pan%NULL%0,            Xiaojing%Zou%NULL%0,            Shiying%Yuan%NULL%0,            You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,           Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%1,           Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%1,           Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%1,           Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0,            Miao%Yu%NULL%0,            Tian%Xie%NULL%0,            Fen%Yang%NULL%0,            Hong-Bo%Wang%NULL%0,            Zhao-Hui%Wang%NULL%0,            Ming%Li%NULL%0,            Xing-Li%Gao%NULL%0,            Bing-Jie%Lv%NULL%0,            Shi-Jia%Wang%NULL%0,            Xiao-Bo%Zhang%NULL%0,            Shao-Lin%He%NULL%0,            Zhi-Hua%Qiu%NULL%0,            Yu-Hua%Liao%NULL%0,            Zi-Hua%Zhou%NULL%0,            Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,            Yongzhen%Fan%NULL%0,            Ming%Chen%NULL%0,            Xiaoyan%Wu%NULL%0,            Lin%Zhang%NULL%0,            Tao%He%NULL%0,            Hairong%Wang%NULL%0,            Jing%Wan%NULL%0,            Xinghuan%Wang%NULL%0,            Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,            Wei%Liu%NULL%0,            Kui%Liu%NULL%0,            Yuan-Yuan%Fang%NULL%0,            Jin%Shang%NULL%1,            Ling%Zhou%NULL%0,            Ke%Wang%NULL%0,            Fan%Leng%NULL%1,            Shuang%Wei%NULL%0,            Lei%Chen%NULL%1,            Hui-Guo%Liu%NULL%0,            Pei-Fang%Wei%NULL%0,            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,            Di%Wu%NULL%0,            Huilong%Chen%NULL%0,            Weiming%Yan%NULL%0,            Danlei%Yang%NULL%0,            Guang%Chen%NULL%0,            Ke%Ma%NULL%0,            Dong%Xu%NULL%0,            Haijing%Yu%NULL%0,            Hongwu%Wang%NULL%0,            Tao%Wang%NULL%0,            Wei%Guo%NULL%0,            Jia%Chen%NULL%0,            Chen%Ding%NULL%0,            Xiaoping%Zhang%NULL%0,            Jiaquan%Huang%NULL%0,            Meifang%Han%NULL%0,            Shusheng%Li%NULL%0,            Xiaoping%Luo%NULL%0,            Jianping%Zhao%NULL%0,            Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,             Ting%Yu%NULL%0,             Ronghui%Du%NULL%0,             Guohui%Fan%NULL%0,             Ying%Liu%NULL%0,             Zhibo%Liu%NULL%0,             Jie%Xiang%NULL%0,             Yeming%Wang%NULL%0,             Bin%Song%NULL%0,             Xiaoying%Gu%NULL%0,             Lulu%Guan%NULL%0,             Yuan%Wei%NULL%0,             Hui%Li%NULL%0,             Xudong%Wu%NULL%0,             Jiuyang%Xu%NULL%0,             Shengjin%Tu%NULL%0,             Yi%Zhang%NULL%0,             Hua%Chen%NULL%0,             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,            Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,            Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,            Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0,             Kwan Ho%Lee%NULL%2,             Kwan Ho%Lee%NULL%0,             Jin Hong%Chung%NULL%2,             Jin Hong%Chung%NULL%0,             Kyeong-Cheol%Shin%NULL%2,             Kyeong-Cheol%Shin%NULL%0,             Eun Young%Choi%NULL%2,             Eun Young%Choi%NULL%0,             Hyun Jung%Jin%NULL%2,             Hyun Jung%Jin%NULL%0,             Jong Geol%Jang%NULL%2,             Jong Geol%Jang%NULL%0,             Wonhwa%Lee%NULL%2,             Wonhwa%Lee%NULL%0,             June Hong%Ahn%NULL%0,             June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,      Eric%Yim%xref no email%0,      Lindy%Klaff%xref no email%0,      Sharukh%Lokhandwala%xref no email%0,      Francis X.%Riedo%xref no email%0,      Maria%Chong%xref no email%0,      Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,            Aggarwal%Saurabh%coreGivesNoEmail%0,            Garcia-Telles%Nelson%coreGivesNoEmail%0,            Henry%Brandon Michael%coreGivesNoEmail%0,            Lavie%Carl%coreGivesNoEmail%0,            Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,             Dan%Xu%NULL%0,             Shouzhi%Fu%NULL%0,             Jun%Zhang%NULL%0,             Xiaobo%Yang%NULL%0,             Liang%Xu%NULL%0,             Jiqian%Xu%NULL%0,             Yongran%Wu%NULL%0,             Chaolin%Huang%NULL%0,             Yaqi%Ouyang%NULL%0,             Luyu%Yang%NULL%0,             Minghao%Fang%NULL%0,             Hongwen%Xiao%NULL%0,             Jing%Ma%NULL%0,             Wei%Zhu%NULL%0,             Song%Hu%NULL%0,             Quan%Hu%NULL%0,             Daoyin%Ding%NULL%0,             Ming%Hu%NULL%0,             Guochao%Zhu%NULL%0,             Weijiang%Xu%NULL%0,             Jun%Guo%NULL%0,             Jinglong%Xu%NULL%0,             Haitao%Yuan%NULL%0,             Bin%Zhang%NULL%0,             Zhui%Yu%yuzhui@whu.edu.cn%0,             Dechang%Chen%icudechangchen@163.com%0,             Shiying%Yuan%yuan_shiying@163.com%0,             You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0,             Shaobo%Shi%NULL%2,             Shaobo%Shi%NULL%0,             Jiling%Zhu%NULL%1,             Jinzhi%Shi%NULL%1,             Kai%Dai%NULL%1,             Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0,             Fang-Yang%Huang%NULL%0,             Tian-Yuan%Xiong%NULL%0,             Tian-Yuan%Xiong%NULL%0,             Qi%Liu%NULL%0,             Hong%Chen%NULL%0,             Hui%Wang%NULL%0,             He%Huang%NULL%0,             Yi-Chun%Luo%NULL%0,             Xuan%Zhou%NULL%0,             Zhi-Yue%Liu%NULL%0,             Yong%Peng%NULL%0,             Yuan-Ning%Xu%NULL%0,             Bo%Wang%NULL%0,             Ying-Ying%Yang%NULL%0,             Zong-An%Liang%NULL%0,             Xue-Zhong%Lei%NULL%0,             Yang%Ge%NULL%0,             Ming%Yang%NULL%0,             Ling%Zhang%NULL%0,             Ming-Quan%Zeng%NULL%0,             He%Yu%NULL%0,             Kai%Liu%NULL%0,             Yu-Heng%Jia%NULL%0,             Bernard D%Prendergast%NULL%0,             Wei-Min%Li%NULL%0,             Wei-Min%Li%NULL%0,             Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,             Shuyun%Xu%NULL%0,             Muqing%Yu%NULL%0,             Ke%Wang%NULL%0,             Yu%Tao%NULL%0,             Ying%Zhou%NULL%0,             Jing%Shi%NULL%0,             Min%Zhou%NULL%0,             Bo%Wu%NULL%0,             Zhenyu%Yang%NULL%0,             Cong%Zhang%NULL%0,             Junqing%Yue%NULL%0,             Zhiguo%Zhang%NULL%0,             Harald%Renz%NULL%0,             Xiansheng%Liu%NULL%0,             Jungang%Xie%NULL%0,             Min%Xie%NULL%0,             Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%1,             Kipp W.%Johnson%NULL%1,             James L.%Januzzi%NULL%1,             Adam J.%Russak%NULL%1,             Ishan%Paranjpe%NULL%0,             Felix%Richter%NULL%0,             Shan%Zhao%NULL%0,             Sulaiman%Somani%NULL%0,             Tielman%Van Vleck%NULL%1,             Akhil%Vaid%NULL%0,             Fayzan%Chaudhry%NULL%1,             Jessica K.%De Freitas%NULL%1,             Zahi A.%Fayad%NULL%1,             Sean P.%Pinney%NULL%1,             Matthew%Levin%NULL%1,             Alexander%Charney%NULL%1,             Emilia%Bagiella%NULL%0,             Jagat%Narula%NULL%0,             Benjamin S.%Glicksberg%NULL%1,             Girish%Nadkarni%NULL%1,             Donna M.%Mancini%NULL%1,             Valentin%Fuster%NULL%0,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,             Yeming%Wang%NULL%0,             Xingwang%Li%NULL%0,             Lili%Ren%NULL%0,             Jianping%Zhao%NULL%0,             Yi%Hu%NULL%0,             Li%Zhang%NULL%0,             Guohui%Fan%NULL%0,             Jiuyang%Xu%NULL%0,             Xiaoying%Gu%NULL%0,             Zhenshun%Cheng%NULL%0,             Ting%Yu%NULL%0,             Jiaan%Xia%NULL%0,             Yuan%Wei%NULL%0,             Wenjuan%Wu%NULL%0,             Xuelei%Xie%NULL%0,             Wen%Yin%NULL%0,             Hui%Li%NULL%0,             Min%Liu%NULL%0,             Yan%Xiao%NULL%0,             Hong%Gao%NULL%0,             Li%Guo%NULL%0,             Jungang%Xie%NULL%0,             Guangfa%Wang%NULL%0,             Rongmeng%Jiang%NULL%0,             Zhancheng%Gao%NULL%0,             Qi%Jin%NULL%0,             Jianwei%Wang%wangjw28@163.com%0,             Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,             Linlin%Xie%NULL%1,             Rui%Liu%NULL%1,             Jie%Yang%NULL%0,             Fang%Liu%NULL%2,             Kailang%Wu%NULL%2,             Lang%Chen%NULL%1,             Wei%Hou%NULL%0,             Yong%Feng%yongfeng@whu.edu.cn%0,             Chengliang%Zhu%xinchengzhu@163.com%2,             Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0,             Bo%Hu%NULL%1,             Yao%Zhang%NULL%0,             Hao%Wang%NULL%0,             Xiaoyang%Zhou%NULL%1,             Wei%Hu%NULL%1,             Yuting%Cheng%NULL%1,             Jie%Yan%NULL%0,             Haiqin%Ping%NULL%1,             Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%1,             Xien%Gui%NULL%1,             Yongxi%Zhang%NULL%0,             Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,             Yuan%Yu%NULL%0,             Jiqian%Xu%NULL%0,             Huaqing%Shu%NULL%0,             Jia'an%Xia%NULL%0,             Hong%Liu%NULL%0,             Yongran%Wu%NULL%0,             Lu%Zhang%NULL%0,             Zhui%Yu%NULL%0,             Minghao%Fang%NULL%0,             Ting%Yu%NULL%0,             Yaxin%Wang%NULL%0,             Shangwen%Pan%NULL%0,             Xiaojing%Zou%NULL%0,             Shiying%Yuan%NULL%0,             You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,            Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%1,            Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%1,            Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%1,            Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0,             Miao%Yu%NULL%0,             Tian%Xie%NULL%0,             Fen%Yang%NULL%0,             Hong-Bo%Wang%NULL%0,             Zhao-Hui%Wang%NULL%0,             Ming%Li%NULL%0,             Xing-Li%Gao%NULL%0,             Bing-Jie%Lv%NULL%0,             Shi-Jia%Wang%NULL%0,             Xiao-Bo%Zhang%NULL%0,             Shao-Lin%He%NULL%0,             Zhi-Hua%Qiu%NULL%0,             Yu-Hua%Liao%NULL%0,             Zi-Hua%Zhou%NULL%0,             Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,             Yongzhen%Fan%NULL%0,             Ming%Chen%NULL%0,             Xiaoyan%Wu%NULL%0,             Lin%Zhang%NULL%0,             Tao%He%NULL%0,             Hairong%Wang%NULL%0,             Jing%Wan%NULL%0,             Xinghuan%Wang%NULL%0,             Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,             Wei%Liu%NULL%0,             Kui%Liu%NULL%0,             Yuan-Yuan%Fang%NULL%0,             Jin%Shang%NULL%1,             Ling%Zhou%NULL%0,             Ke%Wang%NULL%0,             Fan%Leng%NULL%1,             Shuang%Wei%NULL%0,             Lei%Chen%NULL%1,             Hui-Guo%Liu%NULL%0,             Pei-Fang%Wei%NULL%0,             Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,             Di%Wu%NULL%0,             Huilong%Chen%NULL%0,             Weiming%Yan%NULL%0,             Danlei%Yang%NULL%0,             Guang%Chen%NULL%0,             Ke%Ma%NULL%0,             Dong%Xu%NULL%0,             Haijing%Yu%NULL%0,             Hongwu%Wang%NULL%0,             Tao%Wang%NULL%0,             Wei%Guo%NULL%0,             Jia%Chen%NULL%0,             Chen%Ding%NULL%0,             Xiaoping%Zhang%NULL%0,             Jiaquan%Huang%NULL%0,             Meifang%Han%NULL%0,             Shusheng%Li%NULL%0,             Xiaoping%Luo%NULL%0,             Jianping%Zhao%NULL%0,             Qin%Ning%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1583,7 +1728,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -1612,7 +1757,7 @@
         <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1641,7 +1786,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1670,7 +1815,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1699,7 +1844,7 @@
         <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1725,10 +1870,10 @@
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="E7" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1757,7 +1902,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1786,7 +1931,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1815,7 +1960,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1844,7 +1989,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -1873,7 +2018,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -1902,7 +2047,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1931,7 +2076,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -1960,7 +2105,7 @@
         <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -1989,7 +2134,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -2018,7 +2163,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -2047,7 +2192,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
@@ -2076,7 +2221,7 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="F19" t="s">
         <v>100</v>
@@ -2105,7 +2250,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -2134,7 +2279,7 @@
         <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="F21" t="s">
         <v>109</v>

--- a/Covid_19_Dataset_and_References/References/90.xlsx
+++ b/Covid_19_Dataset_and_References/References/90.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="379">
   <si>
     <t>Doi</t>
   </si>
@@ -1394,6 +1394,66 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,             Di%Wu%NULL%0,             Huilong%Chen%NULL%0,             Weiming%Yan%NULL%0,             Danlei%Yang%NULL%0,             Guang%Chen%NULL%0,             Ke%Ma%NULL%0,             Dong%Xu%NULL%0,             Haijing%Yu%NULL%0,             Hongwu%Wang%NULL%0,             Tao%Wang%NULL%0,             Wei%Guo%NULL%0,             Jia%Chen%NULL%0,             Chen%Ding%NULL%0,             Xiaoping%Zhang%NULL%0,             Jiaquan%Huang%NULL%0,             Meifang%Han%NULL%0,             Shusheng%Li%NULL%0,             Xiaoping%Luo%NULL%0,             Jianping%Zhao%NULL%0,             Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,              Ting%Yu%NULL%0,              Ronghui%Du%NULL%0,              Guohui%Fan%NULL%0,              Ying%Liu%NULL%0,              Zhibo%Liu%NULL%0,              Jie%Xiang%NULL%0,              Yeming%Wang%NULL%0,              Bin%Song%NULL%0,              Xiaoying%Gu%NULL%0,              Lulu%Guan%NULL%0,              Yuan%Wei%NULL%0,              Hui%Li%NULL%0,              Xudong%Wu%NULL%0,              Jiuyang%Xu%NULL%0,              Shengjin%Tu%NULL%0,              Yi%Zhang%NULL%0,              Hua%Chen%NULL%0,              Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,             Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,             Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,             Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0,              Kwan Ho%Lee%NULL%2,              Kwan Ho%Lee%NULL%0,              Jin Hong%Chung%NULL%2,              Jin Hong%Chung%NULL%0,              Kyeong-Cheol%Shin%NULL%2,              Kyeong-Cheol%Shin%NULL%0,              Eun Young%Choi%NULL%2,              Eun Young%Choi%NULL%0,              Hyun Jung%Jin%NULL%2,              Hyun Jung%Jin%NULL%0,              Jong Geol%Jang%NULL%2,              Jong Geol%Jang%NULL%0,              Wonhwa%Lee%NULL%2,              Wonhwa%Lee%NULL%0,              June Hong%Ahn%NULL%0,              June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,       Eric%Yim%xref no email%0,       Lindy%Klaff%xref no email%0,       Sharukh%Lokhandwala%xref no email%0,       Francis X.%Riedo%xref no email%0,       Maria%Chong%xref no email%0,       Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,             Aggarwal%Saurabh%coreGivesNoEmail%0,             Garcia-Telles%Nelson%coreGivesNoEmail%0,             Henry%Brandon Michael%coreGivesNoEmail%0,             Lavie%Carl%coreGivesNoEmail%0,             Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,              Dan%Xu%NULL%0,              Shouzhi%Fu%NULL%0,              Jun%Zhang%NULL%0,              Xiaobo%Yang%NULL%0,              Liang%Xu%NULL%0,              Jiqian%Xu%NULL%0,              Yongran%Wu%NULL%0,              Chaolin%Huang%NULL%0,              Yaqi%Ouyang%NULL%0,              Luyu%Yang%NULL%0,              Minghao%Fang%NULL%0,              Hongwen%Xiao%NULL%0,              Jing%Ma%NULL%0,              Wei%Zhu%NULL%0,              Song%Hu%NULL%0,              Quan%Hu%NULL%0,              Daoyin%Ding%NULL%0,              Ming%Hu%NULL%0,              Guochao%Zhu%NULL%0,              Weijiang%Xu%NULL%0,              Jun%Guo%NULL%0,              Jinglong%Xu%NULL%0,              Haitao%Yuan%NULL%0,              Bin%Zhang%NULL%0,              Zhui%Yu%yuzhui@whu.edu.cn%0,              Dechang%Chen%icudechangchen@163.com%0,              Shiying%Yuan%yuan_shiying@163.com%0,              You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0,              Shaobo%Shi%NULL%2,              Shaobo%Shi%NULL%0,              Jiling%Zhu%NULL%1,              Jinzhi%Shi%NULL%1,              Kai%Dai%NULL%1,              Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0,              Fang-Yang%Huang%NULL%0,              Tian-Yuan%Xiong%NULL%0,              Tian-Yuan%Xiong%NULL%0,              Qi%Liu%NULL%0,              Hong%Chen%NULL%0,              Hui%Wang%NULL%0,              He%Huang%NULL%0,              Yi-Chun%Luo%NULL%0,              Xuan%Zhou%NULL%0,              Zhi-Yue%Liu%NULL%0,              Yong%Peng%NULL%0,              Yuan-Ning%Xu%NULL%0,              Bo%Wang%NULL%0,              Ying-Ying%Yang%NULL%0,              Zong-An%Liang%NULL%0,              Xue-Zhong%Lei%NULL%0,              Yang%Ge%NULL%0,              Ming%Yang%NULL%0,              Ling%Zhang%NULL%0,              Ming-Quan%Zeng%NULL%0,              He%Yu%NULL%0,              Kai%Liu%NULL%0,              Yu-Heng%Jia%NULL%0,              Bernard D%Prendergast%NULL%0,              Wei-Min%Li%NULL%0,              Wei-Min%Li%NULL%0,              Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,              Shuyun%Xu%NULL%0,              Muqing%Yu%NULL%0,              Ke%Wang%NULL%0,              Yu%Tao%NULL%0,              Ying%Zhou%NULL%0,              Jing%Shi%NULL%0,              Min%Zhou%NULL%0,              Bo%Wu%NULL%0,              Zhenyu%Yang%NULL%0,              Cong%Zhang%NULL%0,              Junqing%Yue%NULL%0,              Zhiguo%Zhang%NULL%0,              Harald%Renz%NULL%0,              Xiansheng%Liu%NULL%0,              Jungang%Xie%NULL%0,              Min%Xie%NULL%0,              Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%1,              Kipp W.%Johnson%NULL%1,              James L.%Januzzi%NULL%1,              Adam J.%Russak%NULL%1,              Ishan%Paranjpe%NULL%0,              Felix%Richter%NULL%0,              Shan%Zhao%NULL%0,              Sulaiman%Somani%NULL%0,              Tielman%Van Vleck%NULL%1,              Akhil%Vaid%NULL%0,              Fayzan%Chaudhry%NULL%1,              Jessica K.%De Freitas%NULL%1,              Zahi A.%Fayad%NULL%1,              Sean P.%Pinney%NULL%1,              Matthew%Levin%NULL%1,              Alexander%Charney%NULL%1,              Emilia%Bagiella%NULL%0,              Jagat%Narula%NULL%0,              Benjamin S.%Glicksberg%NULL%1,              Girish%Nadkarni%NULL%1,              Donna M.%Mancini%NULL%1,              Valentin%Fuster%NULL%0,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,              Yeming%Wang%NULL%0,              Xingwang%Li%NULL%0,              Lili%Ren%NULL%0,              Jianping%Zhao%NULL%0,              Yi%Hu%NULL%0,              Li%Zhang%NULL%0,              Guohui%Fan%NULL%0,              Jiuyang%Xu%NULL%0,              Xiaoying%Gu%NULL%0,              Zhenshun%Cheng%NULL%0,              Ting%Yu%NULL%0,              Jiaan%Xia%NULL%0,              Yuan%Wei%NULL%0,              Wenjuan%Wu%NULL%0,              Xuelei%Xie%NULL%0,              Wen%Yin%NULL%0,              Hui%Li%NULL%0,              Min%Liu%NULL%0,              Yan%Xiao%NULL%0,              Hong%Gao%NULL%0,              Li%Guo%NULL%0,              Jungang%Xie%NULL%0,              Guangfa%Wang%NULL%0,              Rongmeng%Jiang%NULL%0,              Zhancheng%Gao%NULL%0,              Qi%Jin%NULL%0,              Jianwei%Wang%wangjw28@163.com%0,              Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,              Linlin%Xie%NULL%1,              Rui%Liu%NULL%1,              Jie%Yang%NULL%0,              Fang%Liu%NULL%2,              Kailang%Wu%NULL%2,              Lang%Chen%NULL%1,              Wei%Hou%NULL%0,              Yong%Feng%yongfeng@whu.edu.cn%0,              Chengliang%Zhu%xinchengzhu@163.com%2,              Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0,              Bo%Hu%NULL%1,              Yao%Zhang%NULL%0,              Hao%Wang%NULL%0,              Xiaoyang%Zhou%NULL%1,              Wei%Hu%NULL%1,              Yuting%Cheng%NULL%1,              Jie%Yan%NULL%0,              Haiqin%Ping%NULL%1,              Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%1,              Xien%Gui%NULL%1,              Yongxi%Zhang%NULL%0,              Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,              Yuan%Yu%NULL%0,              Jiqian%Xu%NULL%0,              Huaqing%Shu%NULL%0,              Jia'an%Xia%NULL%0,              Hong%Liu%NULL%0,              Yongran%Wu%NULL%0,              Lu%Zhang%NULL%0,              Zhui%Yu%NULL%0,              Minghao%Fang%NULL%0,              Ting%Yu%NULL%0,              Yaxin%Wang%NULL%0,              Shangwen%Pan%NULL%0,              Xiaojing%Zou%NULL%0,              Shiying%Yuan%NULL%0,              You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,             Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%1,             Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%1,             Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%1,             Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0,              Miao%Yu%NULL%0,              Tian%Xie%NULL%0,              Fen%Yang%NULL%0,              Hong-Bo%Wang%NULL%0,              Zhao-Hui%Wang%NULL%0,              Ming%Li%NULL%0,              Xing-Li%Gao%NULL%0,              Bing-Jie%Lv%NULL%0,              Shi-Jia%Wang%NULL%0,              Xiao-Bo%Zhang%NULL%0,              Shao-Lin%He%NULL%0,              Zhi-Hua%Qiu%NULL%0,              Yu-Hua%Liao%NULL%0,              Zi-Hua%Zhou%NULL%0,              Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,              Yongzhen%Fan%NULL%0,              Ming%Chen%NULL%0,              Xiaoyan%Wu%NULL%0,              Lin%Zhang%NULL%0,              Tao%He%NULL%0,              Hairong%Wang%NULL%0,              Jing%Wan%NULL%0,              Xinghuan%Wang%NULL%0,              Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,              Wei%Liu%NULL%0,              Kui%Liu%NULL%0,              Yuan-Yuan%Fang%NULL%0,              Jin%Shang%NULL%1,              Ling%Zhou%NULL%0,              Ke%Wang%NULL%0,              Fan%Leng%NULL%1,              Shuang%Wei%NULL%0,              Lei%Chen%NULL%1,              Hui-Guo%Liu%NULL%0,              Pei-Fang%Wei%NULL%0,              Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,              Di%Wu%NULL%0,              Huilong%Chen%NULL%0,              Weiming%Yan%NULL%0,              Danlei%Yang%NULL%0,              Guang%Chen%NULL%0,              Ke%Ma%NULL%0,              Dong%Xu%NULL%0,              Haijing%Yu%NULL%0,              Hongwu%Wang%NULL%0,              Tao%Wang%NULL%0,              Wei%Guo%NULL%0,              Jia%Chen%NULL%0,              Chen%Ding%NULL%0,              Xiaoping%Zhang%NULL%0,              Jiaquan%Huang%NULL%0,              Meifang%Han%NULL%0,              Shusheng%Li%NULL%0,              Xiaoping%Luo%NULL%0,              Jianping%Zhao%NULL%0,              Qin%Ning%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1788,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -1757,7 +1817,7 @@
         <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1786,7 +1846,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1815,7 +1875,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1844,7 +1904,7 @@
         <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1873,7 +1933,7 @@
         <v>323</v>
       </c>
       <c r="E7" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1902,7 +1962,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1931,7 +1991,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1960,7 +2020,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1989,7 +2049,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -2018,7 +2078,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -2047,7 +2107,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -2076,7 +2136,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -2105,7 +2165,7 @@
         <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -2134,7 +2194,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -2163,7 +2223,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -2192,7 +2252,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
@@ -2221,7 +2281,7 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="F19" t="s">
         <v>100</v>
@@ -2250,7 +2310,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -2279,7 +2339,7 @@
         <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="F21" t="s">
         <v>109</v>

--- a/Covid_19_Dataset_and_References/References/90.xlsx
+++ b/Covid_19_Dataset_and_References/References/90.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="399">
   <si>
     <t>Doi</t>
   </si>
@@ -1454,6 +1454,66 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,              Di%Wu%NULL%0,              Huilong%Chen%NULL%0,              Weiming%Yan%NULL%0,              Danlei%Yang%NULL%0,              Guang%Chen%NULL%0,              Ke%Ma%NULL%0,              Dong%Xu%NULL%0,              Haijing%Yu%NULL%0,              Hongwu%Wang%NULL%0,              Tao%Wang%NULL%0,              Wei%Guo%NULL%0,              Jia%Chen%NULL%0,              Chen%Ding%NULL%0,              Xiaoping%Zhang%NULL%0,              Jiaquan%Huang%NULL%0,              Meifang%Han%NULL%0,              Shusheng%Li%NULL%0,              Xiaoping%Luo%NULL%0,              Jianping%Zhao%NULL%0,              Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,               Ting%Yu%NULL%0,               Ronghui%Du%NULL%0,               Guohui%Fan%NULL%0,               Ying%Liu%NULL%0,               Zhibo%Liu%NULL%0,               Jie%Xiang%NULL%0,               Yeming%Wang%NULL%0,               Bin%Song%NULL%0,               Xiaoying%Gu%NULL%0,               Lulu%Guan%NULL%0,               Yuan%Wei%NULL%0,               Hui%Li%NULL%0,               Xudong%Wu%NULL%0,               Jiuyang%Xu%NULL%0,               Shengjin%Tu%NULL%0,               Yi%Zhang%NULL%0,               Hua%Chen%NULL%0,               Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,              Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,              Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,              Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0,               Kwan Ho%Lee%NULL%2,               Kwan Ho%Lee%NULL%0,               Jin Hong%Chung%NULL%2,               Jin Hong%Chung%NULL%0,               Kyeong-Cheol%Shin%NULL%2,               Kyeong-Cheol%Shin%NULL%0,               Eun Young%Choi%NULL%2,               Eun Young%Choi%NULL%0,               Hyun Jung%Jin%NULL%2,               Hyun Jung%Jin%NULL%0,               Jong Geol%Jang%NULL%2,               Jong Geol%Jang%NULL%0,               Wonhwa%Lee%NULL%2,               Wonhwa%Lee%NULL%0,               June Hong%Ahn%NULL%0,               June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,        Eric%Yim%xref no email%0,        Lindy%Klaff%xref no email%0,        Sharukh%Lokhandwala%xref no email%0,        Francis X.%Riedo%xref no email%0,        Maria%Chong%xref no email%0,        Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,              Aggarwal%Saurabh%coreGivesNoEmail%0,              Garcia-Telles%Nelson%coreGivesNoEmail%0,              Henry%Brandon Michael%coreGivesNoEmail%0,              Lavie%Carl%coreGivesNoEmail%0,              Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,               Dan%Xu%NULL%0,               Shouzhi%Fu%NULL%0,               Jun%Zhang%NULL%0,               Xiaobo%Yang%NULL%0,               Liang%Xu%NULL%0,               Jiqian%Xu%NULL%0,               Yongran%Wu%NULL%0,               Chaolin%Huang%NULL%0,               Yaqi%Ouyang%NULL%0,               Luyu%Yang%NULL%0,               Minghao%Fang%NULL%0,               Hongwen%Xiao%NULL%0,               Jing%Ma%NULL%0,               Wei%Zhu%NULL%0,               Song%Hu%NULL%0,               Quan%Hu%NULL%0,               Daoyin%Ding%NULL%0,               Ming%Hu%NULL%0,               Guochao%Zhu%NULL%0,               Weijiang%Xu%NULL%0,               Jun%Guo%NULL%0,               Jinglong%Xu%NULL%0,               Haitao%Yuan%NULL%0,               Bin%Zhang%NULL%0,               Zhui%Yu%yuzhui@whu.edu.cn%0,               Dechang%Chen%icudechangchen@163.com%0,               Shiying%Yuan%yuan_shiying@163.com%0,               You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0,               Shaobo%Shi%NULL%2,               Shaobo%Shi%NULL%0,               Jiling%Zhu%NULL%1,               Jinzhi%Shi%NULL%1,               Kai%Dai%NULL%1,               Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0,               Fang-Yang%Huang%NULL%0,               Tian-Yuan%Xiong%NULL%0,               Tian-Yuan%Xiong%NULL%0,               Qi%Liu%NULL%0,               Hong%Chen%NULL%0,               Hui%Wang%NULL%0,               He%Huang%NULL%0,               Yi-Chun%Luo%NULL%0,               Xuan%Zhou%NULL%0,               Zhi-Yue%Liu%NULL%0,               Yong%Peng%NULL%0,               Yuan-Ning%Xu%NULL%0,               Bo%Wang%NULL%0,               Ying-Ying%Yang%NULL%0,               Zong-An%Liang%NULL%0,               Xue-Zhong%Lei%NULL%0,               Yang%Ge%NULL%0,               Ming%Yang%NULL%0,               Ling%Zhang%NULL%0,               Ming-Quan%Zeng%NULL%0,               He%Yu%NULL%0,               Kai%Liu%NULL%0,               Yu-Heng%Jia%NULL%0,               Bernard D%Prendergast%NULL%0,               Wei-Min%Li%NULL%0,               Wei-Min%Li%NULL%0,               Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,               Shuyun%Xu%NULL%0,               Muqing%Yu%NULL%0,               Ke%Wang%NULL%0,               Yu%Tao%NULL%0,               Ying%Zhou%NULL%0,               Jing%Shi%NULL%0,               Min%Zhou%NULL%0,               Bo%Wu%NULL%0,               Zhenyu%Yang%NULL%0,               Cong%Zhang%NULL%0,               Junqing%Yue%NULL%0,               Zhiguo%Zhang%NULL%0,               Harald%Renz%NULL%0,               Xiansheng%Liu%NULL%0,               Jungang%Xie%NULL%0,               Min%Xie%NULL%0,               Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%1,               Kipp W.%Johnson%NULL%1,               James L.%Januzzi%NULL%1,               Adam J.%Russak%NULL%1,               Ishan%Paranjpe%NULL%0,               Felix%Richter%NULL%0,               Shan%Zhao%NULL%0,               Sulaiman%Somani%NULL%0,               Tielman%Van Vleck%NULL%1,               Akhil%Vaid%NULL%0,               Fayzan%Chaudhry%NULL%1,               Jessica K.%De Freitas%NULL%1,               Zahi A.%Fayad%NULL%1,               Sean P.%Pinney%NULL%1,               Matthew%Levin%NULL%1,               Alexander%Charney%NULL%1,               Emilia%Bagiella%NULL%0,               Jagat%Narula%NULL%0,               Benjamin S.%Glicksberg%NULL%1,               Girish%Nadkarni%NULL%1,               Donna M.%Mancini%NULL%1,               Valentin%Fuster%NULL%0,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,               Yeming%Wang%NULL%0,               Xingwang%Li%NULL%0,               Lili%Ren%NULL%0,               Jianping%Zhao%NULL%0,               Yi%Hu%NULL%0,               Li%Zhang%NULL%0,               Guohui%Fan%NULL%0,               Jiuyang%Xu%NULL%0,               Xiaoying%Gu%NULL%0,               Zhenshun%Cheng%NULL%0,               Ting%Yu%NULL%0,               Jiaan%Xia%NULL%0,               Yuan%Wei%NULL%0,               Wenjuan%Wu%NULL%0,               Xuelei%Xie%NULL%0,               Wen%Yin%NULL%0,               Hui%Li%NULL%0,               Min%Liu%NULL%0,               Yan%Xiao%NULL%0,               Hong%Gao%NULL%0,               Li%Guo%NULL%0,               Jungang%Xie%NULL%0,               Guangfa%Wang%NULL%0,               Rongmeng%Jiang%NULL%0,               Zhancheng%Gao%NULL%0,               Qi%Jin%NULL%0,               Jianwei%Wang%wangjw28@163.com%0,               Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,               Linlin%Xie%NULL%1,               Rui%Liu%NULL%1,               Jie%Yang%NULL%0,               Fang%Liu%NULL%2,               Kailang%Wu%NULL%2,               Lang%Chen%NULL%1,               Wei%Hou%NULL%0,               Yong%Feng%yongfeng@whu.edu.cn%0,               Chengliang%Zhu%xinchengzhu@163.com%2,               Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0,               Bo%Hu%NULL%1,               Yao%Zhang%NULL%0,               Hao%Wang%NULL%0,               Xiaoyang%Zhou%NULL%1,               Wei%Hu%NULL%1,               Yuting%Cheng%NULL%1,               Jie%Yan%NULL%0,               Haiqin%Ping%NULL%1,               Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%1,               Xien%Gui%NULL%1,               Yongxi%Zhang%NULL%0,               Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,               Yuan%Yu%NULL%0,               Jiqian%Xu%NULL%0,               Huaqing%Shu%NULL%0,               Jia'an%Xia%NULL%0,               Hong%Liu%NULL%0,               Yongran%Wu%NULL%0,               Lu%Zhang%NULL%0,               Zhui%Yu%NULL%0,               Minghao%Fang%NULL%0,               Ting%Yu%NULL%0,               Yaxin%Wang%NULL%0,               Shangwen%Pan%NULL%0,               Xiaojing%Zou%NULL%0,               Shiying%Yuan%NULL%0,               You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,              Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%1,              Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%1,              Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%1,              Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0,               Miao%Yu%NULL%0,               Tian%Xie%NULL%0,               Fen%Yang%NULL%0,               Hong-Bo%Wang%NULL%0,               Zhao-Hui%Wang%NULL%0,               Ming%Li%NULL%0,               Xing-Li%Gao%NULL%0,               Bing-Jie%Lv%NULL%0,               Shi-Jia%Wang%NULL%0,               Xiao-Bo%Zhang%NULL%0,               Shao-Lin%He%NULL%0,               Zhi-Hua%Qiu%NULL%0,               Yu-Hua%Liao%NULL%0,               Zi-Hua%Zhou%NULL%0,               Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,               Yongzhen%Fan%NULL%0,               Ming%Chen%NULL%0,               Xiaoyan%Wu%NULL%0,               Lin%Zhang%NULL%0,               Tao%He%NULL%0,               Hairong%Wang%NULL%0,               Jing%Wan%NULL%0,               Xinghuan%Wang%NULL%0,               Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,               Wei%Liu%NULL%0,               Kui%Liu%NULL%0,               Yuan-Yuan%Fang%NULL%0,               Jin%Shang%NULL%1,               Ling%Zhou%NULL%0,               Ke%Wang%NULL%0,               Fan%Leng%NULL%1,               Shuang%Wei%NULL%0,               Lei%Chen%NULL%1,               Hui-Guo%Liu%NULL%0,               Pei-Fang%Wei%NULL%0,               Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,               Di%Wu%NULL%0,               Huilong%Chen%NULL%0,               Weiming%Yan%NULL%0,               Danlei%Yang%NULL%0,               Guang%Chen%NULL%0,               Ke%Ma%NULL%0,               Dong%Xu%NULL%0,               Haijing%Yu%NULL%0,               Hongwu%Wang%NULL%0,               Tao%Wang%NULL%0,               Wei%Guo%NULL%0,               Jia%Chen%NULL%0,               Chen%Ding%NULL%0,               Xiaoping%Zhang%NULL%0,               Jiaquan%Huang%NULL%0,               Meifang%Han%NULL%0,               Shusheng%Li%NULL%0,               Xiaoping%Luo%NULL%0,               Jianping%Zhao%NULL%0,               Qin%Ning%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1788,7 +1848,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -1817,7 +1877,7 @@
         <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1846,7 +1906,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1875,7 +1935,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1904,7 +1964,7 @@
         <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1933,7 +1993,7 @@
         <v>323</v>
       </c>
       <c r="E7" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1962,7 +2022,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1991,7 +2051,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -2020,7 +2080,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -2049,7 +2109,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -2078,7 +2138,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -2107,7 +2167,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -2136,7 +2196,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -2165,7 +2225,7 @@
         <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -2194,7 +2254,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -2223,7 +2283,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -2252,7 +2312,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
@@ -2281,7 +2341,7 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="F19" t="s">
         <v>100</v>
@@ -2310,7 +2370,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -2339,7 +2399,7 @@
         <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="F21" t="s">
         <v>109</v>

--- a/Covid_19_Dataset_and_References/References/90.xlsx
+++ b/Covid_19_Dataset_and_References/References/90.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="439">
   <si>
     <t>Doi</t>
   </si>
@@ -1514,6 +1514,126 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,               Di%Wu%NULL%0,               Huilong%Chen%NULL%0,               Weiming%Yan%NULL%0,               Danlei%Yang%NULL%0,               Guang%Chen%NULL%0,               Ke%Ma%NULL%0,               Dong%Xu%NULL%0,               Haijing%Yu%NULL%0,               Hongwu%Wang%NULL%0,               Tao%Wang%NULL%0,               Wei%Guo%NULL%0,               Jia%Chen%NULL%0,               Chen%Ding%NULL%0,               Xiaoping%Zhang%NULL%0,               Jiaquan%Huang%NULL%0,               Meifang%Han%NULL%0,               Shusheng%Li%NULL%0,               Xiaoping%Luo%NULL%0,               Jianping%Zhao%NULL%0,               Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                Ting%Yu%NULL%0,                Ronghui%Du%NULL%0,                Guohui%Fan%NULL%0,                Ying%Liu%NULL%0,                Zhibo%Liu%NULL%0,                Jie%Xiang%NULL%0,                Yeming%Wang%NULL%0,                Bin%Song%NULL%0,                Xiaoying%Gu%NULL%0,                Lulu%Guan%NULL%0,                Yuan%Wei%NULL%0,                Hui%Li%NULL%0,                Xudong%Wu%NULL%0,                Jiuyang%Xu%NULL%0,                Shengjin%Tu%NULL%0,                Yi%Zhang%NULL%0,                Hua%Chen%NULL%0,                Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,               Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,               Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,               Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0,                Kwan Ho%Lee%NULL%2,                Kwan Ho%Lee%NULL%0,                Jin Hong%Chung%NULL%2,                Jin Hong%Chung%NULL%0,                Kyeong-Cheol%Shin%NULL%2,                Kyeong-Cheol%Shin%NULL%0,                Eun Young%Choi%NULL%2,                Eun Young%Choi%NULL%0,                Hyun Jung%Jin%NULL%2,                Hyun Jung%Jin%NULL%0,                Jong Geol%Jang%NULL%2,                Jong Geol%Jang%NULL%0,                Wonhwa%Lee%NULL%2,                Wonhwa%Lee%NULL%0,                June Hong%Ahn%NULL%0,                June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,         Eric%Yim%xref no email%0,         Lindy%Klaff%xref no email%0,         Sharukh%Lokhandwala%xref no email%0,         Francis X.%Riedo%xref no email%0,         Maria%Chong%xref no email%0,         Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,               Aggarwal%Saurabh%coreGivesNoEmail%0,               Garcia-Telles%Nelson%coreGivesNoEmail%0,               Henry%Brandon Michael%coreGivesNoEmail%0,               Lavie%Carl%coreGivesNoEmail%0,               Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                Dan%Xu%NULL%0,                Shouzhi%Fu%NULL%0,                Jun%Zhang%NULL%0,                Xiaobo%Yang%NULL%0,                Liang%Xu%NULL%0,                Jiqian%Xu%NULL%0,                Yongran%Wu%NULL%0,                Chaolin%Huang%NULL%0,                Yaqi%Ouyang%NULL%0,                Luyu%Yang%NULL%0,                Minghao%Fang%NULL%0,                Hongwen%Xiao%NULL%0,                Jing%Ma%NULL%0,                Wei%Zhu%NULL%0,                Song%Hu%NULL%0,                Quan%Hu%NULL%0,                Daoyin%Ding%NULL%0,                Ming%Hu%NULL%0,                Guochao%Zhu%NULL%0,                Weijiang%Xu%NULL%0,                Jun%Guo%NULL%0,                Jinglong%Xu%NULL%0,                Haitao%Yuan%NULL%0,                Bin%Zhang%NULL%0,                Zhui%Yu%yuzhui@whu.edu.cn%0,                Dechang%Chen%icudechangchen@163.com%0,                Shiying%Yuan%yuan_shiying@163.com%0,                You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0,                Shaobo%Shi%NULL%2,                Shaobo%Shi%NULL%0,                Jiling%Zhu%NULL%1,                Jinzhi%Shi%NULL%1,                Kai%Dai%NULL%1,                Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0,                Fang-Yang%Huang%NULL%0,                Tian-Yuan%Xiong%NULL%0,                Tian-Yuan%Xiong%NULL%0,                Qi%Liu%NULL%0,                Hong%Chen%NULL%0,                Hui%Wang%NULL%0,                He%Huang%NULL%0,                Yi-Chun%Luo%NULL%0,                Xuan%Zhou%NULL%0,                Zhi-Yue%Liu%NULL%0,                Yong%Peng%NULL%0,                Yuan-Ning%Xu%NULL%0,                Bo%Wang%NULL%0,                Ying-Ying%Yang%NULL%0,                Zong-An%Liang%NULL%0,                Xue-Zhong%Lei%NULL%0,                Yang%Ge%NULL%0,                Ming%Yang%NULL%0,                Ling%Zhang%NULL%0,                Ming-Quan%Zeng%NULL%0,                He%Yu%NULL%0,                Kai%Liu%NULL%0,                Yu-Heng%Jia%NULL%0,                Bernard D%Prendergast%NULL%0,                Wei-Min%Li%NULL%0,                Wei-Min%Li%NULL%0,                Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                Shuyun%Xu%NULL%0,                Muqing%Yu%NULL%0,                Ke%Wang%NULL%0,                Yu%Tao%NULL%0,                Ying%Zhou%NULL%0,                Jing%Shi%NULL%0,                Min%Zhou%NULL%0,                Bo%Wu%NULL%0,                Zhenyu%Yang%NULL%0,                Cong%Zhang%NULL%0,                Junqing%Yue%NULL%0,                Zhiguo%Zhang%NULL%0,                Harald%Renz%NULL%0,                Xiansheng%Liu%NULL%0,                Jungang%Xie%NULL%0,                Min%Xie%NULL%0,                Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%1,                Kipp W.%Johnson%NULL%1,                James L.%Januzzi%NULL%1,                Adam J.%Russak%NULL%1,                Ishan%Paranjpe%NULL%0,                Felix%Richter%NULL%0,                Shan%Zhao%NULL%0,                Sulaiman%Somani%NULL%0,                Tielman%Van Vleck%NULL%1,                Akhil%Vaid%NULL%0,                Fayzan%Chaudhry%NULL%1,                Jessica K.%De Freitas%NULL%1,                Zahi A.%Fayad%NULL%1,                Sean P.%Pinney%NULL%1,                Matthew%Levin%NULL%1,                Alexander%Charney%NULL%1,                Emilia%Bagiella%NULL%0,                Jagat%Narula%NULL%0,                Benjamin S.%Glicksberg%NULL%1,                Girish%Nadkarni%NULL%1,                Donna M.%Mancini%NULL%1,                Valentin%Fuster%NULL%0,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                Yeming%Wang%NULL%0,                Xingwang%Li%NULL%0,                Lili%Ren%NULL%0,                Jianping%Zhao%NULL%0,                Yi%Hu%NULL%0,                Li%Zhang%NULL%0,                Guohui%Fan%NULL%0,                Jiuyang%Xu%NULL%0,                Xiaoying%Gu%NULL%0,                Zhenshun%Cheng%NULL%0,                Ting%Yu%NULL%0,                Jiaan%Xia%NULL%0,                Yuan%Wei%NULL%0,                Wenjuan%Wu%NULL%0,                Xuelei%Xie%NULL%0,                Wen%Yin%NULL%0,                Hui%Li%NULL%0,                Min%Liu%NULL%0,                Yan%Xiao%NULL%0,                Hong%Gao%NULL%0,                Li%Guo%NULL%0,                Jungang%Xie%NULL%0,                Guangfa%Wang%NULL%0,                Rongmeng%Jiang%NULL%0,                Zhancheng%Gao%NULL%0,                Qi%Jin%NULL%0,                Jianwei%Wang%wangjw28@163.com%0,                Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                Linlin%Xie%NULL%1,                Rui%Liu%NULL%1,                Jie%Yang%NULL%0,                Fang%Liu%NULL%2,                Kailang%Wu%NULL%2,                Lang%Chen%NULL%1,                Wei%Hou%NULL%0,                Yong%Feng%yongfeng@whu.edu.cn%0,                Chengliang%Zhu%xinchengzhu@163.com%2,                Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0,                Bo%Hu%NULL%1,                Yao%Zhang%NULL%0,                Hao%Wang%NULL%0,                Xiaoyang%Zhou%NULL%1,                Wei%Hu%NULL%1,                Yuting%Cheng%NULL%1,                Jie%Yan%NULL%0,                Haiqin%Ping%NULL%1,                Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%1,                Xien%Gui%NULL%1,                Yongxi%Zhang%NULL%0,                Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                Yuan%Yu%NULL%0,                Jiqian%Xu%NULL%0,                Huaqing%Shu%NULL%0,                Jia'an%Xia%NULL%0,                Hong%Liu%NULL%0,                Yongran%Wu%NULL%0,                Lu%Zhang%NULL%0,                Zhui%Yu%NULL%0,                Minghao%Fang%NULL%0,                Ting%Yu%NULL%0,                Yaxin%Wang%NULL%0,                Shangwen%Pan%NULL%0,                Xiaojing%Zou%NULL%0,                Shiying%Yuan%NULL%0,                You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,               Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%1,               Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%1,               Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%1,               Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0,                Miao%Yu%NULL%0,                Tian%Xie%NULL%0,                Fen%Yang%NULL%0,                Hong-Bo%Wang%NULL%0,                Zhao-Hui%Wang%NULL%0,                Ming%Li%NULL%0,                Xing-Li%Gao%NULL%0,                Bing-Jie%Lv%NULL%0,                Shi-Jia%Wang%NULL%0,                Xiao-Bo%Zhang%NULL%0,                Shao-Lin%He%NULL%0,                Zhi-Hua%Qiu%NULL%0,                Yu-Hua%Liao%NULL%0,                Zi-Hua%Zhou%NULL%0,                Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                Yongzhen%Fan%NULL%0,                Ming%Chen%NULL%0,                Xiaoyan%Wu%NULL%0,                Lin%Zhang%NULL%0,                Tao%He%NULL%0,                Hairong%Wang%NULL%0,                Jing%Wan%NULL%0,                Xinghuan%Wang%NULL%0,                Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                Wei%Liu%NULL%0,                Kui%Liu%NULL%0,                Yuan-Yuan%Fang%NULL%0,                Jin%Shang%NULL%1,                Ling%Zhou%NULL%0,                Ke%Wang%NULL%0,                Fan%Leng%NULL%1,                Shuang%Wei%NULL%0,                Lei%Chen%NULL%1,                Hui-Guo%Liu%NULL%0,                Pei-Fang%Wei%NULL%0,                Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                Di%Wu%NULL%0,                Huilong%Chen%NULL%0,                Weiming%Yan%NULL%0,                Danlei%Yang%NULL%0,                Guang%Chen%NULL%0,                Ke%Ma%NULL%0,                Dong%Xu%NULL%0,                Haijing%Yu%NULL%0,                Hongwu%Wang%NULL%0,                Tao%Wang%NULL%0,                Wei%Guo%NULL%0,                Jia%Chen%NULL%0,                Chen%Ding%NULL%0,                Xiaoping%Zhang%NULL%0,                Jiaquan%Huang%NULL%0,                Meifang%Han%NULL%0,                Shusheng%Li%NULL%0,                Xiaoping%Luo%NULL%0,                Jianping%Zhao%NULL%0,                Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                 Ting%Yu%NULL%0,                 Ronghui%Du%NULL%0,                 Guohui%Fan%NULL%0,                 Ying%Liu%NULL%0,                 Zhibo%Liu%NULL%0,                 Jie%Xiang%NULL%0,                 Yeming%Wang%NULL%0,                 Bin%Song%NULL%0,                 Xiaoying%Gu%NULL%0,                 Lulu%Guan%NULL%0,                 Yuan%Wei%NULL%0,                 Hui%Li%NULL%0,                 Xudong%Wu%NULL%0,                 Jiuyang%Xu%NULL%0,                 Shengjin%Tu%NULL%0,                 Yi%Zhang%NULL%0,                 Hua%Chen%NULL%0,                 Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0,                 Kwan Ho%Lee%NULL%2,                 Kwan Ho%Lee%NULL%0,                 Jin Hong%Chung%NULL%2,                 Jin Hong%Chung%NULL%0,                 Kyeong-Cheol%Shin%NULL%2,                 Kyeong-Cheol%Shin%NULL%0,                 Eun Young%Choi%NULL%2,                 Eun Young%Choi%NULL%0,                 Hyun Jung%Jin%NULL%2,                 Hyun Jung%Jin%NULL%0,                 Jong Geol%Jang%NULL%2,                 Jong Geol%Jang%NULL%0,                 Wonhwa%Lee%NULL%2,                 Wonhwa%Lee%NULL%0,                 June Hong%Ahn%NULL%0,                 June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,          Eric%Yim%xref no email%0,          Lindy%Klaff%xref no email%0,          Sharukh%Lokhandwala%xref no email%0,          Francis X.%Riedo%xref no email%0,          Maria%Chong%xref no email%0,          Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,                Aggarwal%Saurabh%coreGivesNoEmail%0,                Garcia-Telles%Nelson%coreGivesNoEmail%0,                Henry%Brandon Michael%coreGivesNoEmail%0,                Lavie%Carl%coreGivesNoEmail%0,                Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                 Dan%Xu%NULL%0,                 Shouzhi%Fu%NULL%0,                 Jun%Zhang%NULL%0,                 Xiaobo%Yang%NULL%0,                 Liang%Xu%NULL%0,                 Jiqian%Xu%NULL%0,                 Yongran%Wu%NULL%0,                 Chaolin%Huang%NULL%0,                 Yaqi%Ouyang%NULL%0,                 Luyu%Yang%NULL%0,                 Minghao%Fang%NULL%0,                 Hongwen%Xiao%NULL%0,                 Jing%Ma%NULL%0,                 Wei%Zhu%NULL%0,                 Song%Hu%NULL%0,                 Quan%Hu%NULL%0,                 Daoyin%Ding%NULL%0,                 Ming%Hu%NULL%0,                 Guochao%Zhu%NULL%0,                 Weijiang%Xu%NULL%0,                 Jun%Guo%NULL%0,                 Jinglong%Xu%NULL%0,                 Haitao%Yuan%NULL%0,                 Bin%Zhang%NULL%0,                 Zhui%Yu%yuzhui@whu.edu.cn%0,                 Dechang%Chen%icudechangchen@163.com%0,                 Shiying%Yuan%yuan_shiying@163.com%0,                 You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0,                 Shaobo%Shi%NULL%2,                 Shaobo%Shi%NULL%0,                 Jiling%Zhu%NULL%1,                 Jinzhi%Shi%NULL%1,                 Kai%Dai%NULL%1,                 Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0,                 Fang-Yang%Huang%NULL%0,                 Tian-Yuan%Xiong%NULL%0,                 Tian-Yuan%Xiong%NULL%0,                 Qi%Liu%NULL%0,                 Hong%Chen%NULL%0,                 Hui%Wang%NULL%0,                 He%Huang%NULL%0,                 Yi-Chun%Luo%NULL%0,                 Xuan%Zhou%NULL%0,                 Zhi-Yue%Liu%NULL%0,                 Yong%Peng%NULL%0,                 Yuan-Ning%Xu%NULL%0,                 Bo%Wang%NULL%0,                 Ying-Ying%Yang%NULL%0,                 Zong-An%Liang%NULL%0,                 Xue-Zhong%Lei%NULL%0,                 Yang%Ge%NULL%0,                 Ming%Yang%NULL%0,                 Ling%Zhang%NULL%0,                 Ming-Quan%Zeng%NULL%0,                 He%Yu%NULL%0,                 Kai%Liu%NULL%0,                 Yu-Heng%Jia%NULL%0,                 Bernard D%Prendergast%NULL%0,                 Wei-Min%Li%NULL%0,                 Wei-Min%Li%NULL%0,                 Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                 Shuyun%Xu%NULL%0,                 Muqing%Yu%NULL%0,                 Ke%Wang%NULL%0,                 Yu%Tao%NULL%0,                 Ying%Zhou%NULL%0,                 Jing%Shi%NULL%0,                 Min%Zhou%NULL%0,                 Bo%Wu%NULL%0,                 Zhenyu%Yang%NULL%0,                 Cong%Zhang%NULL%0,                 Junqing%Yue%NULL%0,                 Zhiguo%Zhang%NULL%0,                 Harald%Renz%NULL%0,                 Xiansheng%Liu%NULL%0,                 Jungang%Xie%NULL%0,                 Min%Xie%NULL%0,                 Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%1,                 Kipp W.%Johnson%NULL%1,                 James L.%Januzzi%NULL%1,                 Adam J.%Russak%NULL%1,                 Ishan%Paranjpe%NULL%0,                 Felix%Richter%NULL%0,                 Shan%Zhao%NULL%0,                 Sulaiman%Somani%NULL%0,                 Tielman%Van Vleck%NULL%1,                 Akhil%Vaid%NULL%0,                 Fayzan%Chaudhry%NULL%1,                 Jessica K.%De Freitas%NULL%1,                 Zahi A.%Fayad%NULL%1,                 Sean P.%Pinney%NULL%1,                 Matthew%Levin%NULL%1,                 Alexander%Charney%NULL%1,                 Emilia%Bagiella%NULL%0,                 Jagat%Narula%NULL%0,                 Benjamin S.%Glicksberg%NULL%1,                 Girish%Nadkarni%NULL%1,                 Donna M.%Mancini%NULL%1,                 Valentin%Fuster%NULL%0,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                 Yeming%Wang%NULL%0,                 Xingwang%Li%NULL%0,                 Lili%Ren%NULL%0,                 Jianping%Zhao%NULL%0,                 Yi%Hu%NULL%0,                 Li%Zhang%NULL%0,                 Guohui%Fan%NULL%0,                 Jiuyang%Xu%NULL%0,                 Xiaoying%Gu%NULL%0,                 Zhenshun%Cheng%NULL%0,                 Ting%Yu%NULL%0,                 Jiaan%Xia%NULL%0,                 Yuan%Wei%NULL%0,                 Wenjuan%Wu%NULL%0,                 Xuelei%Xie%NULL%0,                 Wen%Yin%NULL%0,                 Hui%Li%NULL%0,                 Min%Liu%NULL%0,                 Yan%Xiao%NULL%0,                 Hong%Gao%NULL%0,                 Li%Guo%NULL%0,                 Jungang%Xie%NULL%0,                 Guangfa%Wang%NULL%0,                 Rongmeng%Jiang%NULL%0,                 Zhancheng%Gao%NULL%0,                 Qi%Jin%NULL%0,                 Jianwei%Wang%wangjw28@163.com%0,                 Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                 Linlin%Xie%NULL%1,                 Rui%Liu%NULL%1,                 Jie%Yang%NULL%0,                 Fang%Liu%NULL%2,                 Kailang%Wu%NULL%2,                 Lang%Chen%NULL%1,                 Wei%Hou%NULL%0,                 Yong%Feng%yongfeng@whu.edu.cn%0,                 Chengliang%Zhu%xinchengzhu@163.com%2,                 Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0,                 Bo%Hu%NULL%1,                 Yao%Zhang%NULL%0,                 Hao%Wang%NULL%0,                 Xiaoyang%Zhou%NULL%1,                 Wei%Hu%NULL%1,                 Yuting%Cheng%NULL%1,                 Jie%Yan%NULL%0,                 Haiqin%Ping%NULL%1,                 Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%1,                 Xien%Gui%NULL%1,                 Yongxi%Zhang%NULL%0,                 Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                 Yuan%Yu%NULL%0,                 Jiqian%Xu%NULL%0,                 Huaqing%Shu%NULL%0,                 Jia'an%Xia%NULL%0,                 Hong%Liu%NULL%0,                 Yongran%Wu%NULL%0,                 Lu%Zhang%NULL%0,                 Zhui%Yu%NULL%0,                 Minghao%Fang%NULL%0,                 Ting%Yu%NULL%0,                 Yaxin%Wang%NULL%0,                 Shangwen%Pan%NULL%0,                 Xiaojing%Zou%NULL%0,                 Shiying%Yuan%NULL%0,                 You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%1,                Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%1,                Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%1,                Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0,                 Miao%Yu%NULL%0,                 Tian%Xie%NULL%0,                 Fen%Yang%NULL%0,                 Hong-Bo%Wang%NULL%0,                 Zhao-Hui%Wang%NULL%0,                 Ming%Li%NULL%0,                 Xing-Li%Gao%NULL%0,                 Bing-Jie%Lv%NULL%0,                 Shi-Jia%Wang%NULL%0,                 Xiao-Bo%Zhang%NULL%0,                 Shao-Lin%He%NULL%0,                 Zhi-Hua%Qiu%NULL%0,                 Yu-Hua%Liao%NULL%0,                 Zi-Hua%Zhou%NULL%0,                 Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                 Yongzhen%Fan%NULL%0,                 Ming%Chen%NULL%0,                 Xiaoyan%Wu%NULL%0,                 Lin%Zhang%NULL%0,                 Tao%He%NULL%0,                 Hairong%Wang%NULL%0,                 Jing%Wan%NULL%0,                 Xinghuan%Wang%NULL%0,                 Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                 Wei%Liu%NULL%0,                 Kui%Liu%NULL%0,                 Yuan-Yuan%Fang%NULL%0,                 Jin%Shang%NULL%1,                 Ling%Zhou%NULL%0,                 Ke%Wang%NULL%0,                 Fan%Leng%NULL%1,                 Shuang%Wei%NULL%0,                 Lei%Chen%NULL%1,                 Hui-Guo%Liu%NULL%0,                 Pei-Fang%Wei%NULL%0,                 Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                 Di%Wu%NULL%0,                 Huilong%Chen%NULL%0,                 Weiming%Yan%NULL%0,                 Danlei%Yang%NULL%0,                 Guang%Chen%NULL%0,                 Ke%Ma%NULL%0,                 Dong%Xu%NULL%0,                 Haijing%Yu%NULL%0,                 Hongwu%Wang%NULL%0,                 Tao%Wang%NULL%0,                 Wei%Guo%NULL%0,                 Jia%Chen%NULL%0,                 Chen%Ding%NULL%0,                 Xiaoping%Zhang%NULL%0,                 Jiaquan%Huang%NULL%0,                 Meifang%Han%NULL%0,                 Shusheng%Li%NULL%0,                 Xiaoping%Luo%NULL%0,                 Jianping%Zhao%NULL%0,                 Qin%Ning%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1848,7 +1968,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -1877,7 +1997,7 @@
         <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1906,7 +2026,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1935,7 +2055,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1964,7 +2084,7 @@
         <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1993,7 +2113,7 @@
         <v>323</v>
       </c>
       <c r="E7" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -2022,7 +2142,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -2051,7 +2171,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -2080,7 +2200,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -2109,7 +2229,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -2138,7 +2258,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -2167,7 +2287,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -2196,7 +2316,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -2225,7 +2345,7 @@
         <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -2254,7 +2374,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -2283,7 +2403,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -2312,7 +2432,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
@@ -2341,7 +2461,7 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="F19" t="s">
         <v>100</v>
@@ -2370,7 +2490,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -2399,7 +2519,7 @@
         <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="F21" t="s">
         <v>109</v>

--- a/Covid_19_Dataset_and_References/References/90.xlsx
+++ b/Covid_19_Dataset_and_References/References/90.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2774" uniqueCount="459">
   <si>
     <t>Doi</t>
   </si>
@@ -1634,6 +1634,66 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,                 Di%Wu%NULL%0,                 Huilong%Chen%NULL%0,                 Weiming%Yan%NULL%0,                 Danlei%Yang%NULL%0,                 Guang%Chen%NULL%0,                 Ke%Ma%NULL%0,                 Dong%Xu%NULL%0,                 Haijing%Yu%NULL%0,                 Hongwu%Wang%NULL%0,                 Tao%Wang%NULL%0,                 Wei%Guo%NULL%0,                 Jia%Chen%NULL%0,                 Chen%Ding%NULL%0,                 Xiaoping%Zhang%NULL%0,                 Jiaquan%Huang%NULL%0,                 Meifang%Han%NULL%0,                 Shusheng%Li%NULL%0,                 Xiaoping%Luo%NULL%0,                 Jianping%Zhao%NULL%0,                 Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                  Ting%Yu%NULL%0,                  Ronghui%Du%NULL%0,                  Guohui%Fan%NULL%0,                  Ying%Liu%NULL%0,                  Zhibo%Liu%NULL%0,                  Jie%Xiang%NULL%0,                  Yeming%Wang%NULL%0,                  Bin%Song%NULL%0,                  Xiaoying%Gu%NULL%0,                  Lulu%Guan%NULL%0,                  Yuan%Wei%NULL%0,                  Hui%Li%NULL%0,                  Xudong%Wu%NULL%0,                  Jiuyang%Xu%NULL%0,                  Shengjin%Tu%NULL%0,                  Yi%Zhang%NULL%0,                  Hua%Chen%NULL%0,                  Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                 Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                 Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                 Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0,                  Kwan Ho%Lee%NULL%2,                  Kwan Ho%Lee%NULL%0,                  Jin Hong%Chung%NULL%2,                  Jin Hong%Chung%NULL%0,                  Kyeong-Cheol%Shin%NULL%2,                  Kyeong-Cheol%Shin%NULL%0,                  Eun Young%Choi%NULL%2,                  Eun Young%Choi%NULL%0,                  Hyun Jung%Jin%NULL%2,                  Hyun Jung%Jin%NULL%0,                  Jong Geol%Jang%NULL%2,                  Jong Geol%Jang%NULL%0,                  Wonhwa%Lee%NULL%2,                  Wonhwa%Lee%NULL%0,                  June Hong%Ahn%NULL%0,                  June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,           Eric%Yim%xref no email%0,           Lindy%Klaff%xref no email%0,           Sharukh%Lokhandwala%xref no email%0,           Francis X.%Riedo%xref no email%0,           Maria%Chong%xref no email%0,           Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,                 Aggarwal%Saurabh%coreGivesNoEmail%0,                 Garcia-Telles%Nelson%coreGivesNoEmail%0,                 Henry%Brandon Michael%coreGivesNoEmail%0,                 Lavie%Carl%coreGivesNoEmail%0,                 Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                  Dan%Xu%NULL%0,                  Shouzhi%Fu%NULL%0,                  Jun%Zhang%NULL%0,                  Xiaobo%Yang%NULL%0,                  Liang%Xu%NULL%0,                  Jiqian%Xu%NULL%0,                  Yongran%Wu%NULL%0,                  Chaolin%Huang%NULL%0,                  Yaqi%Ouyang%NULL%0,                  Luyu%Yang%NULL%0,                  Minghao%Fang%NULL%0,                  Hongwen%Xiao%NULL%0,                  Jing%Ma%NULL%0,                  Wei%Zhu%NULL%0,                  Song%Hu%NULL%0,                  Quan%Hu%NULL%0,                  Daoyin%Ding%NULL%0,                  Ming%Hu%NULL%0,                  Guochao%Zhu%NULL%0,                  Weijiang%Xu%NULL%0,                  Jun%Guo%NULL%0,                  Jinglong%Xu%NULL%0,                  Haitao%Yuan%NULL%0,                  Bin%Zhang%NULL%0,                  Zhui%Yu%yuzhui@whu.edu.cn%0,                  Dechang%Chen%icudechangchen@163.com%0,                  Shiying%Yuan%yuan_shiying@163.com%0,                  You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0,                  Shaobo%Shi%NULL%2,                  Shaobo%Shi%NULL%0,                  Jiling%Zhu%NULL%1,                  Jinzhi%Shi%NULL%1,                  Kai%Dai%NULL%1,                  Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0,                  Fang-Yang%Huang%NULL%0,                  Tian-Yuan%Xiong%NULL%0,                  Tian-Yuan%Xiong%NULL%0,                  Qi%Liu%NULL%0,                  Hong%Chen%NULL%0,                  Hui%Wang%NULL%0,                  He%Huang%NULL%0,                  Yi-Chun%Luo%NULL%0,                  Xuan%Zhou%NULL%0,                  Zhi-Yue%Liu%NULL%0,                  Yong%Peng%NULL%0,                  Yuan-Ning%Xu%NULL%0,                  Bo%Wang%NULL%0,                  Ying-Ying%Yang%NULL%0,                  Zong-An%Liang%NULL%0,                  Xue-Zhong%Lei%NULL%0,                  Yang%Ge%NULL%0,                  Ming%Yang%NULL%0,                  Ling%Zhang%NULL%0,                  Ming-Quan%Zeng%NULL%0,                  He%Yu%NULL%0,                  Kai%Liu%NULL%0,                  Yu-Heng%Jia%NULL%0,                  Bernard D%Prendergast%NULL%0,                  Wei-Min%Li%NULL%0,                  Wei-Min%Li%NULL%0,                  Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                  Shuyun%Xu%NULL%0,                  Muqing%Yu%NULL%0,                  Ke%Wang%NULL%0,                  Yu%Tao%NULL%0,                  Ying%Zhou%NULL%0,                  Jing%Shi%NULL%0,                  Min%Zhou%NULL%0,                  Bo%Wu%NULL%0,                  Zhenyu%Yang%NULL%0,                  Cong%Zhang%NULL%0,                  Junqing%Yue%NULL%0,                  Zhiguo%Zhang%NULL%0,                  Harald%Renz%NULL%0,                  Xiansheng%Liu%NULL%0,                  Jungang%Xie%NULL%0,                  Min%Xie%NULL%0,                  Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%1,                  Kipp W.%Johnson%NULL%1,                  James L.%Januzzi%NULL%1,                  Adam J.%Russak%NULL%1,                  Ishan%Paranjpe%NULL%0,                  Felix%Richter%NULL%0,                  Shan%Zhao%NULL%0,                  Sulaiman%Somani%NULL%0,                  Tielman%Van Vleck%NULL%1,                  Akhil%Vaid%NULL%0,                  Fayzan%Chaudhry%NULL%1,                  Jessica K.%De Freitas%NULL%1,                  Zahi A.%Fayad%NULL%1,                  Sean P.%Pinney%NULL%1,                  Matthew%Levin%NULL%1,                  Alexander%Charney%NULL%1,                  Emilia%Bagiella%NULL%0,                  Jagat%Narula%NULL%0,                  Benjamin S.%Glicksberg%NULL%1,                  Girish%Nadkarni%NULL%1,                  Donna M.%Mancini%NULL%1,                  Valentin%Fuster%NULL%0,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                  Yeming%Wang%NULL%0,                  Xingwang%Li%NULL%0,                  Lili%Ren%NULL%0,                  Jianping%Zhao%NULL%0,                  Yi%Hu%NULL%0,                  Li%Zhang%NULL%0,                  Guohui%Fan%NULL%0,                  Jiuyang%Xu%NULL%0,                  Xiaoying%Gu%NULL%0,                  Zhenshun%Cheng%NULL%0,                  Ting%Yu%NULL%0,                  Jiaan%Xia%NULL%0,                  Yuan%Wei%NULL%0,                  Wenjuan%Wu%NULL%0,                  Xuelei%Xie%NULL%0,                  Wen%Yin%NULL%0,                  Hui%Li%NULL%0,                  Min%Liu%NULL%0,                  Yan%Xiao%NULL%0,                  Hong%Gao%NULL%0,                  Li%Guo%NULL%0,                  Jungang%Xie%NULL%0,                  Guangfa%Wang%NULL%0,                  Rongmeng%Jiang%NULL%0,                  Zhancheng%Gao%NULL%0,                  Qi%Jin%NULL%0,                  Jianwei%Wang%wangjw28@163.com%0,                  Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                  Linlin%Xie%NULL%1,                  Rui%Liu%NULL%1,                  Jie%Yang%NULL%0,                  Fang%Liu%NULL%2,                  Kailang%Wu%NULL%2,                  Lang%Chen%NULL%1,                  Wei%Hou%NULL%0,                  Yong%Feng%yongfeng@whu.edu.cn%0,                  Chengliang%Zhu%xinchengzhu@163.com%2,                  Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0,                  Bo%Hu%NULL%1,                  Yao%Zhang%NULL%0,                  Hao%Wang%NULL%0,                  Xiaoyang%Zhou%NULL%1,                  Wei%Hu%NULL%1,                  Yuting%Cheng%NULL%1,                  Jie%Yan%NULL%0,                  Haiqin%Ping%NULL%1,                  Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%1,                  Xien%Gui%NULL%1,                  Yongxi%Zhang%NULL%0,                  Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                  Yuan%Yu%NULL%0,                  Jiqian%Xu%NULL%0,                  Huaqing%Shu%NULL%0,                  Jia'an%Xia%NULL%0,                  Hong%Liu%NULL%0,                  Yongran%Wu%NULL%0,                  Lu%Zhang%NULL%0,                  Zhui%Yu%NULL%0,                  Minghao%Fang%NULL%0,                  Ting%Yu%NULL%0,                  Yaxin%Wang%NULL%0,                  Shangwen%Pan%NULL%0,                  Xiaojing%Zou%NULL%0,                  Shiying%Yuan%NULL%0,                  You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                 Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%1,                 Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%1,                 Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%1,                 Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0,                  Miao%Yu%NULL%0,                  Tian%Xie%NULL%0,                  Fen%Yang%NULL%0,                  Hong-Bo%Wang%NULL%0,                  Zhao-Hui%Wang%NULL%0,                  Ming%Li%NULL%0,                  Xing-Li%Gao%NULL%0,                  Bing-Jie%Lv%NULL%0,                  Shi-Jia%Wang%NULL%0,                  Xiao-Bo%Zhang%NULL%0,                  Shao-Lin%He%NULL%0,                  Zhi-Hua%Qiu%NULL%0,                  Yu-Hua%Liao%NULL%0,                  Zi-Hua%Zhou%NULL%0,                  Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                  Yongzhen%Fan%NULL%0,                  Ming%Chen%NULL%0,                  Xiaoyan%Wu%NULL%0,                  Lin%Zhang%NULL%0,                  Tao%He%NULL%0,                  Hairong%Wang%NULL%0,                  Jing%Wan%NULL%0,                  Xinghuan%Wang%NULL%0,                  Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                  Wei%Liu%NULL%0,                  Kui%Liu%NULL%0,                  Yuan-Yuan%Fang%NULL%0,                  Jin%Shang%NULL%1,                  Ling%Zhou%NULL%0,                  Ke%Wang%NULL%0,                  Fan%Leng%NULL%1,                  Shuang%Wei%NULL%0,                  Lei%Chen%NULL%1,                  Hui-Guo%Liu%NULL%0,                  Pei-Fang%Wei%NULL%0,                  Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                  Di%Wu%NULL%0,                  Huilong%Chen%NULL%0,                  Weiming%Yan%NULL%0,                  Danlei%Yang%NULL%0,                  Guang%Chen%NULL%0,                  Ke%Ma%NULL%0,                  Dong%Xu%NULL%0,                  Haijing%Yu%NULL%0,                  Hongwu%Wang%NULL%0,                  Tao%Wang%NULL%0,                  Wei%Guo%NULL%0,                  Jia%Chen%NULL%0,                  Chen%Ding%NULL%0,                  Xiaoping%Zhang%NULL%0,                  Jiaquan%Huang%NULL%0,                  Meifang%Han%NULL%0,                  Shusheng%Li%NULL%0,                  Xiaoping%Luo%NULL%0,                  Jianping%Zhao%NULL%0,                  Qin%Ning%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1968,7 +2028,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -1997,7 +2057,7 @@
         <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2026,7 +2086,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -2055,7 +2115,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2084,7 +2144,7 @@
         <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2113,7 +2173,7 @@
         <v>323</v>
       </c>
       <c r="E7" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -2142,7 +2202,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -2171,7 +2231,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -2200,7 +2260,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -2229,7 +2289,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -2258,7 +2318,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -2287,7 +2347,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -2316,7 +2376,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -2345,7 +2405,7 @@
         <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -2374,7 +2434,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -2403,7 +2463,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -2432,7 +2492,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
@@ -2461,7 +2521,7 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="F19" t="s">
         <v>100</v>
@@ -2490,7 +2550,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -2519,7 +2579,7 @@
         <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="F21" t="s">
         <v>109</v>

--- a/Covid_19_Dataset_and_References/References/90.xlsx
+++ b/Covid_19_Dataset_and_References/References/90.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2774" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="483">
   <si>
     <t>Doi</t>
   </si>
@@ -1694,6 +1694,78 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,                  Di%Wu%NULL%0,                  Huilong%Chen%NULL%0,                  Weiming%Yan%NULL%0,                  Danlei%Yang%NULL%0,                  Guang%Chen%NULL%0,                  Ke%Ma%NULL%0,                  Dong%Xu%NULL%0,                  Haijing%Yu%NULL%0,                  Hongwu%Wang%NULL%0,                  Tao%Wang%NULL%0,                  Wei%Guo%NULL%0,                  Jia%Chen%NULL%0,                  Chen%Ding%NULL%0,                  Xiaoping%Zhang%NULL%0,                  Jiaquan%Huang%NULL%0,                  Meifang%Han%NULL%0,                  Shusheng%Li%NULL%0,                  Xiaoping%Luo%NULL%0,                  Jianping%Zhao%NULL%0,                  Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                   Ting%Yu%NULL%0,                   Ronghui%Du%NULL%0,                   Guohui%Fan%NULL%0,                   Ying%Liu%NULL%0,                   Zhibo%Liu%NULL%0,                   Jie%Xiang%NULL%0,                   Yeming%Wang%NULL%0,                   Bin%Song%NULL%0,                   Xiaoying%Gu%NULL%0,                   Lulu%Guan%NULL%0,                   Yuan%Wei%NULL%0,                   Hui%Li%NULL%0,                   Xudong%Wu%NULL%0,                   Jiuyang%Xu%NULL%0,                   Shengjin%Tu%NULL%0,                   Yi%Zhang%NULL%0,                   Hua%Chen%NULL%0,                   Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                  Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                  Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                  Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0,                   Kwan Ho%Lee%NULL%2,                   Kwan Ho%Lee%NULL%0,                   Jin Hong%Chung%NULL%2,                   Jin Hong%Chung%NULL%0,                   Kyeong-Cheol%Shin%NULL%2,                   Kyeong-Cheol%Shin%NULL%0,                   Eun Young%Choi%NULL%2,                   Eun Young%Choi%NULL%0,                   Hyun Jung%Jin%NULL%2,                   Hyun Jung%Jin%NULL%0,                   Jong Geol%Jang%NULL%2,                   Jong Geol%Jang%NULL%0,                   Wonhwa%Lee%NULL%2,                   Wonhwa%Lee%NULL%0,                   June Hong%Ahn%NULL%0,                   June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,            Eric%Yim%xref no email%0,            Lindy%Klaff%xref no email%0,            Sharukh%Lokhandwala%xref no email%0,            Francis X.%Riedo%xref no email%0,            Maria%Chong%xref no email%0,            Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,                  Aggarwal%Saurabh%coreGivesNoEmail%0,                  Garcia-Telles%Nelson%coreGivesNoEmail%0,                  Henry%Brandon Michael%coreGivesNoEmail%0,                  Lavie%Carl%coreGivesNoEmail%0,                  Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                   Dan%Xu%NULL%0,                   Shouzhi%Fu%NULL%0,                   Jun%Zhang%NULL%0,                   Xiaobo%Yang%NULL%0,                   Liang%Xu%NULL%0,                   Jiqian%Xu%NULL%0,                   Yongran%Wu%NULL%0,                   Chaolin%Huang%NULL%0,                   Yaqi%Ouyang%NULL%0,                   Luyu%Yang%NULL%0,                   Minghao%Fang%NULL%0,                   Hongwen%Xiao%NULL%0,                   Jing%Ma%NULL%0,                   Wei%Zhu%NULL%0,                   Song%Hu%NULL%0,                   Quan%Hu%NULL%0,                   Daoyin%Ding%NULL%0,                   Ming%Hu%NULL%0,                   Guochao%Zhu%NULL%0,                   Weijiang%Xu%NULL%0,                   Jun%Guo%NULL%0,                   Jinglong%Xu%NULL%0,                   Haitao%Yuan%NULL%0,                   Bin%Zhang%NULL%0,                   Zhui%Yu%yuzhui@whu.edu.cn%0,                   Dechang%Chen%icudechangchen@163.com%0,                   Shiying%Yuan%yuan_shiying@163.com%0,                   You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0,                   Shaobo%Shi%NULL%2,                   Shaobo%Shi%NULL%0,                   Jiling%Zhu%NULL%1,                   Jinzhi%Shi%NULL%1,                   Kai%Dai%NULL%1,                   Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0,                   Fang-Yang%Huang%NULL%0,                   Tian-Yuan%Xiong%NULL%0,                   Tian-Yuan%Xiong%NULL%0,                   Qi%Liu%NULL%0,                   Hong%Chen%NULL%0,                   Hui%Wang%NULL%0,                   He%Huang%NULL%0,                   Yi-Chun%Luo%NULL%0,                   Xuan%Zhou%NULL%0,                   Zhi-Yue%Liu%NULL%0,                   Yong%Peng%NULL%0,                   Yuan-Ning%Xu%NULL%0,                   Bo%Wang%NULL%0,                   Ying-Ying%Yang%NULL%0,                   Zong-An%Liang%NULL%0,                   Xue-Zhong%Lei%NULL%0,                   Yang%Ge%NULL%0,                   Ming%Yang%NULL%0,                   Ling%Zhang%NULL%0,                   Ming-Quan%Zeng%NULL%0,                   He%Yu%NULL%0,                   Kai%Liu%NULL%0,                   Yu-Heng%Jia%NULL%0,                   Bernard D%Prendergast%NULL%0,                   Wei-Min%Li%NULL%0,                   Wei-Min%Li%NULL%0,                   Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                   Shuyun%Xu%NULL%0,                   Muqing%Yu%NULL%0,                   Ke%Wang%NULL%0,                   Yu%Tao%NULL%0,                   Ying%Zhou%NULL%0,                   Jing%Shi%NULL%0,                   Min%Zhou%NULL%0,                   Bo%Wu%NULL%0,                   Zhenyu%Yang%NULL%0,                   Cong%Zhang%NULL%0,                   Junqing%Yue%NULL%0,                   Zhiguo%Zhang%NULL%0,                   Harald%Renz%NULL%0,                   Xiansheng%Liu%NULL%0,                   Jungang%Xie%NULL%0,                   Min%Xie%NULL%0,                   Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%1,                   Kipp W.%Johnson%NULL%1,                   James L.%Januzzi%NULL%1,                   Adam J.%Russak%NULL%1,                   Ishan%Paranjpe%NULL%0,                   Felix%Richter%NULL%0,                   Shan%Zhao%NULL%0,                   Sulaiman%Somani%NULL%0,                   Tielman%Van Vleck%NULL%1,                   Akhil%Vaid%NULL%0,                   Fayzan%Chaudhry%NULL%1,                   Jessica K.%De Freitas%NULL%1,                   Zahi A.%Fayad%NULL%1,                   Sean P.%Pinney%NULL%1,                   Matthew%Levin%NULL%1,                   Alexander%Charney%NULL%1,                   Emilia%Bagiella%NULL%0,                   Jagat%Narula%NULL%0,                   Benjamin S.%Glicksberg%NULL%1,                   Girish%Nadkarni%NULL%1,                   Donna M.%Mancini%NULL%1,                   Valentin%Fuster%NULL%0,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                   Yeming%Wang%NULL%0,                   Xingwang%Li%NULL%0,                   Lili%Ren%NULL%0,                   Jianping%Zhao%NULL%0,                   Yi%Hu%NULL%0,                   Li%Zhang%NULL%0,                   Guohui%Fan%NULL%0,                   Jiuyang%Xu%NULL%0,                   Xiaoying%Gu%NULL%0,                   Zhenshun%Cheng%NULL%0,                   Ting%Yu%NULL%0,                   Jiaan%Xia%NULL%0,                   Yuan%Wei%NULL%0,                   Wenjuan%Wu%NULL%0,                   Xuelei%Xie%NULL%0,                   Wen%Yin%NULL%0,                   Hui%Li%NULL%0,                   Min%Liu%NULL%0,                   Yan%Xiao%NULL%0,                   Hong%Gao%NULL%0,                   Li%Guo%NULL%0,                   Jungang%Xie%NULL%0,                   Guangfa%Wang%NULL%0,                   Rongmeng%Jiang%NULL%0,                   Zhancheng%Gao%NULL%0,                   Qi%Jin%NULL%0,                   Jianwei%Wang%wangjw28@163.com%0,                   Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                   Linlin%Xie%NULL%1,                   Rui%Liu%NULL%1,                   Jie%Yang%NULL%0,                   Fang%Liu%NULL%2,                   Kailang%Wu%NULL%2,                   Lang%Chen%NULL%1,                   Wei%Hou%NULL%0,                   Yong%Feng%yongfeng@whu.edu.cn%0,                   Chengliang%Zhu%xinchengzhu@163.com%2,                   Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0,                   Bo%Hu%NULL%1,                   Yao%Zhang%NULL%0,                   Hao%Wang%NULL%0,                   Xiaoyang%Zhou%NULL%1,                   Wei%Hu%NULL%1,                   Yuting%Cheng%NULL%1,                   Jie%Yan%NULL%0,                   Haiqin%Ping%NULL%1,                   Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%1,                   Xien%Gui%NULL%1,                   Yongxi%Zhang%NULL%0,                   Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                   Yuan%Yu%NULL%0,                   Jiqian%Xu%NULL%0,                   Huaqing%Shu%NULL%0,                   Jia'an%Xia%NULL%0,                   Hong%Liu%NULL%0,                   Yongran%Wu%NULL%0,                   Lu%Zhang%NULL%0,                   Zhui%Yu%NULL%0,                   Minghao%Fang%NULL%0,                   Ting%Yu%NULL%0,                   Yaxin%Wang%NULL%0,                   Shangwen%Pan%NULL%0,                   Xiaojing%Zou%NULL%0,                   Shiying%Yuan%NULL%0,                   You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                  Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%1,                  Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%1,                  Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%1,                  Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0,                   Miao%Yu%NULL%0,                   Tian%Xie%NULL%0,                   Fen%Yang%NULL%0,                   Hong-Bo%Wang%NULL%0,                   Zhao-Hui%Wang%NULL%0,                   Ming%Li%NULL%0,                   Xing-Li%Gao%NULL%0,                   Bing-Jie%Lv%NULL%0,                   Shi-Jia%Wang%NULL%0,                   Xiao-Bo%Zhang%NULL%0,                   Shao-Lin%He%NULL%0,                   Zhi-Hua%Qiu%NULL%0,                   Yu-Hua%Liao%NULL%0,                   Zi-Hua%Zhou%NULL%0,                   Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                   Yongzhen%Fan%NULL%0,                   Ming%Chen%NULL%0,                   Xiaoyan%Wu%NULL%0,                   Lin%Zhang%NULL%0,                   Tao%He%NULL%0,                   Hairong%Wang%NULL%0,                   Jing%Wan%NULL%0,                   Xinghuan%Wang%NULL%0,                   Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                   Wei%Liu%NULL%0,                   Kui%Liu%NULL%0,                   Yuan-Yuan%Fang%NULL%0,                   Jin%Shang%NULL%1,                   Ling%Zhou%NULL%0,                   Ke%Wang%NULL%0,                   Fan%Leng%NULL%1,                   Shuang%Wei%NULL%0,                   Lei%Chen%NULL%1,                   Hui-Guo%Liu%NULL%0,                   Pei-Fang%Wei%NULL%0,                   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                   Di%Wu%NULL%0,                   Huilong%Chen%NULL%0,                   Weiming%Yan%NULL%0,                   Danlei%Yang%NULL%0,                   Guang%Chen%NULL%0,                   Ke%Ma%NULL%0,                   Dong%Xu%NULL%0,                   Haijing%Yu%NULL%0,                   Hongwu%Wang%NULL%0,                   Tao%Wang%NULL%0,                   Wei%Guo%NULL%0,                   Jia%Chen%NULL%0,                   Chen%Ding%NULL%0,                   Xiaoping%Zhang%NULL%0,                   Jiaquan%Huang%NULL%0,                   Meifang%Han%NULL%0,                   Shusheng%Li%NULL%0,                   Xiaoping%Luo%NULL%0,                   Jianping%Zhao%NULL%0,                   Qin%Ning%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2028,7 +2100,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -2040,7 +2112,7 @@
         <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>157</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3">
@@ -2057,7 +2129,7 @@
         <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2069,7 +2141,7 @@
         <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4">
@@ -2086,7 +2158,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>441</v>
+        <v>463</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -2098,7 +2170,7 @@
         <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>160</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5">
@@ -2115,7 +2187,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2127,7 +2199,7 @@
         <v>241</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6">
@@ -2144,7 +2216,7 @@
         <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2156,7 +2228,7 @@
         <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7">
@@ -2173,7 +2245,7 @@
         <v>323</v>
       </c>
       <c r="E7" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -2185,7 +2257,7 @@
         <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>163</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8">
@@ -2202,7 +2274,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -2214,7 +2286,7 @@
         <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>160</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9">
@@ -2231,7 +2303,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -2243,7 +2315,7 @@
         <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>160</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10">
@@ -2260,7 +2332,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -2272,7 +2344,7 @@
         <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>157</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11">
@@ -2289,7 +2361,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -2301,7 +2373,7 @@
         <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>157</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12">
@@ -2318,7 +2390,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -2330,7 +2402,7 @@
         <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>157</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13">
@@ -2347,7 +2419,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -2359,7 +2431,7 @@
         <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>160</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14">
@@ -2376,7 +2448,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -2388,7 +2460,7 @@
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>157</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15">
@@ -2405,7 +2477,7 @@
         <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -2417,7 +2489,7 @@
         <v>88</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16">
@@ -2434,7 +2506,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -2446,7 +2518,7 @@
         <v>39</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17">
@@ -2463,7 +2535,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -2475,7 +2547,7 @@
         <v>39</v>
       </c>
       <c r="I17" t="s">
-        <v>94</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18">
@@ -2492,7 +2564,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
@@ -2504,7 +2576,7 @@
         <v>39</v>
       </c>
       <c r="I18" t="s">
-        <v>160</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19">
@@ -2521,7 +2593,7 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="F19" t="s">
         <v>100</v>
@@ -2533,7 +2605,7 @@
         <v>101</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20">
@@ -2550,7 +2622,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -2562,7 +2634,7 @@
         <v>39</v>
       </c>
       <c r="I20" t="s">
-        <v>160</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21">
@@ -2579,7 +2651,7 @@
         <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="F21" t="s">
         <v>109</v>
@@ -2591,7 +2663,7 @@
         <v>110</v>
       </c>
       <c r="I21" t="s">
-        <v>160</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/90.xlsx
+++ b/Covid_19_Dataset_and_References/References/90.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="503">
   <si>
     <t>Doi</t>
   </si>
@@ -1766,6 +1766,66 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,                   Di%Wu%NULL%0,                   Huilong%Chen%NULL%0,                   Weiming%Yan%NULL%0,                   Danlei%Yang%NULL%0,                   Guang%Chen%NULL%0,                   Ke%Ma%NULL%0,                   Dong%Xu%NULL%0,                   Haijing%Yu%NULL%0,                   Hongwu%Wang%NULL%0,                   Tao%Wang%NULL%0,                   Wei%Guo%NULL%0,                   Jia%Chen%NULL%0,                   Chen%Ding%NULL%0,                   Xiaoping%Zhang%NULL%0,                   Jiaquan%Huang%NULL%0,                   Meifang%Han%NULL%0,                   Shusheng%Li%NULL%0,                   Xiaoping%Luo%NULL%0,                   Jianping%Zhao%NULL%0,                   Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                    Ting%Yu%NULL%0,                    Ronghui%Du%NULL%0,                    Guohui%Fan%NULL%0,                    Ying%Liu%NULL%0,                    Zhibo%Liu%NULL%0,                    Jie%Xiang%NULL%0,                    Yeming%Wang%NULL%0,                    Bin%Song%NULL%0,                    Xiaoying%Gu%NULL%0,                    Lulu%Guan%NULL%0,                    Yuan%Wei%NULL%0,                    Hui%Li%NULL%0,                    Xudong%Wu%NULL%0,                    Jiuyang%Xu%NULL%0,                    Shengjin%Tu%NULL%0,                    Yi%Zhang%NULL%0,                    Hua%Chen%NULL%0,                    Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                   Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                   Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                   Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0,                    Kwan Ho%Lee%NULL%2,                    Kwan Ho%Lee%NULL%0,                    Jin Hong%Chung%NULL%2,                    Jin Hong%Chung%NULL%0,                    Kyeong-Cheol%Shin%NULL%2,                    Kyeong-Cheol%Shin%NULL%0,                    Eun Young%Choi%NULL%2,                    Eun Young%Choi%NULL%0,                    Hyun Jung%Jin%NULL%2,                    Hyun Jung%Jin%NULL%0,                    Jong Geol%Jang%NULL%2,                    Jong Geol%Jang%NULL%0,                    Wonhwa%Lee%NULL%2,                    Wonhwa%Lee%NULL%0,                    June Hong%Ahn%NULL%0,                    June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,             Eric%Yim%xref no email%0,             Lindy%Klaff%xref no email%0,             Sharukh%Lokhandwala%xref no email%0,             Francis X.%Riedo%xref no email%0,             Maria%Chong%xref no email%0,             Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,                   Aggarwal%Saurabh%coreGivesNoEmail%0,                   Garcia-Telles%Nelson%coreGivesNoEmail%0,                   Henry%Brandon Michael%coreGivesNoEmail%0,                   Lavie%Carl%coreGivesNoEmail%0,                   Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                    Dan%Xu%NULL%0,                    Shouzhi%Fu%NULL%0,                    Jun%Zhang%NULL%0,                    Xiaobo%Yang%NULL%0,                    Liang%Xu%NULL%0,                    Jiqian%Xu%NULL%0,                    Yongran%Wu%NULL%0,                    Chaolin%Huang%NULL%0,                    Yaqi%Ouyang%NULL%0,                    Luyu%Yang%NULL%0,                    Minghao%Fang%NULL%0,                    Hongwen%Xiao%NULL%0,                    Jing%Ma%NULL%0,                    Wei%Zhu%NULL%0,                    Song%Hu%NULL%0,                    Quan%Hu%NULL%0,                    Daoyin%Ding%NULL%0,                    Ming%Hu%NULL%0,                    Guochao%Zhu%NULL%0,                    Weijiang%Xu%NULL%0,                    Jun%Guo%NULL%0,                    Jinglong%Xu%NULL%0,                    Haitao%Yuan%NULL%0,                    Bin%Zhang%NULL%0,                    Zhui%Yu%yuzhui@whu.edu.cn%0,                    Dechang%Chen%icudechangchen@163.com%0,                    Shiying%Yuan%yuan_shiying@163.com%0,                    You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0,                    Shaobo%Shi%NULL%2,                    Shaobo%Shi%NULL%0,                    Jiling%Zhu%NULL%1,                    Jinzhi%Shi%NULL%1,                    Kai%Dai%NULL%1,                    Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0,                    Fang-Yang%Huang%NULL%0,                    Tian-Yuan%Xiong%NULL%0,                    Tian-Yuan%Xiong%NULL%0,                    Qi%Liu%NULL%0,                    Hong%Chen%NULL%0,                    Hui%Wang%NULL%0,                    He%Huang%NULL%0,                    Yi-Chun%Luo%NULL%0,                    Xuan%Zhou%NULL%0,                    Zhi-Yue%Liu%NULL%0,                    Yong%Peng%NULL%0,                    Yuan-Ning%Xu%NULL%0,                    Bo%Wang%NULL%0,                    Ying-Ying%Yang%NULL%0,                    Zong-An%Liang%NULL%0,                    Xue-Zhong%Lei%NULL%0,                    Yang%Ge%NULL%0,                    Ming%Yang%NULL%0,                    Ling%Zhang%NULL%0,                    Ming-Quan%Zeng%NULL%0,                    He%Yu%NULL%0,                    Kai%Liu%NULL%0,                    Yu-Heng%Jia%NULL%0,                    Bernard D%Prendergast%NULL%0,                    Wei-Min%Li%NULL%0,                    Wei-Min%Li%NULL%0,                    Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                    Shuyun%Xu%NULL%0,                    Muqing%Yu%NULL%0,                    Ke%Wang%NULL%0,                    Yu%Tao%NULL%0,                    Ying%Zhou%NULL%0,                    Jing%Shi%NULL%0,                    Min%Zhou%NULL%0,                    Bo%Wu%NULL%0,                    Zhenyu%Yang%NULL%0,                    Cong%Zhang%NULL%0,                    Junqing%Yue%NULL%0,                    Zhiguo%Zhang%NULL%0,                    Harald%Renz%NULL%0,                    Xiansheng%Liu%NULL%0,                    Jungang%Xie%NULL%0,                    Min%Xie%NULL%0,                    Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%1,                    Kipp W.%Johnson%NULL%1,                    James L.%Januzzi%NULL%1,                    Adam J.%Russak%NULL%1,                    Ishan%Paranjpe%NULL%0,                    Felix%Richter%NULL%0,                    Shan%Zhao%NULL%0,                    Sulaiman%Somani%NULL%0,                    Tielman%Van Vleck%NULL%1,                    Akhil%Vaid%NULL%0,                    Fayzan%Chaudhry%NULL%1,                    Jessica K.%De Freitas%NULL%1,                    Zahi A.%Fayad%NULL%1,                    Sean P.%Pinney%NULL%1,                    Matthew%Levin%NULL%1,                    Alexander%Charney%NULL%1,                    Emilia%Bagiella%NULL%0,                    Jagat%Narula%NULL%0,                    Benjamin S.%Glicksberg%NULL%1,                    Girish%Nadkarni%NULL%1,                    Donna M.%Mancini%NULL%1,                    Valentin%Fuster%NULL%0,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                    Yeming%Wang%NULL%0,                    Xingwang%Li%NULL%0,                    Lili%Ren%NULL%0,                    Jianping%Zhao%NULL%0,                    Yi%Hu%NULL%0,                    Li%Zhang%NULL%0,                    Guohui%Fan%NULL%0,                    Jiuyang%Xu%NULL%0,                    Xiaoying%Gu%NULL%0,                    Zhenshun%Cheng%NULL%0,                    Ting%Yu%NULL%0,                    Jiaan%Xia%NULL%0,                    Yuan%Wei%NULL%0,                    Wenjuan%Wu%NULL%0,                    Xuelei%Xie%NULL%0,                    Wen%Yin%NULL%0,                    Hui%Li%NULL%0,                    Min%Liu%NULL%0,                    Yan%Xiao%NULL%0,                    Hong%Gao%NULL%0,                    Li%Guo%NULL%0,                    Jungang%Xie%NULL%0,                    Guangfa%Wang%NULL%0,                    Rongmeng%Jiang%NULL%0,                    Zhancheng%Gao%NULL%0,                    Qi%Jin%NULL%0,                    Jianwei%Wang%wangjw28@163.com%0,                    Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                    Linlin%Xie%NULL%1,                    Rui%Liu%NULL%1,                    Jie%Yang%NULL%0,                    Fang%Liu%NULL%2,                    Kailang%Wu%NULL%2,                    Lang%Chen%NULL%1,                    Wei%Hou%NULL%0,                    Yong%Feng%yongfeng@whu.edu.cn%0,                    Chengliang%Zhu%xinchengzhu@163.com%2,                    Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0,                    Bo%Hu%NULL%1,                    Yao%Zhang%NULL%0,                    Hao%Wang%NULL%0,                    Xiaoyang%Zhou%NULL%1,                    Wei%Hu%NULL%1,                    Yuting%Cheng%NULL%1,                    Jie%Yan%NULL%0,                    Haiqin%Ping%NULL%1,                    Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%1,                    Xien%Gui%NULL%1,                    Yongxi%Zhang%NULL%0,                    Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                    Yuan%Yu%NULL%0,                    Jiqian%Xu%NULL%0,                    Huaqing%Shu%NULL%0,                    Jia'an%Xia%NULL%0,                    Hong%Liu%NULL%0,                    Yongran%Wu%NULL%0,                    Lu%Zhang%NULL%0,                    Zhui%Yu%NULL%0,                    Minghao%Fang%NULL%0,                    Ting%Yu%NULL%0,                    Yaxin%Wang%NULL%0,                    Shangwen%Pan%NULL%0,                    Xiaojing%Zou%NULL%0,                    Shiying%Yuan%NULL%0,                    You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                   Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%1,                   Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%1,                   Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%1,                   Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0,                    Miao%Yu%NULL%0,                    Tian%Xie%NULL%0,                    Fen%Yang%NULL%0,                    Hong-Bo%Wang%NULL%0,                    Zhao-Hui%Wang%NULL%0,                    Ming%Li%NULL%0,                    Xing-Li%Gao%NULL%0,                    Bing-Jie%Lv%NULL%0,                    Shi-Jia%Wang%NULL%0,                    Xiao-Bo%Zhang%NULL%0,                    Shao-Lin%He%NULL%0,                    Zhi-Hua%Qiu%NULL%0,                    Yu-Hua%Liao%NULL%0,                    Zi-Hua%Zhou%NULL%0,                    Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                    Yongzhen%Fan%NULL%0,                    Ming%Chen%NULL%0,                    Xiaoyan%Wu%NULL%0,                    Lin%Zhang%NULL%0,                    Tao%He%NULL%0,                    Hairong%Wang%NULL%0,                    Jing%Wan%NULL%0,                    Xinghuan%Wang%NULL%0,                    Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                    Wei%Liu%NULL%0,                    Kui%Liu%NULL%0,                    Yuan-Yuan%Fang%NULL%0,                    Jin%Shang%NULL%1,                    Ling%Zhou%NULL%0,                    Ke%Wang%NULL%0,                    Fan%Leng%NULL%1,                    Shuang%Wei%NULL%0,                    Lei%Chen%NULL%1,                    Hui-Guo%Liu%NULL%0,                    Pei-Fang%Wei%NULL%0,                    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                    Di%Wu%NULL%0,                    Huilong%Chen%NULL%0,                    Weiming%Yan%NULL%0,                    Danlei%Yang%NULL%0,                    Guang%Chen%NULL%0,                    Ke%Ma%NULL%0,                    Dong%Xu%NULL%0,                    Haijing%Yu%NULL%0,                    Hongwu%Wang%NULL%0,                    Tao%Wang%NULL%0,                    Wei%Guo%NULL%0,                    Jia%Chen%NULL%0,                    Chen%Ding%NULL%0,                    Xiaoping%Zhang%NULL%0,                    Jiaquan%Huang%NULL%0,                    Meifang%Han%NULL%0,                    Shusheng%Li%NULL%0,                    Xiaoping%Luo%NULL%0,                    Jianping%Zhao%NULL%0,                    Qin%Ning%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2100,7 +2160,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -2129,7 +2189,7 @@
         <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2158,7 +2218,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -2187,7 +2247,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2216,7 +2276,7 @@
         <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2245,7 +2305,7 @@
         <v>323</v>
       </c>
       <c r="E7" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -2274,7 +2334,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -2303,7 +2363,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -2332,7 +2392,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -2361,7 +2421,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -2390,7 +2450,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -2419,7 +2479,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -2448,7 +2508,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -2477,7 +2537,7 @@
         <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -2506,7 +2566,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -2535,7 +2595,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -2564,7 +2624,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
@@ -2593,7 +2653,7 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="F19" t="s">
         <v>100</v>
@@ -2622,7 +2682,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -2651,7 +2711,7 @@
         <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="F21" t="s">
         <v>109</v>

--- a/Covid_19_Dataset_and_References/References/90.xlsx
+++ b/Covid_19_Dataset_and_References/References/90.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3908" uniqueCount="601">
   <si>
     <t>Doi</t>
   </si>
@@ -1826,6 +1826,300 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,                    Di%Wu%NULL%0,                    Huilong%Chen%NULL%0,                    Weiming%Yan%NULL%0,                    Danlei%Yang%NULL%0,                    Guang%Chen%NULL%0,                    Ke%Ma%NULL%0,                    Dong%Xu%NULL%0,                    Haijing%Yu%NULL%0,                    Hongwu%Wang%NULL%0,                    Tao%Wang%NULL%0,                    Wei%Guo%NULL%0,                    Jia%Chen%NULL%0,                    Chen%Ding%NULL%0,                    Xiaoping%Zhang%NULL%0,                    Jiaquan%Huang%NULL%0,                    Meifang%Han%NULL%0,                    Shusheng%Li%NULL%0,                    Xiaoping%Luo%NULL%0,                    Jianping%Zhao%NULL%0,                    Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                     Ting%Yu%NULL%0,                     Ronghui%Du%NULL%0,                     Guohui%Fan%NULL%0,                     Ying%Liu%NULL%0,                     Zhibo%Liu%NULL%0,                     Jie%Xiang%NULL%0,                     Yeming%Wang%NULL%0,                     Bin%Song%NULL%0,                     Xiaoying%Gu%NULL%0,                     Lulu%Guan%NULL%0,                     Yuan%Wei%NULL%0,                     Hui%Li%NULL%0,                     Xudong%Wu%NULL%0,                     Jiuyang%Xu%NULL%0,                     Shengjin%Tu%NULL%0,                     Yi%Zhang%NULL%0,                     Hua%Chen%NULL%0,                     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                    Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                    Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                    Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0,                     Kwan Ho%Lee%NULL%2,                     Kwan Ho%Lee%NULL%0,                     Jin Hong%Chung%NULL%2,                     Jin Hong%Chung%NULL%0,                     Kyeong-Cheol%Shin%NULL%2,                     Kyeong-Cheol%Shin%NULL%0,                     Eun Young%Choi%NULL%2,                     Eun Young%Choi%NULL%0,                     Hyun Jung%Jin%NULL%2,                     Hyun Jung%Jin%NULL%0,                     Jong Geol%Jang%NULL%2,                     Jong Geol%Jang%NULL%0,                     Wonhwa%Lee%NULL%2,                     Wonhwa%Lee%NULL%0,                     June Hong%Ahn%NULL%0,                     June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,                    Aggarwal%Saurabh%coreGivesNoEmail%0,                    Garcia-Telles%Nelson%coreGivesNoEmail%0,                    Henry%Brandon Michael%coreGivesNoEmail%0,                    Lavie%Carl%coreGivesNoEmail%0,                    Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                     Dan%Xu%NULL%0,                     Shouzhi%Fu%NULL%0,                     Jun%Zhang%NULL%0,                     Xiaobo%Yang%NULL%0,                     Liang%Xu%NULL%0,                     Jiqian%Xu%NULL%0,                     Yongran%Wu%NULL%0,                     Chaolin%Huang%NULL%0,                     Yaqi%Ouyang%NULL%0,                     Luyu%Yang%NULL%0,                     Minghao%Fang%NULL%0,                     Hongwen%Xiao%NULL%0,                     Jing%Ma%NULL%0,                     Wei%Zhu%NULL%0,                     Song%Hu%NULL%0,                     Quan%Hu%NULL%0,                     Daoyin%Ding%NULL%0,                     Ming%Hu%NULL%0,                     Guochao%Zhu%NULL%0,                     Weijiang%Xu%NULL%0,                     Jun%Guo%NULL%0,                     Jinglong%Xu%NULL%0,                     Haitao%Yuan%NULL%0,                     Bin%Zhang%NULL%0,                     Zhui%Yu%yuzhui@whu.edu.cn%0,                     Dechang%Chen%icudechangchen@163.com%0,                     Shiying%Yuan%yuan_shiying@163.com%0,                     You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0,                     Shaobo%Shi%NULL%2,                     Shaobo%Shi%NULL%0,                     Jiling%Zhu%NULL%1,                     Jinzhi%Shi%NULL%1,                     Kai%Dai%NULL%1,                     Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0,                     Fang-Yang%Huang%NULL%0,                     Tian-Yuan%Xiong%NULL%0,                     Tian-Yuan%Xiong%NULL%0,                     Qi%Liu%NULL%0,                     Hong%Chen%NULL%0,                     Hui%Wang%NULL%0,                     He%Huang%NULL%0,                     Yi-Chun%Luo%NULL%0,                     Xuan%Zhou%NULL%0,                     Zhi-Yue%Liu%NULL%0,                     Yong%Peng%NULL%0,                     Yuan-Ning%Xu%NULL%0,                     Bo%Wang%NULL%0,                     Ying-Ying%Yang%NULL%0,                     Zong-An%Liang%NULL%0,                     Xue-Zhong%Lei%NULL%0,                     Yang%Ge%NULL%0,                     Ming%Yang%NULL%0,                     Ling%Zhang%NULL%0,                     Ming-Quan%Zeng%NULL%0,                     He%Yu%NULL%0,                     Kai%Liu%NULL%0,                     Yu-Heng%Jia%NULL%0,                     Bernard D%Prendergast%NULL%0,                     Wei-Min%Li%NULL%0,                     Wei-Min%Li%NULL%0,                     Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                     Shuyun%Xu%NULL%0,                     Muqing%Yu%NULL%0,                     Ke%Wang%NULL%0,                     Yu%Tao%NULL%0,                     Ying%Zhou%NULL%0,                     Jing%Shi%NULL%0,                     Min%Zhou%NULL%0,                     Bo%Wu%NULL%0,                     Zhenyu%Yang%NULL%0,                     Cong%Zhang%NULL%0,                     Junqing%Yue%NULL%0,                     Zhiguo%Zhang%NULL%0,                     Harald%Renz%NULL%0,                     Xiansheng%Liu%NULL%0,                     Jungang%Xie%NULL%0,                     Min%Xie%NULL%0,                     Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%1,                     Kipp W.%Johnson%NULL%1,                     James L.%Januzzi%NULL%1,                     Adam J.%Russak%NULL%1,                     Ishan%Paranjpe%NULL%0,                     Felix%Richter%NULL%0,                     Shan%Zhao%NULL%0,                     Sulaiman%Somani%NULL%0,                     Tielman%Van Vleck%NULL%1,                     Akhil%Vaid%NULL%0,                     Fayzan%Chaudhry%NULL%1,                     Jessica K.%De Freitas%NULL%1,                     Zahi A.%Fayad%NULL%1,                     Sean P.%Pinney%NULL%1,                     Matthew%Levin%NULL%1,                     Alexander%Charney%NULL%1,                     Emilia%Bagiella%NULL%0,                     Jagat%Narula%NULL%0,                     Benjamin S.%Glicksberg%NULL%1,                     Girish%Nadkarni%NULL%1,                     Donna M.%Mancini%NULL%1,                     Valentin%Fuster%NULL%0,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                     Yeming%Wang%NULL%0,                     Xingwang%Li%NULL%0,                     Lili%Ren%NULL%0,                     Jianping%Zhao%NULL%0,                     Yi%Hu%NULL%0,                     Li%Zhang%NULL%0,                     Guohui%Fan%NULL%0,                     Jiuyang%Xu%NULL%0,                     Xiaoying%Gu%NULL%0,                     Zhenshun%Cheng%NULL%0,                     Ting%Yu%NULL%0,                     Jiaan%Xia%NULL%0,                     Yuan%Wei%NULL%0,                     Wenjuan%Wu%NULL%0,                     Xuelei%Xie%NULL%0,                     Wen%Yin%NULL%0,                     Hui%Li%NULL%0,                     Min%Liu%NULL%0,                     Yan%Xiao%NULL%0,                     Hong%Gao%NULL%0,                     Li%Guo%NULL%0,                     Jungang%Xie%NULL%0,                     Guangfa%Wang%NULL%0,                     Rongmeng%Jiang%NULL%0,                     Zhancheng%Gao%NULL%0,                     Qi%Jin%NULL%0,                     Jianwei%Wang%wangjw28@163.com%0,                     Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                     Linlin%Xie%NULL%1,                     Rui%Liu%NULL%1,                     Jie%Yang%NULL%0,                     Fang%Liu%NULL%2,                     Kailang%Wu%NULL%2,                     Lang%Chen%NULL%1,                     Wei%Hou%NULL%0,                     Yong%Feng%yongfeng@whu.edu.cn%0,                     Chengliang%Zhu%xinchengzhu@163.com%2,                     Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0,                     Bo%Hu%NULL%1,                     Yao%Zhang%NULL%0,                     Hao%Wang%NULL%0,                     Xiaoyang%Zhou%NULL%1,                     Wei%Hu%NULL%1,                     Yuting%Cheng%NULL%1,                     Jie%Yan%NULL%0,                     Haiqin%Ping%NULL%1,                     Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%1,                     Xien%Gui%NULL%1,                     Yongxi%Zhang%NULL%0,                     Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                     Yuan%Yu%NULL%0,                     Jiqian%Xu%NULL%0,                     Huaqing%Shu%NULL%0,                     Jia'an%Xia%NULL%0,                     Hong%Liu%NULL%0,                     Yongran%Wu%NULL%0,                     Lu%Zhang%NULL%0,                     Zhui%Yu%NULL%0,                     Minghao%Fang%NULL%0,                     Ting%Yu%NULL%0,                     Yaxin%Wang%NULL%0,                     Shangwen%Pan%NULL%0,                     Xiaojing%Zou%NULL%0,                     Shiying%Yuan%NULL%0,                     You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                    Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%1,                    Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%1,                    Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%1,                    Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0,                     Miao%Yu%NULL%0,                     Tian%Xie%NULL%0,                     Fen%Yang%NULL%0,                     Hong-Bo%Wang%NULL%0,                     Zhao-Hui%Wang%NULL%0,                     Ming%Li%NULL%0,                     Xing-Li%Gao%NULL%0,                     Bing-Jie%Lv%NULL%0,                     Shi-Jia%Wang%NULL%0,                     Xiao-Bo%Zhang%NULL%0,                     Shao-Lin%He%NULL%0,                     Zhi-Hua%Qiu%NULL%0,                     Yu-Hua%Liao%NULL%0,                     Zi-Hua%Zhou%NULL%0,                     Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                     Yongzhen%Fan%NULL%0,                     Ming%Chen%NULL%0,                     Xiaoyan%Wu%NULL%0,                     Lin%Zhang%NULL%0,                     Tao%He%NULL%0,                     Hairong%Wang%NULL%0,                     Jing%Wan%NULL%0,                     Xinghuan%Wang%NULL%0,                     Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                     Wei%Liu%NULL%0,                     Kui%Liu%NULL%0,                     Yuan-Yuan%Fang%NULL%0,                     Jin%Shang%NULL%1,                     Ling%Zhou%NULL%0,                     Ke%Wang%NULL%0,                     Fan%Leng%NULL%1,                     Shuang%Wei%NULL%0,                     Lei%Chen%NULL%1,                     Hui-Guo%Liu%NULL%0,                     Pei-Fang%Wei%NULL%0,                     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                     Di%Wu%NULL%0,                     Huilong%Chen%NULL%0,                     Weiming%Yan%NULL%0,                     Danlei%Yang%NULL%0,                     Guang%Chen%NULL%0,                     Ke%Ma%NULL%0,                     Dong%Xu%NULL%0,                     Haijing%Yu%NULL%0,                     Hongwu%Wang%NULL%0,                     Tao%Wang%NULL%0,                     Wei%Guo%NULL%0,                     Jia%Chen%NULL%0,                     Chen%Ding%NULL%0,                     Xiaoping%Zhang%NULL%0,                     Jiaquan%Huang%NULL%0,                     Meifang%Han%NULL%0,                     Shusheng%Li%NULL%0,                     Xiaoping%Luo%NULL%0,                     Jianping%Zhao%NULL%0,                     Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                      Ting%Yu%NULL%0,                      Ronghui%Du%NULL%0,                      Guohui%Fan%NULL%0,                      Ying%Liu%NULL%0,                      Zhibo%Liu%NULL%0,                      Jie%Xiang%NULL%0,                      Yeming%Wang%NULL%0,                      Bin%Song%NULL%0,                      Xiaoying%Gu%NULL%0,                      Lulu%Guan%NULL%0,                      Yuan%Wei%NULL%0,                      Hui%Li%NULL%0,                      Xudong%Wu%NULL%0,                      Jiuyang%Xu%NULL%0,                      Shengjin%Tu%NULL%0,                      Yi%Zhang%NULL%0,                      Hua%Chen%NULL%0,                      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                     Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                     Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                     Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0,                      Kwan Ho%Lee%NULL%2,                      Kwan Ho%Lee%NULL%0,                      Jin Hong%Chung%NULL%2,                      Jin Hong%Chung%NULL%0,                      Kyeong-Cheol%Shin%NULL%2,                      Kyeong-Cheol%Shin%NULL%0,                      Eun Young%Choi%NULL%2,                      Eun Young%Choi%NULL%0,                      Hyun Jung%Jin%NULL%2,                      Hyun Jung%Jin%NULL%0,                      Jong Geol%Jang%NULL%2,                      Jong Geol%Jang%NULL%0,                      Wonhwa%Lee%NULL%2,                      Wonhwa%Lee%NULL%0,                      June Hong%Ahn%NULL%0,                      June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,                     Aggarwal%Saurabh%coreGivesNoEmail%0,                     Garcia-Telles%Nelson%coreGivesNoEmail%0,                     Henry%Brandon Michael%coreGivesNoEmail%0,                     Lavie%Carl%coreGivesNoEmail%0,                     Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                      Dan%Xu%NULL%0,                      Shouzhi%Fu%NULL%0,                      Jun%Zhang%NULL%0,                      Xiaobo%Yang%NULL%0,                      Liang%Xu%NULL%0,                      Jiqian%Xu%NULL%0,                      Yongran%Wu%NULL%0,                      Chaolin%Huang%NULL%0,                      Yaqi%Ouyang%NULL%0,                      Luyu%Yang%NULL%0,                      Minghao%Fang%NULL%0,                      Hongwen%Xiao%NULL%0,                      Jing%Ma%NULL%0,                      Wei%Zhu%NULL%0,                      Song%Hu%NULL%0,                      Quan%Hu%NULL%0,                      Daoyin%Ding%NULL%0,                      Ming%Hu%NULL%0,                      Guochao%Zhu%NULL%0,                      Weijiang%Xu%NULL%0,                      Jun%Guo%NULL%0,                      Jinglong%Xu%NULL%0,                      Haitao%Yuan%NULL%0,                      Bin%Zhang%NULL%0,                      Zhui%Yu%yuzhui@whu.edu.cn%0,                      Dechang%Chen%icudechangchen@163.com%0,                      Shiying%Yuan%yuan_shiying@163.com%0,                      You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0,                      Shaobo%Shi%NULL%2,                      Shaobo%Shi%NULL%0,                      Jiling%Zhu%NULL%1,                      Jinzhi%Shi%NULL%1,                      Kai%Dai%NULL%1,                      Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0,                      Fang-Yang%Huang%NULL%0,                      Tian-Yuan%Xiong%NULL%0,                      Tian-Yuan%Xiong%NULL%0,                      Qi%Liu%NULL%0,                      Hong%Chen%NULL%0,                      Hui%Wang%NULL%0,                      He%Huang%NULL%0,                      Yi-Chun%Luo%NULL%0,                      Xuan%Zhou%NULL%0,                      Zhi-Yue%Liu%NULL%0,                      Yong%Peng%NULL%0,                      Yuan-Ning%Xu%NULL%0,                      Bo%Wang%NULL%0,                      Ying-Ying%Yang%NULL%0,                      Zong-An%Liang%NULL%0,                      Xue-Zhong%Lei%NULL%0,                      Yang%Ge%NULL%0,                      Ming%Yang%NULL%0,                      Ling%Zhang%NULL%0,                      Ming-Quan%Zeng%NULL%0,                      He%Yu%NULL%0,                      Kai%Liu%NULL%0,                      Yu-Heng%Jia%NULL%0,                      Bernard D%Prendergast%NULL%0,                      Wei-Min%Li%NULL%0,                      Wei-Min%Li%NULL%0,                      Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                      Shuyun%Xu%NULL%0,                      Muqing%Yu%NULL%0,                      Ke%Wang%NULL%0,                      Yu%Tao%NULL%0,                      Ying%Zhou%NULL%0,                      Jing%Shi%NULL%0,                      Min%Zhou%NULL%0,                      Bo%Wu%NULL%0,                      Zhenyu%Yang%NULL%0,                      Cong%Zhang%NULL%0,                      Junqing%Yue%NULL%0,                      Zhiguo%Zhang%NULL%0,                      Harald%Renz%NULL%0,                      Xiansheng%Liu%NULL%0,                      Jungang%Xie%NULL%0,                      Min%Xie%NULL%0,                      Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%1,                      Kipp W.%Johnson%NULL%1,                      James L.%Januzzi%NULL%1,                      Adam J.%Russak%NULL%1,                      Ishan%Paranjpe%NULL%0,                      Felix%Richter%NULL%0,                      Shan%Zhao%NULL%0,                      Sulaiman%Somani%NULL%0,                      Tielman%Van Vleck%NULL%1,                      Akhil%Vaid%NULL%0,                      Fayzan%Chaudhry%NULL%1,                      Jessica K.%De Freitas%NULL%1,                      Zahi A.%Fayad%NULL%1,                      Sean P.%Pinney%NULL%1,                      Matthew%Levin%NULL%1,                      Alexander%Charney%NULL%1,                      Emilia%Bagiella%NULL%0,                      Jagat%Narula%NULL%0,                      Benjamin S.%Glicksberg%NULL%1,                      Girish%Nadkarni%NULL%1,                      Donna M.%Mancini%NULL%1,                      Valentin%Fuster%NULL%0,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                      Yeming%Wang%NULL%0,                      Xingwang%Li%NULL%0,                      Lili%Ren%NULL%0,                      Jianping%Zhao%NULL%0,                      Yi%Hu%NULL%0,                      Li%Zhang%NULL%0,                      Guohui%Fan%NULL%0,                      Jiuyang%Xu%NULL%0,                      Xiaoying%Gu%NULL%0,                      Zhenshun%Cheng%NULL%0,                      Ting%Yu%NULL%0,                      Jiaan%Xia%NULL%0,                      Yuan%Wei%NULL%0,                      Wenjuan%Wu%NULL%0,                      Xuelei%Xie%NULL%0,                      Wen%Yin%NULL%0,                      Hui%Li%NULL%0,                      Min%Liu%NULL%0,                      Yan%Xiao%NULL%0,                      Hong%Gao%NULL%0,                      Li%Guo%NULL%0,                      Jungang%Xie%NULL%0,                      Guangfa%Wang%NULL%0,                      Rongmeng%Jiang%NULL%0,                      Zhancheng%Gao%NULL%0,                      Qi%Jin%NULL%0,                      Jianwei%Wang%wangjw28@163.com%0,                      Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                      Linlin%Xie%NULL%1,                      Rui%Liu%NULL%1,                      Jie%Yang%NULL%0,                      Fang%Liu%NULL%2,                      Kailang%Wu%NULL%2,                      Lang%Chen%NULL%1,                      Wei%Hou%NULL%0,                      Yong%Feng%yongfeng@whu.edu.cn%0,                      Chengliang%Zhu%xinchengzhu@163.com%2,                      Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0,                      Bo%Hu%NULL%1,                      Yao%Zhang%NULL%0,                      Hao%Wang%NULL%0,                      Xiaoyang%Zhou%NULL%1,                      Wei%Hu%NULL%1,                      Yuting%Cheng%NULL%1,                      Jie%Yan%NULL%0,                      Haiqin%Ping%NULL%1,                      Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%1,                      Xien%Gui%NULL%1,                      Yongxi%Zhang%NULL%0,                      Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                      Yuan%Yu%NULL%0,                      Jiqian%Xu%NULL%0,                      Huaqing%Shu%NULL%0,                      Jia'an%Xia%NULL%0,                      Hong%Liu%NULL%0,                      Yongran%Wu%NULL%0,                      Lu%Zhang%NULL%0,                      Zhui%Yu%NULL%0,                      Minghao%Fang%NULL%0,                      Ting%Yu%NULL%0,                      Yaxin%Wang%NULL%0,                      Shangwen%Pan%NULL%0,                      Xiaojing%Zou%NULL%0,                      Shiying%Yuan%NULL%0,                      You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                     Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%1,                     Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%1,                     Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%1,                     Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0,                      Miao%Yu%NULL%0,                      Tian%Xie%NULL%0,                      Fen%Yang%NULL%0,                      Hong-Bo%Wang%NULL%0,                      Zhao-Hui%Wang%NULL%0,                      Ming%Li%NULL%0,                      Xing-Li%Gao%NULL%0,                      Bing-Jie%Lv%NULL%0,                      Shi-Jia%Wang%NULL%0,                      Xiao-Bo%Zhang%NULL%0,                      Shao-Lin%He%NULL%0,                      Zhi-Hua%Qiu%NULL%0,                      Yu-Hua%Liao%NULL%0,                      Zi-Hua%Zhou%NULL%0,                      Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                      Yongzhen%Fan%NULL%0,                      Ming%Chen%NULL%0,                      Xiaoyan%Wu%NULL%0,                      Lin%Zhang%NULL%0,                      Tao%He%NULL%0,                      Hairong%Wang%NULL%0,                      Jing%Wan%NULL%0,                      Xinghuan%Wang%NULL%0,                      Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                      Wei%Liu%NULL%0,                      Kui%Liu%NULL%0,                      Yuan-Yuan%Fang%NULL%0,                      Jin%Shang%NULL%1,                      Ling%Zhou%NULL%0,                      Ke%Wang%NULL%0,                      Fan%Leng%NULL%1,                      Shuang%Wei%NULL%0,                      Lei%Chen%NULL%1,                      Hui-Guo%Liu%NULL%0,                      Pei-Fang%Wei%NULL%0,                      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                      Di%Wu%NULL%0,                      Huilong%Chen%NULL%0,                      Weiming%Yan%NULL%0,                      Danlei%Yang%NULL%0,                      Guang%Chen%NULL%0,                      Ke%Ma%NULL%0,                      Dong%Xu%NULL%0,                      Haijing%Yu%NULL%0,                      Hongwu%Wang%NULL%0,                      Tao%Wang%NULL%0,                      Wei%Guo%NULL%0,                      Jia%Chen%NULL%0,                      Chen%Ding%NULL%0,                      Xiaoping%Zhang%NULL%0,                      Jiaquan%Huang%NULL%0,                      Meifang%Han%NULL%0,                      Shusheng%Li%NULL%0,                      Xiaoping%Luo%NULL%0,                      Jianping%Zhao%NULL%0,                      Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                       Ting%Yu%NULL%0,                       Ronghui%Du%NULL%0,                       Guohui%Fan%NULL%0,                       Ying%Liu%NULL%0,                       Zhibo%Liu%NULL%0,                       Jie%Xiang%NULL%0,                       Yeming%Wang%NULL%0,                       Bin%Song%NULL%0,                       Xiaoying%Gu%NULL%0,                       Lulu%Guan%NULL%0,                       Yuan%Wei%NULL%0,                       Hui%Li%NULL%0,                       Xudong%Wu%NULL%0,                       Jiuyang%Xu%NULL%0,                       Shengjin%Tu%NULL%0,                       Yi%Zhang%NULL%0,                       Hua%Chen%NULL%0,                       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                      Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                      Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                      Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0,                       Kwan Ho%Lee%NULL%2,                       Kwan Ho%Lee%NULL%0,                       Jin Hong%Chung%NULL%2,                       Jin Hong%Chung%NULL%0,                       Kyeong-Cheol%Shin%NULL%2,                       Kyeong-Cheol%Shin%NULL%0,                       Eun Young%Choi%NULL%2,                       Eun Young%Choi%NULL%0,                       Hyun Jung%Jin%NULL%2,                       Hyun Jung%Jin%NULL%0,                       Jong Geol%Jang%NULL%2,                       Jong Geol%Jang%NULL%0,                       Wonhwa%Lee%NULL%2,                       Wonhwa%Lee%NULL%0,                       June Hong%Ahn%NULL%0,                       June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,                      Aggarwal%Saurabh%coreGivesNoEmail%0,                      Garcia-Telles%Nelson%coreGivesNoEmail%0,                      Henry%Brandon Michael%coreGivesNoEmail%0,                      Lavie%Carl%coreGivesNoEmail%0,                      Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                       Dan%Xu%NULL%0,                       Shouzhi%Fu%NULL%0,                       Jun%Zhang%NULL%0,                       Xiaobo%Yang%NULL%0,                       Liang%Xu%NULL%0,                       Jiqian%Xu%NULL%0,                       Yongran%Wu%NULL%0,                       Chaolin%Huang%NULL%0,                       Yaqi%Ouyang%NULL%0,                       Luyu%Yang%NULL%0,                       Minghao%Fang%NULL%0,                       Hongwen%Xiao%NULL%0,                       Jing%Ma%NULL%0,                       Wei%Zhu%NULL%0,                       Song%Hu%NULL%0,                       Quan%Hu%NULL%0,                       Daoyin%Ding%NULL%0,                       Ming%Hu%NULL%0,                       Guochao%Zhu%NULL%0,                       Weijiang%Xu%NULL%0,                       Jun%Guo%NULL%0,                       Jinglong%Xu%NULL%0,                       Haitao%Yuan%NULL%0,                       Bin%Zhang%NULL%0,                       Zhui%Yu%yuzhui@whu.edu.cn%0,                       Dechang%Chen%icudechangchen@163.com%0,                       Shiying%Yuan%yuan_shiying@163.com%0,                       You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0,                       Shaobo%Shi%NULL%2,                       Shaobo%Shi%NULL%0,                       Jiling%Zhu%NULL%1,                       Jinzhi%Shi%NULL%1,                       Kai%Dai%NULL%1,                       Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0,                       Fang-Yang%Huang%NULL%0,                       Tian-Yuan%Xiong%NULL%0,                       Tian-Yuan%Xiong%NULL%0,                       Qi%Liu%NULL%0,                       Hong%Chen%NULL%0,                       Hui%Wang%NULL%0,                       He%Huang%NULL%0,                       Yi-Chun%Luo%NULL%0,                       Xuan%Zhou%NULL%0,                       Zhi-Yue%Liu%NULL%0,                       Yong%Peng%NULL%0,                       Yuan-Ning%Xu%NULL%0,                       Bo%Wang%NULL%0,                       Ying-Ying%Yang%NULL%0,                       Zong-An%Liang%NULL%0,                       Xue-Zhong%Lei%NULL%0,                       Yang%Ge%NULL%0,                       Ming%Yang%NULL%0,                       Ling%Zhang%NULL%0,                       Ming-Quan%Zeng%NULL%0,                       He%Yu%NULL%0,                       Kai%Liu%NULL%0,                       Yu-Heng%Jia%NULL%0,                       Bernard D%Prendergast%NULL%0,                       Wei-Min%Li%NULL%0,                       Wei-Min%Li%NULL%0,                       Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                       Shuyun%Xu%NULL%0,                       Muqing%Yu%NULL%0,                       Ke%Wang%NULL%0,                       Yu%Tao%NULL%0,                       Ying%Zhou%NULL%0,                       Jing%Shi%NULL%0,                       Min%Zhou%NULL%0,                       Bo%Wu%NULL%0,                       Zhenyu%Yang%NULL%0,                       Cong%Zhang%NULL%0,                       Junqing%Yue%NULL%0,                       Zhiguo%Zhang%NULL%0,                       Harald%Renz%NULL%0,                       Xiansheng%Liu%NULL%0,                       Jungang%Xie%NULL%0,                       Min%Xie%NULL%0,                       Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%1,                       Kipp W.%Johnson%NULL%1,                       James L.%Januzzi%NULL%1,                       Adam J.%Russak%NULL%1,                       Ishan%Paranjpe%NULL%0,                       Felix%Richter%NULL%0,                       Shan%Zhao%NULL%0,                       Sulaiman%Somani%NULL%0,                       Tielman%Van Vleck%NULL%1,                       Akhil%Vaid%NULL%0,                       Fayzan%Chaudhry%NULL%1,                       Jessica K.%De Freitas%NULL%1,                       Zahi A.%Fayad%NULL%1,                       Sean P.%Pinney%NULL%1,                       Matthew%Levin%NULL%1,                       Alexander%Charney%NULL%1,                       Emilia%Bagiella%NULL%0,                       Jagat%Narula%NULL%0,                       Benjamin S.%Glicksberg%NULL%1,                       Girish%Nadkarni%NULL%1,                       Donna M.%Mancini%NULL%1,                       Valentin%Fuster%NULL%0,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                       Yeming%Wang%NULL%0,                       Xingwang%Li%NULL%0,                       Lili%Ren%NULL%0,                       Jianping%Zhao%NULL%0,                       Yi%Hu%NULL%0,                       Li%Zhang%NULL%0,                       Guohui%Fan%NULL%0,                       Jiuyang%Xu%NULL%0,                       Xiaoying%Gu%NULL%0,                       Zhenshun%Cheng%NULL%0,                       Ting%Yu%NULL%0,                       Jiaan%Xia%NULL%0,                       Yuan%Wei%NULL%0,                       Wenjuan%Wu%NULL%0,                       Xuelei%Xie%NULL%0,                       Wen%Yin%NULL%0,                       Hui%Li%NULL%0,                       Min%Liu%NULL%0,                       Yan%Xiao%NULL%0,                       Hong%Gao%NULL%0,                       Li%Guo%NULL%0,                       Jungang%Xie%NULL%0,                       Guangfa%Wang%NULL%0,                       Rongmeng%Jiang%NULL%0,                       Zhancheng%Gao%NULL%0,                       Qi%Jin%NULL%0,                       Jianwei%Wang%wangjw28@163.com%0,                       Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                       Linlin%Xie%NULL%1,                       Rui%Liu%NULL%1,                       Jie%Yang%NULL%0,                       Fang%Liu%NULL%2,                       Kailang%Wu%NULL%2,                       Lang%Chen%NULL%1,                       Wei%Hou%NULL%0,                       Yong%Feng%yongfeng@whu.edu.cn%0,                       Chengliang%Zhu%xinchengzhu@163.com%2,                       Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0,                       Bo%Hu%NULL%1,                       Yao%Zhang%NULL%0,                       Hao%Wang%NULL%0,                       Xiaoyang%Zhou%NULL%1,                       Wei%Hu%NULL%1,                       Yuting%Cheng%NULL%1,                       Jie%Yan%NULL%0,                       Haiqin%Ping%NULL%1,                       Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%1,                       Xien%Gui%NULL%1,                       Yongxi%Zhang%NULL%0,                       Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                       Yuan%Yu%NULL%0,                       Jiqian%Xu%NULL%0,                       Huaqing%Shu%NULL%0,                       Jia'an%Xia%NULL%0,                       Hong%Liu%NULL%0,                       Yongran%Wu%NULL%0,                       Lu%Zhang%NULL%0,                       Zhui%Yu%NULL%0,                       Minghao%Fang%NULL%0,                       Ting%Yu%NULL%0,                       Yaxin%Wang%NULL%0,                       Shangwen%Pan%NULL%0,                       Xiaojing%Zou%NULL%0,                       Shiying%Yuan%NULL%0,                       You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                      Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%1,                      Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%1,                      Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%1,                      Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0,                       Miao%Yu%NULL%0,                       Tian%Xie%NULL%0,                       Fen%Yang%NULL%0,                       Hong-Bo%Wang%NULL%0,                       Zhao-Hui%Wang%NULL%0,                       Ming%Li%NULL%0,                       Xing-Li%Gao%NULL%0,                       Bing-Jie%Lv%NULL%0,                       Shi-Jia%Wang%NULL%0,                       Xiao-Bo%Zhang%NULL%0,                       Shao-Lin%He%NULL%0,                       Zhi-Hua%Qiu%NULL%0,                       Yu-Hua%Liao%NULL%0,                       Zi-Hua%Zhou%NULL%0,                       Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                       Yongzhen%Fan%NULL%0,                       Ming%Chen%NULL%0,                       Xiaoyan%Wu%NULL%0,                       Lin%Zhang%NULL%0,                       Tao%He%NULL%0,                       Hairong%Wang%NULL%0,                       Jing%Wan%NULL%0,                       Xinghuan%Wang%NULL%0,                       Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                       Wei%Liu%NULL%0,                       Kui%Liu%NULL%0,                       Yuan-Yuan%Fang%NULL%0,                       Jin%Shang%NULL%1,                       Ling%Zhou%NULL%0,                       Ke%Wang%NULL%0,                       Fan%Leng%NULL%1,                       Shuang%Wei%NULL%0,                       Lei%Chen%NULL%1,                       Hui-Guo%Liu%NULL%0,                       Pei-Fang%Wei%NULL%0,                       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                       Di%Wu%NULL%0,                       Huilong%Chen%NULL%0,                       Weiming%Yan%NULL%0,                       Danlei%Yang%NULL%0,                       Guang%Chen%NULL%0,                       Ke%Ma%NULL%0,                       Dong%Xu%NULL%0,                       Haijing%Yu%NULL%0,                       Hongwu%Wang%NULL%0,                       Tao%Wang%NULL%0,                       Wei%Guo%NULL%0,                       Jia%Chen%NULL%0,                       Chen%Ding%NULL%0,                       Xiaoping%Zhang%NULL%0,                       Jiaquan%Huang%NULL%0,                       Meifang%Han%NULL%0,                       Shusheng%Li%NULL%0,                       Xiaoping%Luo%NULL%0,                       Jianping%Zhao%NULL%0,                       Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                        Ting%Yu%NULL%0,                        Ronghui%Du%NULL%0,                        Guohui%Fan%NULL%0,                        Ying%Liu%NULL%0,                        Zhibo%Liu%NULL%0,                        Jie%Xiang%NULL%0,                        Yeming%Wang%NULL%0,                        Bin%Song%NULL%0,                        Xiaoying%Gu%NULL%0,                        Lulu%Guan%NULL%0,                        Yuan%Wei%NULL%0,                        Hui%Li%NULL%0,                        Xudong%Wu%NULL%0,                        Jiuyang%Xu%NULL%0,                        Shengjin%Tu%NULL%0,                        Yi%Zhang%NULL%0,                        Hua%Chen%NULL%0,                        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                       Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                       Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                       Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0,                        Kwan Ho%Lee%NULL%2,                        Kwan Ho%Lee%NULL%0,                        Jin Hong%Chung%NULL%2,                        Jin Hong%Chung%NULL%0,                        Kyeong-Cheol%Shin%NULL%2,                        Kyeong-Cheol%Shin%NULL%0,                        Eun Young%Choi%NULL%2,                        Eun Young%Choi%NULL%0,                        Hyun Jung%Jin%NULL%2,                        Hyun Jung%Jin%NULL%0,                        Jong Geol%Jang%NULL%2,                        Jong Geol%Jang%NULL%0,                        Wonhwa%Lee%NULL%2,                        Wonhwa%Lee%NULL%0,                        June Hong%Ahn%NULL%0,                        June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,                       Aggarwal%Saurabh%coreGivesNoEmail%0,                       Garcia-Telles%Nelson%coreGivesNoEmail%0,                       Henry%Brandon Michael%coreGivesNoEmail%0,                       Lavie%Carl%coreGivesNoEmail%0,                       Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                        Dan%Xu%NULL%0,                        Shouzhi%Fu%NULL%0,                        Jun%Zhang%NULL%0,                        Xiaobo%Yang%NULL%0,                        Liang%Xu%NULL%0,                        Jiqian%Xu%NULL%0,                        Yongran%Wu%NULL%0,                        Chaolin%Huang%NULL%0,                        Yaqi%Ouyang%NULL%0,                        Luyu%Yang%NULL%0,                        Minghao%Fang%NULL%0,                        Hongwen%Xiao%NULL%0,                        Jing%Ma%NULL%0,                        Wei%Zhu%NULL%0,                        Song%Hu%NULL%0,                        Quan%Hu%NULL%0,                        Daoyin%Ding%NULL%0,                        Ming%Hu%NULL%0,                        Guochao%Zhu%NULL%0,                        Weijiang%Xu%NULL%0,                        Jun%Guo%NULL%0,                        Jinglong%Xu%NULL%0,                        Haitao%Yuan%NULL%0,                        Bin%Zhang%NULL%0,                        Zhui%Yu%yuzhui@whu.edu.cn%0,                        Dechang%Chen%icudechangchen@163.com%0,                        Shiying%Yuan%yuan_shiying@163.com%0,                        You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0,                        Shaobo%Shi%NULL%2,                        Shaobo%Shi%NULL%0,                        Jiling%Zhu%NULL%1,                        Jinzhi%Shi%NULL%1,                        Kai%Dai%NULL%1,                        Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0,                        Fang-Yang%Huang%NULL%0,                        Tian-Yuan%Xiong%NULL%0,                        Tian-Yuan%Xiong%NULL%0,                        Qi%Liu%NULL%0,                        Hong%Chen%NULL%0,                        Hui%Wang%NULL%0,                        He%Huang%NULL%0,                        Yi-Chun%Luo%NULL%0,                        Xuan%Zhou%NULL%0,                        Zhi-Yue%Liu%NULL%0,                        Yong%Peng%NULL%0,                        Yuan-Ning%Xu%NULL%0,                        Bo%Wang%NULL%0,                        Ying-Ying%Yang%NULL%0,                        Zong-An%Liang%NULL%0,                        Xue-Zhong%Lei%NULL%0,                        Yang%Ge%NULL%0,                        Ming%Yang%NULL%0,                        Ling%Zhang%NULL%0,                        Ming-Quan%Zeng%NULL%0,                        He%Yu%NULL%0,                        Kai%Liu%NULL%0,                        Yu-Heng%Jia%NULL%0,                        Bernard D%Prendergast%NULL%0,                        Wei-Min%Li%NULL%0,                        Wei-Min%Li%NULL%0,                        Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                        Shuyun%Xu%NULL%0,                        Muqing%Yu%NULL%0,                        Ke%Wang%NULL%0,                        Yu%Tao%NULL%0,                        Ying%Zhou%NULL%0,                        Jing%Shi%NULL%0,                        Min%Zhou%NULL%0,                        Bo%Wu%NULL%0,                        Zhenyu%Yang%NULL%0,                        Cong%Zhang%NULL%0,                        Junqing%Yue%NULL%0,                        Zhiguo%Zhang%NULL%0,                        Harald%Renz%NULL%0,                        Xiansheng%Liu%NULL%0,                        Jungang%Xie%NULL%0,                        Min%Xie%NULL%0,                        Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%1,                        Kipp W.%Johnson%NULL%1,                        James L.%Januzzi%NULL%1,                        Adam J.%Russak%NULL%1,                        Ishan%Paranjpe%NULL%0,                        Felix%Richter%NULL%0,                        Shan%Zhao%NULL%0,                        Sulaiman%Somani%NULL%0,                        Tielman%Van Vleck%NULL%1,                        Akhil%Vaid%NULL%0,                        Fayzan%Chaudhry%NULL%1,                        Jessica K.%De Freitas%NULL%1,                        Zahi A.%Fayad%NULL%1,                        Sean P.%Pinney%NULL%1,                        Matthew%Levin%NULL%1,                        Alexander%Charney%NULL%1,                        Emilia%Bagiella%NULL%0,                        Jagat%Narula%NULL%0,                        Benjamin S.%Glicksberg%NULL%1,                        Girish%Nadkarni%NULL%1,                        Donna M.%Mancini%NULL%1,                        Valentin%Fuster%NULL%0,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                        Yeming%Wang%NULL%0,                        Xingwang%Li%NULL%0,                        Lili%Ren%NULL%0,                        Jianping%Zhao%NULL%0,                        Yi%Hu%NULL%0,                        Li%Zhang%NULL%0,                        Guohui%Fan%NULL%0,                        Jiuyang%Xu%NULL%0,                        Xiaoying%Gu%NULL%0,                        Zhenshun%Cheng%NULL%0,                        Ting%Yu%NULL%0,                        Jiaan%Xia%NULL%0,                        Yuan%Wei%NULL%0,                        Wenjuan%Wu%NULL%0,                        Xuelei%Xie%NULL%0,                        Wen%Yin%NULL%0,                        Hui%Li%NULL%0,                        Min%Liu%NULL%0,                        Yan%Xiao%NULL%0,                        Hong%Gao%NULL%0,                        Li%Guo%NULL%0,                        Jungang%Xie%NULL%0,                        Guangfa%Wang%NULL%0,                        Rongmeng%Jiang%NULL%0,                        Zhancheng%Gao%NULL%0,                        Qi%Jin%NULL%0,                        Jianwei%Wang%wangjw28@163.com%0,                        Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                        Linlin%Xie%NULL%1,                        Rui%Liu%NULL%1,                        Jie%Yang%NULL%0,                        Fang%Liu%NULL%2,                        Kailang%Wu%NULL%2,                        Lang%Chen%NULL%1,                        Wei%Hou%NULL%0,                        Yong%Feng%yongfeng@whu.edu.cn%0,                        Chengliang%Zhu%xinchengzhu@163.com%2,                        Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0,                        Bo%Hu%NULL%1,                        Yao%Zhang%NULL%0,                        Hao%Wang%NULL%0,                        Xiaoyang%Zhou%NULL%1,                        Wei%Hu%NULL%1,                        Yuting%Cheng%NULL%1,                        Jie%Yan%NULL%0,                        Haiqin%Ping%NULL%1,                        Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%1,                        Xien%Gui%NULL%1,                        Yongxi%Zhang%NULL%0,                        Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                        Yuan%Yu%NULL%0,                        Jiqian%Xu%NULL%0,                        Huaqing%Shu%NULL%0,                        Jia'an%Xia%NULL%0,                        Hong%Liu%NULL%0,                        Yongran%Wu%NULL%0,                        Lu%Zhang%NULL%0,                        Zhui%Yu%NULL%0,                        Minghao%Fang%NULL%0,                        Ting%Yu%NULL%0,                        Yaxin%Wang%NULL%0,                        Shangwen%Pan%NULL%0,                        Xiaojing%Zou%NULL%0,                        Shiying%Yuan%NULL%0,                        You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                       Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%1,                       Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%1,                       Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%1,                       Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0,                        Miao%Yu%NULL%0,                        Tian%Xie%NULL%0,                        Fen%Yang%NULL%0,                        Hong-Bo%Wang%NULL%0,                        Zhao-Hui%Wang%NULL%0,                        Ming%Li%NULL%0,                        Xing-Li%Gao%NULL%0,                        Bing-Jie%Lv%NULL%0,                        Shi-Jia%Wang%NULL%0,                        Xiao-Bo%Zhang%NULL%0,                        Shao-Lin%He%NULL%0,                        Zhi-Hua%Qiu%NULL%0,                        Yu-Hua%Liao%NULL%0,                        Zi-Hua%Zhou%NULL%0,                        Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                        Yongzhen%Fan%NULL%0,                        Ming%Chen%NULL%0,                        Xiaoyan%Wu%NULL%0,                        Lin%Zhang%NULL%0,                        Tao%He%NULL%0,                        Hairong%Wang%NULL%0,                        Jing%Wan%NULL%0,                        Xinghuan%Wang%NULL%0,                        Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                        Wei%Liu%NULL%0,                        Kui%Liu%NULL%0,                        Yuan-Yuan%Fang%NULL%0,                        Jin%Shang%NULL%1,                        Ling%Zhou%NULL%0,                        Ke%Wang%NULL%0,                        Fan%Leng%NULL%1,                        Shuang%Wei%NULL%0,                        Lei%Chen%NULL%1,                        Hui-Guo%Liu%NULL%0,                        Pei-Fang%Wei%NULL%0,                        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                        Di%Wu%NULL%0,                        Huilong%Chen%NULL%0,                        Weiming%Yan%NULL%0,                        Danlei%Yang%NULL%0,                        Guang%Chen%NULL%0,                        Ke%Ma%NULL%0,                        Dong%Xu%NULL%0,                        Haijing%Yu%NULL%0,                        Hongwu%Wang%NULL%0,                        Tao%Wang%NULL%0,                        Wei%Guo%NULL%0,                        Jia%Chen%NULL%0,                        Chen%Ding%NULL%0,                        Xiaoping%Zhang%NULL%0,                        Jiaquan%Huang%NULL%0,                        Meifang%Han%NULL%0,                        Shusheng%Li%NULL%0,                        Xiaoping%Luo%NULL%0,                        Jianping%Zhao%NULL%0,                        Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                         Ting%Yu%NULL%0,                         Ronghui%Du%NULL%0,                         Guohui%Fan%NULL%0,                         Ying%Liu%NULL%0,                         Zhibo%Liu%NULL%0,                         Jie%Xiang%NULL%0,                         Yeming%Wang%NULL%0,                         Bin%Song%NULL%0,                         Xiaoying%Gu%NULL%0,                         Lulu%Guan%NULL%0,                         Yuan%Wei%NULL%0,                         Hui%Li%NULL%0,                         Xudong%Wu%NULL%0,                         Jiuyang%Xu%NULL%0,                         Shengjin%Tu%NULL%0,                         Yi%Zhang%NULL%0,                         Hua%Chen%NULL%0,                         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                        Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                        Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                        Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0,                         Kwan Ho%Lee%NULL%2,                         Kwan Ho%Lee%NULL%0,                         Jin Hong%Chung%NULL%2,                         Jin Hong%Chung%NULL%0,                         Kyeong-Cheol%Shin%NULL%2,                         Kyeong-Cheol%Shin%NULL%0,                         Eun Young%Choi%NULL%2,                         Eun Young%Choi%NULL%0,                         Hyun Jung%Jin%NULL%2,                         Hyun Jung%Jin%NULL%0,                         Jong Geol%Jang%NULL%2,                         Jong Geol%Jang%NULL%0,                         Wonhwa%Lee%NULL%2,                         Wonhwa%Lee%NULL%0,                         June Hong%Ahn%NULL%0,                         June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,                        Aggarwal%Saurabh%coreGivesNoEmail%0,                        Garcia-Telles%Nelson%coreGivesNoEmail%0,                        Henry%Brandon Michael%coreGivesNoEmail%0,                        Lavie%Carl%coreGivesNoEmail%0,                        Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                         Dan%Xu%NULL%0,                         Shouzhi%Fu%NULL%0,                         Jun%Zhang%NULL%0,                         Xiaobo%Yang%NULL%0,                         Liang%Xu%NULL%0,                         Jiqian%Xu%NULL%0,                         Yongran%Wu%NULL%0,                         Chaolin%Huang%NULL%0,                         Yaqi%Ouyang%NULL%0,                         Luyu%Yang%NULL%0,                         Minghao%Fang%NULL%0,                         Hongwen%Xiao%NULL%0,                         Jing%Ma%NULL%0,                         Wei%Zhu%NULL%0,                         Song%Hu%NULL%0,                         Quan%Hu%NULL%0,                         Daoyin%Ding%NULL%0,                         Ming%Hu%NULL%0,                         Guochao%Zhu%NULL%0,                         Weijiang%Xu%NULL%0,                         Jun%Guo%NULL%0,                         Jinglong%Xu%NULL%0,                         Haitao%Yuan%NULL%0,                         Bin%Zhang%NULL%0,                         Zhui%Yu%yuzhui@whu.edu.cn%0,                         Dechang%Chen%icudechangchen@163.com%0,                         Shiying%Yuan%yuan_shiying@163.com%0,                         You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0,                         Shaobo%Shi%NULL%2,                         Shaobo%Shi%NULL%0,                         Jiling%Zhu%NULL%1,                         Jinzhi%Shi%NULL%1,                         Kai%Dai%NULL%1,                         Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0,                         Fang-Yang%Huang%NULL%0,                         Tian-Yuan%Xiong%NULL%0,                         Tian-Yuan%Xiong%NULL%0,                         Qi%Liu%NULL%0,                         Hong%Chen%NULL%0,                         Hui%Wang%NULL%0,                         He%Huang%NULL%0,                         Yi-Chun%Luo%NULL%0,                         Xuan%Zhou%NULL%0,                         Zhi-Yue%Liu%NULL%0,                         Yong%Peng%NULL%0,                         Yuan-Ning%Xu%NULL%0,                         Bo%Wang%NULL%0,                         Ying-Ying%Yang%NULL%0,                         Zong-An%Liang%NULL%0,                         Xue-Zhong%Lei%NULL%0,                         Yang%Ge%NULL%0,                         Ming%Yang%NULL%0,                         Ling%Zhang%NULL%0,                         Ming-Quan%Zeng%NULL%0,                         He%Yu%NULL%0,                         Kai%Liu%NULL%0,                         Yu-Heng%Jia%NULL%0,                         Bernard D%Prendergast%NULL%0,                         Wei-Min%Li%NULL%0,                         Wei-Min%Li%NULL%0,                         Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                         Shuyun%Xu%NULL%0,                         Muqing%Yu%NULL%0,                         Ke%Wang%NULL%0,                         Yu%Tao%NULL%0,                         Ying%Zhou%NULL%0,                         Jing%Shi%NULL%0,                         Min%Zhou%NULL%0,                         Bo%Wu%NULL%0,                         Zhenyu%Yang%NULL%0,                         Cong%Zhang%NULL%0,                         Junqing%Yue%NULL%0,                         Zhiguo%Zhang%NULL%0,                         Harald%Renz%NULL%0,                         Xiansheng%Liu%NULL%0,                         Jungang%Xie%NULL%0,                         Min%Xie%NULL%0,                         Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%1,                         Kipp W.%Johnson%NULL%1,                         James L.%Januzzi%NULL%1,                         Adam J.%Russak%NULL%1,                         Ishan%Paranjpe%NULL%0,                         Felix%Richter%NULL%0,                         Shan%Zhao%NULL%0,                         Sulaiman%Somani%NULL%0,                         Tielman%Van Vleck%NULL%1,                         Akhil%Vaid%NULL%0,                         Fayzan%Chaudhry%NULL%1,                         Jessica K.%De Freitas%NULL%1,                         Zahi A.%Fayad%NULL%1,                         Sean P.%Pinney%NULL%1,                         Matthew%Levin%NULL%1,                         Alexander%Charney%NULL%1,                         Emilia%Bagiella%NULL%0,                         Jagat%Narula%NULL%0,                         Benjamin S.%Glicksberg%NULL%1,                         Girish%Nadkarni%NULL%1,                         Donna M.%Mancini%NULL%1,                         Valentin%Fuster%NULL%0,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                         Yeming%Wang%NULL%0,                         Xingwang%Li%NULL%0,                         Lili%Ren%NULL%0,                         Jianping%Zhao%NULL%0,                         Yi%Hu%NULL%0,                         Li%Zhang%NULL%0,                         Guohui%Fan%NULL%0,                         Jiuyang%Xu%NULL%0,                         Xiaoying%Gu%NULL%0,                         Zhenshun%Cheng%NULL%0,                         Ting%Yu%NULL%0,                         Jiaan%Xia%NULL%0,                         Yuan%Wei%NULL%0,                         Wenjuan%Wu%NULL%0,                         Xuelei%Xie%NULL%0,                         Wen%Yin%NULL%0,                         Hui%Li%NULL%0,                         Min%Liu%NULL%0,                         Yan%Xiao%NULL%0,                         Hong%Gao%NULL%0,                         Li%Guo%NULL%0,                         Jungang%Xie%NULL%0,                         Guangfa%Wang%NULL%0,                         Rongmeng%Jiang%NULL%0,                         Zhancheng%Gao%NULL%0,                         Qi%Jin%NULL%0,                         Jianwei%Wang%wangjw28@163.com%0,                         Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                         Linlin%Xie%NULL%1,                         Rui%Liu%NULL%1,                         Jie%Yang%NULL%0,                         Fang%Liu%NULL%2,                         Kailang%Wu%NULL%2,                         Lang%Chen%NULL%1,                         Wei%Hou%NULL%0,                         Yong%Feng%yongfeng@whu.edu.cn%0,                         Chengliang%Zhu%xinchengzhu@163.com%2,                         Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0,                         Bo%Hu%NULL%1,                         Yao%Zhang%NULL%0,                         Hao%Wang%NULL%0,                         Xiaoyang%Zhou%NULL%1,                         Wei%Hu%NULL%1,                         Yuting%Cheng%NULL%1,                         Jie%Yan%NULL%0,                         Haiqin%Ping%NULL%1,                         Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%1,                         Xien%Gui%NULL%1,                         Yongxi%Zhang%NULL%0,                         Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                         Yuan%Yu%NULL%0,                         Jiqian%Xu%NULL%0,                         Huaqing%Shu%NULL%0,                         Jia'an%Xia%NULL%0,                         Hong%Liu%NULL%0,                         Yongran%Wu%NULL%0,                         Lu%Zhang%NULL%0,                         Zhui%Yu%NULL%0,                         Minghao%Fang%NULL%0,                         Ting%Yu%NULL%0,                         Yaxin%Wang%NULL%0,                         Shangwen%Pan%NULL%0,                         Xiaojing%Zou%NULL%0,                         Shiying%Yuan%NULL%0,                         You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                        Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%1,                        Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%1,                        Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%1,                        Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0,                         Miao%Yu%NULL%0,                         Tian%Xie%NULL%0,                         Fen%Yang%NULL%0,                         Hong-Bo%Wang%NULL%0,                         Zhao-Hui%Wang%NULL%0,                         Ming%Li%NULL%0,                         Xing-Li%Gao%NULL%0,                         Bing-Jie%Lv%NULL%0,                         Shi-Jia%Wang%NULL%0,                         Xiao-Bo%Zhang%NULL%0,                         Shao-Lin%He%NULL%0,                         Zhi-Hua%Qiu%NULL%0,                         Yu-Hua%Liao%NULL%0,                         Zi-Hua%Zhou%NULL%0,                         Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                         Yongzhen%Fan%NULL%0,                         Ming%Chen%NULL%0,                         Xiaoyan%Wu%NULL%0,                         Lin%Zhang%NULL%0,                         Tao%He%NULL%0,                         Hairong%Wang%NULL%0,                         Jing%Wan%NULL%0,                         Xinghuan%Wang%NULL%0,                         Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                         Wei%Liu%NULL%0,                         Kui%Liu%NULL%0,                         Yuan-Yuan%Fang%NULL%0,                         Jin%Shang%NULL%1,                         Ling%Zhou%NULL%0,                         Ke%Wang%NULL%0,                         Fan%Leng%NULL%1,                         Shuang%Wei%NULL%0,                         Lei%Chen%NULL%1,                         Hui-Guo%Liu%NULL%0,                         Pei-Fang%Wei%NULL%0,                         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                         Di%Wu%NULL%0,                         Huilong%Chen%NULL%0,                         Weiming%Yan%NULL%0,                         Danlei%Yang%NULL%0,                         Guang%Chen%NULL%0,                         Ke%Ma%NULL%0,                         Dong%Xu%NULL%0,                         Haijing%Yu%NULL%0,                         Hongwu%Wang%NULL%0,                         Tao%Wang%NULL%0,                         Wei%Guo%NULL%0,                         Jia%Chen%NULL%0,                         Chen%Ding%NULL%0,                         Xiaoping%Zhang%NULL%0,                         Jiaquan%Huang%NULL%0,                         Meifang%Han%NULL%0,                         Shusheng%Li%NULL%0,                         Xiaoping%Luo%NULL%0,                         Jianping%Zhao%NULL%0,                         Qin%Ning%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2145,6 +2439,9 @@
       <c r="I1" t="s">
         <v>155</v>
       </c>
+      <c r="J1" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -2160,7 +2457,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>483</v>
+        <v>582</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -2173,6 +2470,9 @@
       </c>
       <c r="I2" t="s">
         <v>460</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3">
@@ -2189,7 +2489,7 @@
         <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>484</v>
+        <v>583</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2202,6 +2502,9 @@
       </c>
       <c r="I3" t="s">
         <v>462</v>
+      </c>
+      <c r="J3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4">
@@ -2218,7 +2521,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>485</v>
+        <v>584</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -2231,6 +2534,9 @@
       </c>
       <c r="I4" t="s">
         <v>464</v>
+      </c>
+      <c r="J4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5">
@@ -2247,7 +2553,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>486</v>
+        <v>321</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2256,10 +2562,13 @@
         <v>240</v>
       </c>
       <c r="H5" t="s">
-        <v>241</v>
+        <v>507</v>
       </c>
       <c r="I5" t="s">
-        <v>462</v>
+        <v>94</v>
+      </c>
+      <c r="J5" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="6">
@@ -2276,7 +2585,7 @@
         <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>487</v>
+        <v>585</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2289,6 +2598,9 @@
       </c>
       <c r="I6" t="s">
         <v>462</v>
+      </c>
+      <c r="J6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -2305,7 +2617,7 @@
         <v>323</v>
       </c>
       <c r="E7" t="s">
-        <v>488</v>
+        <v>586</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -2318,6 +2630,9 @@
       </c>
       <c r="I7" t="s">
         <v>468</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -2334,7 +2649,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>489</v>
+        <v>587</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -2347,6 +2662,9 @@
       </c>
       <c r="I8" t="s">
         <v>464</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -2363,7 +2681,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>490</v>
+        <v>588</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -2376,6 +2694,9 @@
       </c>
       <c r="I9" t="s">
         <v>464</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10">
@@ -2392,7 +2713,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>491</v>
+        <v>589</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -2405,6 +2726,9 @@
       </c>
       <c r="I10" t="s">
         <v>460</v>
+      </c>
+      <c r="J10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11">
@@ -2421,7 +2745,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>492</v>
+        <v>590</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -2434,6 +2758,9 @@
       </c>
       <c r="I11" t="s">
         <v>460</v>
+      </c>
+      <c r="J11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="12">
@@ -2450,7 +2777,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>493</v>
+        <v>591</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -2463,6 +2790,9 @@
       </c>
       <c r="I12" t="s">
         <v>460</v>
+      </c>
+      <c r="J12" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="13">
@@ -2479,7 +2809,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>494</v>
+        <v>592</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -2492,6 +2822,9 @@
       </c>
       <c r="I13" t="s">
         <v>464</v>
+      </c>
+      <c r="J13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="14">
@@ -2508,7 +2841,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>495</v>
+        <v>593</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -2521,6 +2854,9 @@
       </c>
       <c r="I14" t="s">
         <v>460</v>
+      </c>
+      <c r="J14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="15">
@@ -2537,7 +2873,7 @@
         <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>496</v>
+        <v>594</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -2550,6 +2886,9 @@
       </c>
       <c r="I15" t="s">
         <v>464</v>
+      </c>
+      <c r="J15" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -2566,7 +2905,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>497</v>
+        <v>595</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -2579,6 +2918,9 @@
       </c>
       <c r="I16" t="s">
         <v>460</v>
+      </c>
+      <c r="J16" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17">
@@ -2595,7 +2937,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>498</v>
+        <v>596</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -2608,6 +2950,9 @@
       </c>
       <c r="I17" t="s">
         <v>462</v>
+      </c>
+      <c r="J17" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="18">
@@ -2624,7 +2969,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>499</v>
+        <v>597</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
@@ -2637,6 +2982,9 @@
       </c>
       <c r="I18" t="s">
         <v>464</v>
+      </c>
+      <c r="J18" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="19">
@@ -2653,7 +3001,7 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>500</v>
+        <v>598</v>
       </c>
       <c r="F19" t="s">
         <v>100</v>
@@ -2666,6 +3014,9 @@
       </c>
       <c r="I19" t="s">
         <v>464</v>
+      </c>
+      <c r="J19" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="20">
@@ -2682,7 +3033,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>501</v>
+        <v>599</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -2695,6 +3046,9 @@
       </c>
       <c r="I20" t="s">
         <v>464</v>
+      </c>
+      <c r="J20" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="21">
@@ -2711,7 +3065,7 @@
         <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>502</v>
+        <v>600</v>
       </c>
       <c r="F21" t="s">
         <v>109</v>
@@ -2724,6 +3078,9 @@
       </c>
       <c r="I21" t="s">
         <v>464</v>
+      </c>
+      <c r="J21" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/90.xlsx
+++ b/Covid_19_Dataset_and_References/References/90.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3908" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4244" uniqueCount="639">
   <si>
     <t>Doi</t>
   </si>
@@ -2120,6 +2120,120 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,                         Di%Wu%NULL%0,                         Huilong%Chen%NULL%0,                         Weiming%Yan%NULL%0,                         Danlei%Yang%NULL%0,                         Guang%Chen%NULL%0,                         Ke%Ma%NULL%0,                         Dong%Xu%NULL%0,                         Haijing%Yu%NULL%0,                         Hongwu%Wang%NULL%0,                         Tao%Wang%NULL%0,                         Wei%Guo%NULL%0,                         Jia%Chen%NULL%0,                         Chen%Ding%NULL%0,                         Xiaoping%Zhang%NULL%0,                         Jiaquan%Huang%NULL%0,                         Meifang%Han%NULL%0,                         Shusheng%Li%NULL%0,                         Xiaoping%Luo%NULL%0,                         Jianping%Zhao%NULL%0,                         Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                          Ting%Yu%NULL%0,                          Ronghui%Du%NULL%0,                          Guohui%Fan%NULL%0,                          Ying%Liu%NULL%0,                          Zhibo%Liu%NULL%0,                          Jie%Xiang%NULL%0,                          Yeming%Wang%NULL%0,                          Bin%Song%NULL%0,                          Xiaoying%Gu%NULL%0,                          Lulu%Guan%NULL%0,                          Yuan%Wei%NULL%0,                          Hui%Li%NULL%0,                          Xudong%Wu%NULL%0,                          Jiuyang%Xu%NULL%0,                          Shengjin%Tu%NULL%0,                          Yi%Zhang%NULL%0,                          Hua%Chen%NULL%0,                          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                         Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                         Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                         Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0,                          Kwan Ho%Lee%NULL%2,                          Kwan Ho%Lee%NULL%0,                          Jin Hong%Chung%NULL%2,                          Jin Hong%Chung%NULL%0,                          Kyeong-Cheol%Shin%NULL%2,                          Kyeong-Cheol%Shin%NULL%0,                          Eun Young%Choi%NULL%2,                          Eun Young%Choi%NULL%0,                          Hyun Jung%Jin%NULL%2,                          Hyun Jung%Jin%NULL%0,                          Jong Geol%Jang%NULL%2,                          Jong Geol%Jang%NULL%0,                          Wonhwa%Lee%NULL%2,                          Wonhwa%Lee%NULL%0,                          June Hong%Ahn%NULL%0,                          June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,                         Aggarwal%Saurabh%coreGivesNoEmail%0,                         Garcia-Telles%Nelson%coreGivesNoEmail%0,                         Henry%Brandon Michael%coreGivesNoEmail%0,                         Lavie%Carl%coreGivesNoEmail%0,                         Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                          Dan%Xu%NULL%0,                          Shouzhi%Fu%NULL%0,                          Jun%Zhang%NULL%0,                          Xiaobo%Yang%NULL%0,                          Liang%Xu%NULL%0,                          Jiqian%Xu%NULL%0,                          Yongran%Wu%NULL%0,                          Chaolin%Huang%NULL%0,                          Yaqi%Ouyang%NULL%0,                          Luyu%Yang%NULL%0,                          Minghao%Fang%NULL%0,                          Hongwen%Xiao%NULL%0,                          Jing%Ma%NULL%0,                          Wei%Zhu%NULL%0,                          Song%Hu%NULL%0,                          Quan%Hu%NULL%0,                          Daoyin%Ding%NULL%0,                          Ming%Hu%NULL%0,                          Guochao%Zhu%NULL%0,                          Weijiang%Xu%NULL%0,                          Jun%Guo%NULL%0,                          Jinglong%Xu%NULL%0,                          Haitao%Yuan%NULL%0,                          Bin%Zhang%NULL%0,                          Zhui%Yu%yuzhui@whu.edu.cn%0,                          Dechang%Chen%icudechangchen@163.com%0,                          Shiying%Yuan%yuan_shiying@163.com%0,                          You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0,                          Shaobo%Shi%NULL%2,                          Shaobo%Shi%NULL%0,                          Jiling%Zhu%NULL%1,                          Jinzhi%Shi%NULL%1,                          Kai%Dai%NULL%1,                          Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0,                          Fang-Yang%Huang%NULL%0,                          Tian-Yuan%Xiong%NULL%0,                          Tian-Yuan%Xiong%NULL%0,                          Qi%Liu%NULL%0,                          Hong%Chen%NULL%0,                          Hui%Wang%NULL%0,                          He%Huang%NULL%0,                          Yi-Chun%Luo%NULL%0,                          Xuan%Zhou%NULL%0,                          Zhi-Yue%Liu%NULL%0,                          Yong%Peng%NULL%0,                          Yuan-Ning%Xu%NULL%0,                          Bo%Wang%NULL%0,                          Ying-Ying%Yang%NULL%0,                          Zong-An%Liang%NULL%0,                          Xue-Zhong%Lei%NULL%0,                          Yang%Ge%NULL%0,                          Ming%Yang%NULL%0,                          Ling%Zhang%NULL%0,                          Ming-Quan%Zeng%NULL%0,                          He%Yu%NULL%0,                          Kai%Liu%NULL%0,                          Yu-Heng%Jia%NULL%0,                          Bernard D%Prendergast%NULL%0,                          Wei-Min%Li%NULL%0,                          Wei-Min%Li%NULL%0,                          Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                          Shuyun%Xu%NULL%0,                          Muqing%Yu%NULL%0,                          Ke%Wang%NULL%0,                          Yu%Tao%NULL%0,                          Ying%Zhou%NULL%0,                          Jing%Shi%NULL%0,                          Min%Zhou%NULL%0,                          Bo%Wu%NULL%0,                          Zhenyu%Yang%NULL%0,                          Cong%Zhang%NULL%0,                          Junqing%Yue%NULL%0,                          Zhiguo%Zhang%NULL%0,                          Harald%Renz%NULL%0,                          Xiansheng%Liu%NULL%0,                          Jungang%Xie%NULL%0,                          Min%Xie%NULL%0,                          Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%1,                          Kipp W.%Johnson%NULL%1,                          James L.%Januzzi%NULL%1,                          Adam J.%Russak%NULL%1,                          Ishan%Paranjpe%NULL%0,                          Felix%Richter%NULL%0,                          Shan%Zhao%NULL%0,                          Sulaiman%Somani%NULL%0,                          Tielman%Van Vleck%NULL%1,                          Akhil%Vaid%NULL%0,                          Fayzan%Chaudhry%NULL%1,                          Jessica K.%De Freitas%NULL%1,                          Zahi A.%Fayad%NULL%1,                          Sean P.%Pinney%NULL%1,                          Matthew%Levin%NULL%1,                          Alexander%Charney%NULL%1,                          Emilia%Bagiella%NULL%0,                          Jagat%Narula%NULL%0,                          Benjamin S.%Glicksberg%NULL%1,                          Girish%Nadkarni%NULL%1,                          Donna M.%Mancini%NULL%1,                          Valentin%Fuster%NULL%0,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                          Yeming%Wang%NULL%0,                          Xingwang%Li%NULL%0,                          Lili%Ren%NULL%0,                          Jianping%Zhao%NULL%0,                          Yi%Hu%NULL%0,                          Li%Zhang%NULL%0,                          Guohui%Fan%NULL%0,                          Jiuyang%Xu%NULL%0,                          Xiaoying%Gu%NULL%0,                          Zhenshun%Cheng%NULL%0,                          Ting%Yu%NULL%0,                          Jiaan%Xia%NULL%0,                          Yuan%Wei%NULL%0,                          Wenjuan%Wu%NULL%0,                          Xuelei%Xie%NULL%0,                          Wen%Yin%NULL%0,                          Hui%Li%NULL%0,                          Min%Liu%NULL%0,                          Yan%Xiao%NULL%0,                          Hong%Gao%NULL%0,                          Li%Guo%NULL%0,                          Jungang%Xie%NULL%0,                          Guangfa%Wang%NULL%0,                          Rongmeng%Jiang%NULL%0,                          Zhancheng%Gao%NULL%0,                          Qi%Jin%NULL%0,                          Jianwei%Wang%wangjw28@163.com%0,                          Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                          Linlin%Xie%NULL%1,                          Rui%Liu%NULL%1,                          Jie%Yang%NULL%0,                          Fang%Liu%NULL%2,                          Kailang%Wu%NULL%2,                          Lang%Chen%NULL%1,                          Wei%Hou%NULL%0,                          Yong%Feng%yongfeng@whu.edu.cn%0,                          Chengliang%Zhu%xinchengzhu@163.com%2,                          Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0,                          Bo%Hu%NULL%1,                          Yao%Zhang%NULL%0,                          Hao%Wang%NULL%0,                          Xiaoyang%Zhou%NULL%1,                          Wei%Hu%NULL%1,                          Yuting%Cheng%NULL%1,                          Jie%Yan%NULL%0,                          Haiqin%Ping%NULL%1,                          Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%1,                          Xien%Gui%NULL%1,                          Yongxi%Zhang%NULL%0,                          Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                          Yuan%Yu%NULL%0,                          Jiqian%Xu%NULL%0,                          Huaqing%Shu%NULL%0,                          Jia'an%Xia%NULL%0,                          Hong%Liu%NULL%0,                          Yongran%Wu%NULL%0,                          Lu%Zhang%NULL%0,                          Zhui%Yu%NULL%0,                          Minghao%Fang%NULL%0,                          Ting%Yu%NULL%0,                          Yaxin%Wang%NULL%0,                          Shangwen%Pan%NULL%0,                          Xiaojing%Zou%NULL%0,                          Shiying%Yuan%NULL%0,                          You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                         Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%1,                         Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%1,                         Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%1,                         Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0,                          Miao%Yu%NULL%0,                          Tian%Xie%NULL%0,                          Fen%Yang%NULL%0,                          Hong-Bo%Wang%NULL%0,                          Zhao-Hui%Wang%NULL%0,                          Ming%Li%NULL%0,                          Xing-Li%Gao%NULL%0,                          Bing-Jie%Lv%NULL%0,                          Shi-Jia%Wang%NULL%0,                          Xiao-Bo%Zhang%NULL%0,                          Shao-Lin%He%NULL%0,                          Zhi-Hua%Qiu%NULL%0,                          Yu-Hua%Liao%NULL%0,                          Zi-Hua%Zhou%NULL%0,                          Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                          Yongzhen%Fan%NULL%0,                          Ming%Chen%NULL%0,                          Xiaoyan%Wu%NULL%0,                          Lin%Zhang%NULL%0,                          Tao%He%NULL%0,                          Hairong%Wang%NULL%0,                          Jing%Wan%NULL%0,                          Xinghuan%Wang%NULL%0,                          Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                          Wei%Liu%NULL%0,                          Kui%Liu%NULL%0,                          Yuan-Yuan%Fang%NULL%0,                          Jin%Shang%NULL%1,                          Ling%Zhou%NULL%0,                          Ke%Wang%NULL%0,                          Fan%Leng%NULL%1,                          Shuang%Wei%NULL%0,                          Lei%Chen%NULL%1,                          Hui-Guo%Liu%NULL%0,                          Pei-Fang%Wei%NULL%0,                          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                          Di%Wu%NULL%0,                          Huilong%Chen%NULL%0,                          Weiming%Yan%NULL%0,                          Danlei%Yang%NULL%0,                          Guang%Chen%NULL%0,                          Ke%Ma%NULL%0,                          Dong%Xu%NULL%0,                          Haijing%Yu%NULL%0,                          Hongwu%Wang%NULL%0,                          Tao%Wang%NULL%0,                          Wei%Guo%NULL%0,                          Jia%Chen%NULL%0,                          Chen%Ding%NULL%0,                          Xiaoping%Zhang%NULL%0,                          Jiaquan%Huang%NULL%0,                          Meifang%Han%NULL%0,                          Shusheng%Li%NULL%0,                          Xiaoping%Luo%NULL%0,                          Jianping%Zhao%NULL%0,                          Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                           Ting%Yu%NULL%0,                           Ronghui%Du%NULL%0,                           Guohui%Fan%NULL%0,                           Ying%Liu%NULL%0,                           Zhibo%Liu%NULL%0,                           Jie%Xiang%NULL%0,                           Yeming%Wang%NULL%0,                           Bin%Song%NULL%0,                           Xiaoying%Gu%NULL%0,                           Lulu%Guan%NULL%0,                           Yuan%Wei%NULL%0,                           Hui%Li%NULL%0,                           Xudong%Wu%NULL%0,                           Jiuyang%Xu%NULL%0,                           Shengjin%Tu%NULL%0,                           Yi%Zhang%NULL%0,                           Hua%Chen%NULL%0,                           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                          Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                          Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                          Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0,                           Kwan Ho%Lee%NULL%2,                           Kwan Ho%Lee%NULL%0,                           Jin Hong%Chung%NULL%2,                           Jin Hong%Chung%NULL%0,                           Kyeong-Cheol%Shin%NULL%2,                           Kyeong-Cheol%Shin%NULL%0,                           Eun Young%Choi%NULL%2,                           Eun Young%Choi%NULL%0,                           Hyun Jung%Jin%NULL%2,                           Hyun Jung%Jin%NULL%0,                           Jong Geol%Jang%NULL%2,                           Jong Geol%Jang%NULL%0,                           Wonhwa%Lee%NULL%2,                           Wonhwa%Lee%NULL%0,                           June Hong%Ahn%NULL%0,                           June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%0,                          Aggarwal%Saurabh%coreGivesNoEmail%0,                          Garcia-Telles%Nelson%coreGivesNoEmail%0,                          Henry%Brandon Michael%coreGivesNoEmail%0,                          Lavie%Carl%coreGivesNoEmail%0,                          Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                           Dan%Xu%NULL%0,                           Shouzhi%Fu%NULL%0,                           Jun%Zhang%NULL%0,                           Xiaobo%Yang%NULL%0,                           Liang%Xu%NULL%0,                           Jiqian%Xu%NULL%0,                           Yongran%Wu%NULL%0,                           Chaolin%Huang%NULL%0,                           Yaqi%Ouyang%NULL%0,                           Luyu%Yang%NULL%0,                           Minghao%Fang%NULL%0,                           Hongwen%Xiao%NULL%0,                           Jing%Ma%NULL%0,                           Wei%Zhu%NULL%0,                           Song%Hu%NULL%0,                           Quan%Hu%NULL%0,                           Daoyin%Ding%NULL%0,                           Ming%Hu%NULL%0,                           Guochao%Zhu%NULL%0,                           Weijiang%Xu%NULL%0,                           Jun%Guo%NULL%0,                           Jinglong%Xu%NULL%0,                           Haitao%Yuan%NULL%0,                           Bin%Zhang%NULL%0,                           Zhui%Yu%yuzhui@whu.edu.cn%0,                           Dechang%Chen%icudechangchen@163.com%0,                           Shiying%Yuan%yuan_shiying@163.com%0,                           You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0,                           Shaobo%Shi%NULL%2,                           Shaobo%Shi%NULL%0,                           Jiling%Zhu%NULL%1,                           Jinzhi%Shi%NULL%1,                           Kai%Dai%NULL%1,                           Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0,                           Fang-Yang%Huang%NULL%0,                           Tian-Yuan%Xiong%NULL%0,                           Tian-Yuan%Xiong%NULL%0,                           Qi%Liu%NULL%0,                           Hong%Chen%NULL%0,                           Hui%Wang%NULL%0,                           He%Huang%NULL%0,                           Yi-Chun%Luo%NULL%0,                           Xuan%Zhou%NULL%0,                           Zhi-Yue%Liu%NULL%0,                           Yong%Peng%NULL%0,                           Yuan-Ning%Xu%NULL%0,                           Bo%Wang%NULL%0,                           Ying-Ying%Yang%NULL%0,                           Zong-An%Liang%NULL%0,                           Xue-Zhong%Lei%NULL%0,                           Yang%Ge%NULL%0,                           Ming%Yang%NULL%0,                           Ling%Zhang%NULL%0,                           Ming-Quan%Zeng%NULL%0,                           He%Yu%NULL%0,                           Kai%Liu%NULL%0,                           Yu-Heng%Jia%NULL%0,                           Bernard D%Prendergast%NULL%0,                           Wei-Min%Li%NULL%0,                           Wei-Min%Li%NULL%0,                           Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                           Shuyun%Xu%NULL%0,                           Muqing%Yu%NULL%0,                           Ke%Wang%NULL%0,                           Yu%Tao%NULL%0,                           Ying%Zhou%NULL%0,                           Jing%Shi%NULL%0,                           Min%Zhou%NULL%0,                           Bo%Wu%NULL%0,                           Zhenyu%Yang%NULL%0,                           Cong%Zhang%NULL%0,                           Junqing%Yue%NULL%0,                           Zhiguo%Zhang%NULL%0,                           Harald%Renz%NULL%0,                           Xiansheng%Liu%NULL%0,                           Jungang%Xie%NULL%0,                           Min%Xie%NULL%0,                           Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%1,                           Kipp W.%Johnson%NULL%1,                           James L.%Januzzi%NULL%1,                           Adam J.%Russak%NULL%1,                           Ishan%Paranjpe%NULL%0,                           Felix%Richter%NULL%0,                           Shan%Zhao%NULL%0,                           Sulaiman%Somani%NULL%0,                           Tielman%Van Vleck%NULL%1,                           Akhil%Vaid%NULL%0,                           Fayzan%Chaudhry%NULL%1,                           Jessica K.%De Freitas%NULL%1,                           Zahi A.%Fayad%NULL%1,                           Sean P.%Pinney%NULL%1,                           Matthew%Levin%NULL%1,                           Alexander%Charney%NULL%1,                           Emilia%Bagiella%NULL%0,                           Jagat%Narula%NULL%0,                           Benjamin S.%Glicksberg%NULL%1,                           Girish%Nadkarni%NULL%1,                           Donna M.%Mancini%NULL%1,                           Valentin%Fuster%NULL%0,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                           Yeming%Wang%NULL%0,                           Xingwang%Li%NULL%0,                           Lili%Ren%NULL%0,                           Jianping%Zhao%NULL%0,                           Yi%Hu%NULL%0,                           Li%Zhang%NULL%0,                           Guohui%Fan%NULL%0,                           Jiuyang%Xu%NULL%0,                           Xiaoying%Gu%NULL%0,                           Zhenshun%Cheng%NULL%0,                           Ting%Yu%NULL%0,                           Jiaan%Xia%NULL%0,                           Yuan%Wei%NULL%0,                           Wenjuan%Wu%NULL%0,                           Xuelei%Xie%NULL%0,                           Wen%Yin%NULL%0,                           Hui%Li%NULL%0,                           Min%Liu%NULL%0,                           Yan%Xiao%NULL%0,                           Hong%Gao%NULL%0,                           Li%Guo%NULL%0,                           Jungang%Xie%NULL%0,                           Guangfa%Wang%NULL%0,                           Rongmeng%Jiang%NULL%0,                           Zhancheng%Gao%NULL%0,                           Qi%Jin%NULL%0,                           Jianwei%Wang%wangjw28@163.com%0,                           Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                           Linlin%Xie%NULL%1,                           Rui%Liu%NULL%1,                           Jie%Yang%NULL%0,                           Fang%Liu%NULL%2,                           Kailang%Wu%NULL%2,                           Lang%Chen%NULL%1,                           Wei%Hou%NULL%0,                           Yong%Feng%yongfeng@whu.edu.cn%0,                           Chengliang%Zhu%xinchengzhu@163.com%2,                           Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0,                           Bo%Hu%NULL%1,                           Yao%Zhang%NULL%0,                           Hao%Wang%NULL%0,                           Xiaoyang%Zhou%NULL%1,                           Wei%Hu%NULL%1,                           Yuting%Cheng%NULL%1,                           Jie%Yan%NULL%0,                           Haiqin%Ping%NULL%1,                           Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%1,                           Xien%Gui%NULL%1,                           Yongxi%Zhang%NULL%0,                           Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                           Yuan%Yu%NULL%0,                           Jiqian%Xu%NULL%0,                           Huaqing%Shu%NULL%0,                           Jia'an%Xia%NULL%0,                           Hong%Liu%NULL%0,                           Yongran%Wu%NULL%0,                           Lu%Zhang%NULL%0,                           Zhui%Yu%NULL%0,                           Minghao%Fang%NULL%0,                           Ting%Yu%NULL%0,                           Yaxin%Wang%NULL%0,                           Shangwen%Pan%NULL%0,                           Xiaojing%Zou%NULL%0,                           Shiying%Yuan%NULL%0,                           You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                          Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%1,                          Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%1,                          Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%1,                          Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0,                           Miao%Yu%NULL%0,                           Tian%Xie%NULL%0,                           Fen%Yang%NULL%0,                           Hong-Bo%Wang%NULL%0,                           Zhao-Hui%Wang%NULL%0,                           Ming%Li%NULL%0,                           Xing-Li%Gao%NULL%0,                           Bing-Jie%Lv%NULL%0,                           Shi-Jia%Wang%NULL%0,                           Xiao-Bo%Zhang%NULL%0,                           Shao-Lin%He%NULL%0,                           Zhi-Hua%Qiu%NULL%0,                           Yu-Hua%Liao%NULL%0,                           Zi-Hua%Zhou%NULL%0,                           Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                           Yongzhen%Fan%NULL%0,                           Ming%Chen%NULL%0,                           Xiaoyan%Wu%NULL%0,                           Lin%Zhang%NULL%0,                           Tao%He%NULL%0,                           Hairong%Wang%NULL%0,                           Jing%Wan%NULL%0,                           Xinghuan%Wang%NULL%0,                           Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                           Wei%Liu%NULL%0,                           Kui%Liu%NULL%0,                           Yuan-Yuan%Fang%NULL%0,                           Jin%Shang%NULL%1,                           Ling%Zhou%NULL%0,                           Ke%Wang%NULL%0,                           Fan%Leng%NULL%1,                           Shuang%Wei%NULL%0,                           Lei%Chen%NULL%1,                           Hui-Guo%Liu%NULL%0,                           Pei-Fang%Wei%NULL%0,                           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                           Di%Wu%NULL%0,                           Huilong%Chen%NULL%0,                           Weiming%Yan%NULL%0,                           Danlei%Yang%NULL%0,                           Guang%Chen%NULL%0,                           Ke%Ma%NULL%0,                           Dong%Xu%NULL%0,                           Haijing%Yu%NULL%0,                           Hongwu%Wang%NULL%0,                           Tao%Wang%NULL%0,                           Wei%Guo%NULL%0,                           Jia%Chen%NULL%0,                           Chen%Ding%NULL%0,                           Xiaoping%Zhang%NULL%0,                           Jiaquan%Huang%NULL%0,                           Meifang%Han%NULL%0,                           Shusheng%Li%NULL%0,                           Xiaoping%Luo%NULL%0,                           Jianping%Zhao%NULL%0,                           Qin%Ning%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2457,7 +2571,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>582</v>
+        <v>620</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -2489,7 +2603,7 @@
         <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>583</v>
+        <v>621</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2521,7 +2635,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -2553,7 +2667,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2585,7 +2699,7 @@
         <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>585</v>
+        <v>623</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2617,7 +2731,7 @@
         <v>323</v>
       </c>
       <c r="E7" t="s">
-        <v>586</v>
+        <v>624</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -2649,7 +2763,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>587</v>
+        <v>625</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -2681,7 +2795,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>588</v>
+        <v>626</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -2713,7 +2827,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>589</v>
+        <v>627</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -2745,7 +2859,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>590</v>
+        <v>628</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -2777,7 +2891,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>591</v>
+        <v>629</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -2809,7 +2923,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>592</v>
+        <v>630</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -2841,7 +2955,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>593</v>
+        <v>631</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -2873,7 +2987,7 @@
         <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>594</v>
+        <v>632</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -2905,7 +3019,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>595</v>
+        <v>633</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -2937,7 +3051,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>596</v>
+        <v>634</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -2969,7 +3083,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>597</v>
+        <v>635</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
@@ -3001,7 +3115,7 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>598</v>
+        <v>636</v>
       </c>
       <c r="F19" t="s">
         <v>100</v>
@@ -3033,7 +3147,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>599</v>
+        <v>637</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -3065,7 +3179,7 @@
         <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>600</v>
+        <v>638</v>
       </c>
       <c r="F21" t="s">
         <v>109</v>
